--- a/docs/MIDI_menuItems.xlsx
+++ b/docs/MIDI_menuItems.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\FatarScanController\AVR\MIDI-Scancontroller\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="30915" windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
   <si>
     <t>Index #</t>
   </si>
@@ -55,15 +60,6 @@
     <t>Pot 4 CC</t>
   </si>
   <si>
-    <t>Button 1</t>
-  </si>
-  <si>
-    <t>Button 2</t>
-  </si>
-  <si>
-    <t>Button 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">const lcdTextType MenuItems[MENU_ITEMCOUNT] PROGMEM = { </t>
   </si>
   <si>
@@ -220,84 +216,42 @@
     <t>m_cc_subm</t>
   </si>
   <si>
-    <t>m_button_subm</t>
-  </si>
-  <si>
-    <t>Button 4</t>
-  </si>
-  <si>
     <t>m_btn4</t>
   </si>
   <si>
-    <t>Button 5</t>
-  </si>
-  <si>
     <t>m_btn5</t>
   </si>
   <si>
-    <t>Button 6</t>
-  </si>
-  <si>
     <t>m_btn6</t>
   </si>
   <si>
-    <t>Button 7</t>
-  </si>
-  <si>
     <t>m_btn7</t>
   </si>
   <si>
-    <t>Button 8</t>
-  </si>
-  <si>
     <t>m_btn8</t>
   </si>
   <si>
-    <t>Button 9</t>
-  </si>
-  <si>
     <t>m_btn9</t>
   </si>
   <si>
-    <t>Button 10</t>
-  </si>
-  <si>
     <t>m_btn10</t>
   </si>
   <si>
-    <t>Button 11</t>
-  </si>
-  <si>
     <t>m_btn11</t>
   </si>
   <si>
-    <t>Button 12</t>
-  </si>
-  <si>
     <t>m_btn12</t>
   </si>
   <si>
-    <t>Button 13</t>
-  </si>
-  <si>
     <t>m_btn13</t>
   </si>
   <si>
-    <t>Button 14</t>
-  </si>
-  <si>
     <t>m_btn14</t>
   </si>
   <si>
-    <t>Button 15</t>
-  </si>
-  <si>
     <t>m_btn15</t>
   </si>
   <si>
-    <t>Button 16</t>
-  </si>
-  <si>
     <t>m_btn16</t>
   </si>
   <si>
@@ -374,13 +328,169 @@
   </si>
   <si>
     <t>int8_t MenuValues[MENU_ITEMCOUNT] = {</t>
+  </si>
+  <si>
+    <t>Btn 1 CC</t>
+  </si>
+  <si>
+    <t>Btn 2 CC</t>
+  </si>
+  <si>
+    <t>Btn 3 CC</t>
+  </si>
+  <si>
+    <t>Btn 4 CC</t>
+  </si>
+  <si>
+    <t>Btn 5 CC</t>
+  </si>
+  <si>
+    <t>Btn 6 CC</t>
+  </si>
+  <si>
+    <t>Btn 7 CC</t>
+  </si>
+  <si>
+    <t>Btn 8 CC</t>
+  </si>
+  <si>
+    <t>Btn 9 CC</t>
+  </si>
+  <si>
+    <t>Btn 10 CC</t>
+  </si>
+  <si>
+    <t>Btn 11 CC</t>
+  </si>
+  <si>
+    <t>Btn 12 CC</t>
+  </si>
+  <si>
+    <t>Btn 13 CC</t>
+  </si>
+  <si>
+    <t>Btn 14 CC</t>
+  </si>
+  <si>
+    <t>Btn 15 CC</t>
+  </si>
+  <si>
+    <t>Btn 16 CC</t>
+  </si>
+  <si>
+    <t>Btn 1 Mode</t>
+  </si>
+  <si>
+    <t>Btn 2 Mode</t>
+  </si>
+  <si>
+    <t>Btn 3 Mode</t>
+  </si>
+  <si>
+    <t>Btn 4 Mode</t>
+  </si>
+  <si>
+    <t>Btn 5 Mode</t>
+  </si>
+  <si>
+    <t>Btn 6 Mode</t>
+  </si>
+  <si>
+    <t>Btn 7 Mode</t>
+  </si>
+  <si>
+    <t>Btn 8 Mode</t>
+  </si>
+  <si>
+    <t>Btn 9 Mode</t>
+  </si>
+  <si>
+    <t>Btn 10 Mode</t>
+  </si>
+  <si>
+    <t>Btn 11 Mode</t>
+  </si>
+  <si>
+    <t>Btn 12 Mode</t>
+  </si>
+  <si>
+    <t>Btn 13 Mode</t>
+  </si>
+  <si>
+    <t>Btn 14 Mode</t>
+  </si>
+  <si>
+    <t>Btn 15 Mode</t>
+  </si>
+  <si>
+    <t>Btn 16 Mode</t>
+  </si>
+  <si>
+    <t>Button Mode</t>
+  </si>
+  <si>
+    <t>m_btnmode_back</t>
+  </si>
+  <si>
+    <t>m_btnmode1</t>
+  </si>
+  <si>
+    <t>m_btnmode2</t>
+  </si>
+  <si>
+    <t>m_btnmode3</t>
+  </si>
+  <si>
+    <t>m_btnmode4</t>
+  </si>
+  <si>
+    <t>m_btnmode5</t>
+  </si>
+  <si>
+    <t>m_btnmode6</t>
+  </si>
+  <si>
+    <t>m_btnmode7</t>
+  </si>
+  <si>
+    <t>m_btnmode8</t>
+  </si>
+  <si>
+    <t>m_btnmode9</t>
+  </si>
+  <si>
+    <t>m_btnmode10</t>
+  </si>
+  <si>
+    <t>m_btnmode11</t>
+  </si>
+  <si>
+    <t>m_btnmode12</t>
+  </si>
+  <si>
+    <t>m_btnmode13</t>
+  </si>
+  <si>
+    <t>m_btnmode14</t>
+  </si>
+  <si>
+    <t>m_btnmode15</t>
+  </si>
+  <si>
+    <t>m_btnmode16</t>
+  </si>
+  <si>
+    <t>m_btnmode_subm</t>
+  </si>
+  <si>
+    <t>m_btncc_subm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,14 +716,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,9 +764,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,7 +801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
@@ -919,50 +1032,50 @@
     <col min="14" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N1" s="20"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -970,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <f>A51</f>
+        <f>A69</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
@@ -980,40 +1093,40 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" s="22" t="str">
         <f t="shared" ref="H2:H3" si="0">CONCATENATE("  ",G2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_upper_channel, // #0 = Upper Channel</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>CONCATENATE("  { """,B2,""" },  // #",A2," ",IF(C2&lt;0," EXIT SUBM",""))</f>
+        <f t="shared" ref="I2:I13" si="1">CONCATENATE("  { """,B2,""" },  // #",A2," ",IF(C2&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Upper Channel" },  // #0 </v>
       </c>
       <c r="J2" s="22" t="str">
-        <f t="shared" ref="J2" si="1">CONCATENATE("  ",D2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="J2" si="2">CONCATENATE("  ",D2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  1, // #0 = Upper Channel</v>
       </c>
       <c r="K2" s="22" t="str">
-        <f t="shared" ref="K2" si="2">CONCATENATE("  ",E2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="K2" si="3">CONCATENATE("  ",E2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  16, // #0 = Upper Channel</v>
       </c>
       <c r="L2" s="22" t="str">
-        <f t="shared" ref="L2" si="3">CONCATENATE("  ",F2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="L2" si="4">CONCATENATE("  ",F2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  MIDI_CH_UPR, // #0 = Upper Channel</v>
       </c>
       <c r="M2" s="22" t="str">
-        <f t="shared" ref="M2" si="4">CONCATENATE("  ",C2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="M2" si="5">CONCATENATE("  ",C2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #0 = Upper Channel</v>
       </c>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A50" si="5">A2+1</f>
+        <f t="shared" ref="A3:A61" si="6">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1029,40 +1142,40 @@
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  m_lower_channel, // #1 = Lower Channel</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>CONCATENATE("  { """,B3,""" },  // #",A3," ",IF(C3&lt;0," EXIT SUBM",""))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Lower Channel" },  // #1 </v>
       </c>
       <c r="J3" s="22" t="str">
-        <f t="shared" ref="J3:J26" si="6">CONCATENATE("  ",D3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="J3:J13" si="7">CONCATENATE("  ",D3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  1, // #1 = Lower Channel</v>
       </c>
       <c r="K3" s="22" t="str">
-        <f t="shared" ref="K3:K26" si="7">CONCATENATE("  ",E3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="K3:K13" si="8">CONCATENATE("  ",E3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  16, // #1 = Lower Channel</v>
       </c>
       <c r="L3" s="22" t="str">
-        <f t="shared" ref="L3:L26" si="8">CONCATENATE("  ",F3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="L3:L13" si="9">CONCATENATE("  ",F3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  MIDI_CH_LWR, // #1 = Lower Channel</v>
       </c>
       <c r="M3" s="22" t="str">
-        <f t="shared" ref="M3:M26" si="9">CONCATENATE("  ",C3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="M3:M13" si="10">CONCATENATE("  ",C3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #1 = Lower Channel</v>
       </c>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1078,47 +1191,47 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="22" t="str">
-        <f t="shared" ref="H3:H26" si="10">CONCATENATE("  ",G4,", // #",A4," = ",B4,IF(C4&lt;0," EXIT ",""))</f>
+        <f t="shared" ref="H4:H13" si="11">CONCATENATE("  ",G4,", // #",A4," = ",B4,IF(C4&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_pedal_channel, // #2 = Pedal Channel</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>CONCATENATE("  { """,B4,""" },  // #",A4," ",IF(C4&lt;0," EXIT SUBM",""))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pedal Channel" },  // #2 </v>
       </c>
       <c r="J4" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">  1, // #2 = Pedal Channel</v>
       </c>
       <c r="K4" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  16, // #2 = Pedal Channel</v>
       </c>
       <c r="L4" s="22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  MIDI_CH_PED, // #2 = Pedal Channel</v>
       </c>
       <c r="M4" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #2 = Pedal Channel</v>
       </c>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="17" customFormat="1">
       <c r="A5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1126,48 +1239,48 @@
       <c r="E5" s="23">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
+      <c r="F5" s="3">
+        <v>0</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  m_kbd_subm, // #3 = Keyboard</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>CONCATENATE("  { """,B5,""" },  // #",A5," ",IF(C5&lt;0," EXIT SUBM",""))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Keyboard" },  // #3 </v>
       </c>
       <c r="J5" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  0, // #3 = Keyboard</v>
-      </c>
-      <c r="K5" s="24" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #3 = Keyboard</v>
       </c>
+      <c r="K5" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  0, // #3 = Keyboard</v>
+      </c>
       <c r="L5" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  drv_fatar1, // #3 = Keyboard</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  0, // #3 = Keyboard</v>
       </c>
       <c r="M5" s="24" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  41, // #3 = Keyboard</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  59, // #3 = Keyboard</v>
       </c>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="17" customFormat="1">
       <c r="A6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1179,44 +1292,44 @@
         <v>0</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  m_cc_subm, // #4 = Pot Assign</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>CONCATENATE("  { """,B6,""" },  // #",A6," ",IF(C6&lt;0," EXIT SUBM",""))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pot Assign" },  // #4 </v>
       </c>
       <c r="J6" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  0, // #4 = Pot Assign</v>
-      </c>
-      <c r="K6" s="24" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #4 = Pot Assign</v>
       </c>
-      <c r="L6" s="24" t="str">
+      <c r="K6" s="24" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  0, // #4 = Pot Assign</v>
       </c>
+      <c r="L6" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  0, // #4 = Pot Assign</v>
+      </c>
       <c r="M6" s="24" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  7, // #4 = Pot Assign</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  8, // #4 = Pot Assign</v>
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="17" customFormat="1">
       <c r="A7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1228,139 +1341,139 @@
         <v>0</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="H7" s="24" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">  m_button_subm, // #5 = Button Assign</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  m_btncc_subm, // #5 = Button Assign</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>CONCATENATE("  { """,B7,""" },  // #",A7," ",IF(C7&lt;0," EXIT SUBM",""))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Button Assign" },  // #5 </v>
       </c>
       <c r="J7" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  0, // #5 = Button Assign</v>
-      </c>
-      <c r="K7" s="24" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #5 = Button Assign</v>
       </c>
-      <c r="L7" s="24" t="str">
+      <c r="K7" s="24" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  0, // #5 = Button Assign</v>
       </c>
+      <c r="L7" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  0, // #5 = Button Assign</v>
+      </c>
       <c r="M7" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  25, // #5 = Button Assign</v>
+      </c>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" s="17" customFormat="1">
+      <c r="A8" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f t="shared" ref="H8" si="12">CONCATENATE("  ",G8,", // #",A8," = ",B8,IF(C8&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_btnmode_subm, // #6 = Button Mode</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" ref="I8" si="13">CONCATENATE("  { """,B8,""" },  // #",A8," ",IF(C8&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Button Mode" },  // #6 </v>
+      </c>
+      <c r="J8" s="24" t="str">
+        <f t="shared" ref="J8" si="14">CONCATENATE("  ",D8,", // #",A8," = ",B8,IF(C8&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #6 = Button Mode</v>
+      </c>
+      <c r="K8" s="24" t="str">
+        <f t="shared" ref="K8" si="15">CONCATENATE("  ",E8,", // #",A8," = ",B8,IF(C8&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #6 = Button Mode</v>
+      </c>
+      <c r="L8" s="24" t="str">
+        <f t="shared" ref="L8" si="16">CONCATENATE("  ",F8,", // #",A8," = ",B8,IF(C8&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #6 = Button Mode</v>
+      </c>
+      <c r="M8" s="24" t="str">
+        <f t="shared" ref="M8" si="17">CONCATENATE("  ",C8,", // #",A8," = ",B8,IF(C8&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  42, // #6 = Button Mode</v>
+      </c>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  m_end, // #7 = (end)</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "(end)" },  // #7 </v>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  0, // #7 = (end)</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  0, // #7 = (end)</v>
+      </c>
+      <c r="L9" s="22" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  24, // #5 = Button Assign</v>
-      </c>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="22" t="str">
+        <v xml:space="preserve">  0, // #7 = (end)</v>
+      </c>
+      <c r="M9" s="22" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">  m_end, // #6 = (end)</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f>CONCATENATE("  { """,B8,""" },  // #",A8," ",IF(C8&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "(end)" },  // #6 </v>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  0, // #6 = (end)</v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  0, // #6 = (end)</v>
-      </c>
-      <c r="L8" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  0, // #6 = (end)</v>
-      </c>
-      <c r="M8" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  0, // #6 = (end)</v>
-      </c>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v xml:space="preserve">  0, // #7 = (end)</v>
+      </c>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>127</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">  m_CC1, // #7 = Pot 1 CC</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f>CONCATENATE("  { """,B9,""" },  // #",A9," ",IF(C9&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pot 1 CC" },  // #7 </v>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1, // #7 = Pot 1 CC</v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  127, // #7 = Pot 1 CC</v>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  7, // #7 = Pot 1 CC</v>
-      </c>
-      <c r="M9" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  0, // #7 = Pot 1 CC</v>
-      </c>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1372,44 +1485,44 @@
         <v>127</v>
       </c>
       <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  m_CC1, // #8 = Pot 1 CC</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Pot 1 CC" },  // #8 </v>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  -1, // #8 = Pot 1 CC</v>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  127, // #8 = Pot 1 CC</v>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  7, // #8 = Pot 1 CC</v>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0, // #8 = Pot 1 CC</v>
+      </c>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">  m_CC2, // #8 = Pot 2 CC</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f>CONCATENATE("  { """,B10,""" },  // #",A10," ",IF(C10&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pot 2 CC" },  // #8 </v>
-      </c>
-      <c r="J10" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1, // #8 = Pot 2 CC</v>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  127, // #8 = Pot 2 CC</v>
-      </c>
-      <c r="L10" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  10, // #8 = Pot 2 CC</v>
-      </c>
-      <c r="M10" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  0, // #8 = Pot 2 CC</v>
-      </c>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1421,44 +1534,44 @@
         <v>127</v>
       </c>
       <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  m_CC2, // #9 = Pot 2 CC</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Pot 2 CC" },  // #9 </v>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  -1, // #9 = Pot 2 CC</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  127, // #9 = Pot 2 CC</v>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  10, // #9 = Pot 2 CC</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0, // #9 = Pot 2 CC</v>
+      </c>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">  m_CC3, // #9 = Pot 3 CC</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f>CONCATENATE("  { """,B11,""" },  // #",A11," ",IF(C11&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pot 3 CC" },  // #9 </v>
-      </c>
-      <c r="J11" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1, // #9 = Pot 3 CC</v>
-      </c>
-      <c r="K11" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  127, // #9 = Pot 3 CC</v>
-      </c>
-      <c r="L11" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  11, // #9 = Pot 3 CC</v>
-      </c>
-      <c r="M11" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  0, // #9 = Pot 3 CC</v>
-      </c>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1470,44 +1583,44 @@
         <v>127</v>
       </c>
       <c r="F12" s="2">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H12" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  m_CC3, // #10 = Pot 3 CC</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Pot 3 CC" },  // #10 </v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  -1, // #10 = Pot 3 CC</v>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  127, // #10 = Pot 3 CC</v>
+      </c>
+      <c r="L12" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  11, // #10 = Pot 3 CC</v>
+      </c>
+      <c r="M12" s="22" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">  m_CC4, // #10 = Pot 4 CC</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>CONCATENATE("  { """,B12,""" },  // #",A12," ",IF(C12&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pot 4 CC" },  // #10 </v>
-      </c>
-      <c r="J12" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1, // #10 = Pot 4 CC</v>
-      </c>
-      <c r="K12" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  127, // #10 = Pot 4 CC</v>
-      </c>
-      <c r="L12" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  91, // #10 = Pot 4 CC</v>
-      </c>
-      <c r="M12" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  0, // #10 = Pot 4 CC</v>
+        <v xml:space="preserve">  0, // #10 = Pot 3 CC</v>
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1519,44 +1632,44 @@
         <v>127</v>
       </c>
       <c r="F13" s="2">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H13" s="22" t="str">
-        <f t="shared" ref="H13:H24" si="11">CONCATENATE("  ",G13,", // #",A13," = ",B13,IF(C13&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_CC5, // #11 = Pot 5 CC</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  m_CC4, // #11 = Pot 4 CC</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" ref="I13:I24" si="12">CONCATENATE("  { """,B13,""" },  // #",A13," ",IF(C13&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pot 5 CC" },  // #11 </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Pot 4 CC" },  // #11 </v>
       </c>
       <c r="J13" s="22" t="str">
-        <f t="shared" ref="J13:J24" si="13">CONCATENATE("  ",D13,", // #",A13," = ",B13,IF(C13&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #11 = Pot 5 CC</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  -1, // #11 = Pot 4 CC</v>
       </c>
       <c r="K13" s="22" t="str">
-        <f t="shared" ref="K13:K24" si="14">CONCATENATE("  ",E13,", // #",A13," = ",B13,IF(C13&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  127, // #11 = Pot 5 CC</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  127, // #11 = Pot 4 CC</v>
       </c>
       <c r="L13" s="22" t="str">
-        <f t="shared" ref="L13:L24" si="15">CONCATENATE("  ",F13,", // #",A13," = ",B13,IF(C13&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #11 = Pot 5 CC</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  91, // #11 = Pot 4 CC</v>
       </c>
       <c r="M13" s="22" t="str">
-        <f t="shared" ref="M13:M24" si="16">CONCATENATE("  ",C13,", // #",A13," = ",B13,IF(C13&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #11 = Pot 5 CC</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0, // #11 = Pot 4 CC</v>
       </c>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="17" customFormat="1">
       <c r="A14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1571,41 +1684,41 @@
         <v>-1</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H14" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC6, // #12 = Pot 6 CC</v>
+        <f t="shared" ref="H14:H25" si="18">CONCATENATE("  ",G14,", // #",A14," = ",B14,IF(C14&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_CC5, // #12 = Pot 5 CC</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 6 CC" },  // #12 </v>
+        <f t="shared" ref="I14:I25" si="19">CONCATENATE("  { """,B14,""" },  // #",A14," ",IF(C14&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Pot 5 CC" },  // #12 </v>
       </c>
       <c r="J14" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #12 = Pot 6 CC</v>
+        <f t="shared" ref="J14:J25" si="20">CONCATENATE("  ",D14,", // #",A14," = ",B14,IF(C14&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #12 = Pot 5 CC</v>
       </c>
       <c r="K14" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #12 = Pot 6 CC</v>
+        <f t="shared" ref="K14:K25" si="21">CONCATENATE("  ",E14,", // #",A14," = ",B14,IF(C14&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #12 = Pot 5 CC</v>
       </c>
       <c r="L14" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #12 = Pot 6 CC</v>
+        <f t="shared" ref="L14:L25" si="22">CONCATENATE("  ",F14,", // #",A14," = ",B14,IF(C14&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #12 = Pot 5 CC</v>
       </c>
       <c r="M14" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #12 = Pot 6 CC</v>
+        <f t="shared" ref="M14:M25" si="23">CONCATENATE("  ",C14,", // #",A14," = ",B14,IF(C14&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #12 = Pot 5 CC</v>
       </c>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1620,41 +1733,41 @@
         <v>-1</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H15" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC7, // #13 = Pot 7 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC6, // #13 = Pot 6 CC</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 7 CC" },  // #13 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 6 CC" },  // #13 </v>
       </c>
       <c r="J15" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #13 = Pot 7 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #13 = Pot 6 CC</v>
       </c>
       <c r="K15" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #13 = Pot 7 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #13 = Pot 6 CC</v>
       </c>
       <c r="L15" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #13 = Pot 7 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #13 = Pot 6 CC</v>
       </c>
       <c r="M15" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #13 = Pot 7 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #13 = Pot 6 CC</v>
       </c>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1669,41 +1782,41 @@
         <v>-1</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H16" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC8, // #14 = Pot 8 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC7, // #14 = Pot 7 CC</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 8 CC" },  // #14 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 7 CC" },  // #14 </v>
       </c>
       <c r="J16" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #14 = Pot 8 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #14 = Pot 7 CC</v>
       </c>
       <c r="K16" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #14 = Pot 8 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #14 = Pot 7 CC</v>
       </c>
       <c r="L16" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #14 = Pot 8 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #14 = Pot 7 CC</v>
       </c>
       <c r="M16" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #14 = Pot 8 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #14 = Pot 7 CC</v>
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1718,41 +1831,41 @@
         <v>-1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H17" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC9, // #15 = Pot 9 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC8, // #15 = Pot 8 CC</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 9 CC" },  // #15 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 8 CC" },  // #15 </v>
       </c>
       <c r="J17" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #15 = Pot 9 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #15 = Pot 8 CC</v>
       </c>
       <c r="K17" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #15 = Pot 9 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #15 = Pot 8 CC</v>
       </c>
       <c r="L17" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #15 = Pot 9 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #15 = Pot 8 CC</v>
       </c>
       <c r="M17" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #15 = Pot 9 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #15 = Pot 8 CC</v>
       </c>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1767,41 +1880,41 @@
         <v>-1</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H18" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC10, // #16 = Pot 10 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC9, // #16 = Pot 9 CC</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 10 CC" },  // #16 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 9 CC" },  // #16 </v>
       </c>
       <c r="J18" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #16 = Pot 10 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #16 = Pot 9 CC</v>
       </c>
       <c r="K18" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #16 = Pot 10 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #16 = Pot 9 CC</v>
       </c>
       <c r="L18" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #16 = Pot 10 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #16 = Pot 9 CC</v>
       </c>
       <c r="M18" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #16 = Pot 10 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #16 = Pot 9 CC</v>
       </c>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="17" customFormat="1">
       <c r="A19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1816,41 +1929,41 @@
         <v>-1</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="H19" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC11, // #17 = Pot 11 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC10, // #17 = Pot 10 CC</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 11 CC" },  // #17 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 10 CC" },  // #17 </v>
       </c>
       <c r="J19" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #17 = Pot 11 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #17 = Pot 10 CC</v>
       </c>
       <c r="K19" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #17 = Pot 11 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #17 = Pot 10 CC</v>
       </c>
       <c r="L19" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #17 = Pot 11 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #17 = Pot 10 CC</v>
       </c>
       <c r="M19" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #17 = Pot 11 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #17 = Pot 10 CC</v>
       </c>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1865,41 +1978,41 @@
         <v>-1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H20" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC12, // #18 = Pot 12 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC11, // #18 = Pot 11 CC</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 12 CC" },  // #18 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 11 CC" },  // #18 </v>
       </c>
       <c r="J20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #18 = Pot 12 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #18 = Pot 11 CC</v>
       </c>
       <c r="K20" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #18 = Pot 12 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #18 = Pot 11 CC</v>
       </c>
       <c r="L20" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #18 = Pot 12 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #18 = Pot 11 CC</v>
       </c>
       <c r="M20" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #18 = Pot 12 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #18 = Pot 11 CC</v>
       </c>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1914,41 +2027,41 @@
         <v>-1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H21" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC13, // #19 = Pot 13 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC12, // #19 = Pot 12 CC</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 13 CC" },  // #19 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 12 CC" },  // #19 </v>
       </c>
       <c r="J21" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #19 = Pot 13 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #19 = Pot 12 CC</v>
       </c>
       <c r="K21" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #19 = Pot 13 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #19 = Pot 12 CC</v>
       </c>
       <c r="L21" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #19 = Pot 13 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #19 = Pot 12 CC</v>
       </c>
       <c r="M21" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #19 = Pot 13 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #19 = Pot 12 CC</v>
       </c>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1963,41 +2076,41 @@
         <v>-1</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H22" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC14, // #20 = Pot 14 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC13, // #20 = Pot 13 CC</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 14 CC" },  // #20 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 13 CC" },  // #20 </v>
       </c>
       <c r="J22" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #20 = Pot 14 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #20 = Pot 13 CC</v>
       </c>
       <c r="K22" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #20 = Pot 14 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #20 = Pot 13 CC</v>
       </c>
       <c r="L22" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #20 = Pot 14 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #20 = Pot 13 CC</v>
       </c>
       <c r="M22" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #20 = Pot 14 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #20 = Pot 13 CC</v>
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -2012,41 +2125,41 @@
         <v>-1</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H23" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC15, // #21 = Pot 15 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC14, // #21 = Pot 14 CC</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 15 CC" },  // #21 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 14 CC" },  // #21 </v>
       </c>
       <c r="J23" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #21 = Pot 15 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #21 = Pot 14 CC</v>
       </c>
       <c r="K23" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #21 = Pot 15 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #21 = Pot 14 CC</v>
       </c>
       <c r="L23" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #21 = Pot 15 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #21 = Pot 14 CC</v>
       </c>
       <c r="M23" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #21 = Pot 15 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #21 = Pot 14 CC</v>
       </c>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -2061,143 +2174,142 @@
         <v>-1</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H24" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  m_CC16, // #22 = Pot 16 CC</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC15, // #22 = Pot 15 CC</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  { "Pot 16 CC" },  // #22 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 15 CC" },  // #22 </v>
       </c>
       <c r="J24" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  -1, // #22 = Pot 16 CC</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #22 = Pot 15 CC</v>
       </c>
       <c r="K24" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  127, // #22 = Pot 16 CC</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #22 = Pot 15 CC</v>
       </c>
       <c r="L24" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  -1, // #22 = Pot 16 CC</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #22 = Pot 15 CC</v>
       </c>
       <c r="M24" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  0, // #22 = Pot 16 CC</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #22 = Pot 15 CC</v>
       </c>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>127</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  m_CC16, // #23 = Pot 16 CC</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  { "Pot 16 CC" },  // #23 </v>
+      </c>
+      <c r="J25" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  -1, // #23 = Pot 16 CC</v>
+      </c>
+      <c r="K25" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  127, // #23 = Pot 16 CC</v>
+      </c>
+      <c r="L25" s="22" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  -1, // #23 = Pot 16 CC</v>
+      </c>
+      <c r="M25" s="22" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #23 = Pot 16 CC</v>
+      </c>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>-1</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="22" t="str">
-        <f>CONCATENATE("  ",G25,", // #",A25," = ",B25,IF(C25&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_cc_back, // #23 = Pot Assign EXIT </v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f>CONCATENATE("  { """,B25,""" },  // #",A25," ",IF(C25&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pot Assign" },  // #23  EXIT SUBM</v>
-      </c>
-      <c r="J25" s="22" t="str">
-        <f>CONCATENATE("  ",D25,", // #",A25," = ",B25,IF(C25&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #23 = Pot Assign EXIT </v>
-      </c>
-      <c r="K25" s="22" t="str">
-        <f>CONCATENATE("  ",E25,", // #",A25," = ",B25,IF(C25&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #23 = Pot Assign EXIT </v>
-      </c>
-      <c r="L25" s="22" t="str">
-        <f>CONCATENATE("  ",F25,", // #",A25," = ",B25,IF(C25&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #23 = Pot Assign EXIT </v>
-      </c>
-      <c r="M25" s="22" t="str">
-        <f>CONCATENATE("  ",C25,", // #",A25," = ",B25,IF(C25&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #23 = Pot Assign EXIT </v>
-      </c>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2">
-        <f>A143</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>127</v>
-      </c>
-      <c r="F26" s="2">
-        <v>20</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>59</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="H26" s="22" t="str">
         <f>CONCATENATE("  ",G26,", // #",A26," = ",B26,IF(C26&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_btn1, // #24 = Button 1</v>
+        <v xml:space="preserve">  m_cc_back, // #24 = Pot Assign EXIT </v>
       </c>
       <c r="I26" s="2" t="str">
         <f>CONCATENATE("  { """,B26,""" },  // #",A26," ",IF(C26&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Button 1" },  // #24 </v>
+        <v xml:space="preserve">  { "Pot Assign" },  // #24  EXIT SUBM</v>
       </c>
       <c r="J26" s="22" t="str">
         <f>CONCATENATE("  ",D26,", // #",A26," = ",B26,IF(C26&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #24 = Button 1</v>
+        <v xml:space="preserve">  0, // #24 = Pot Assign EXIT </v>
       </c>
       <c r="K26" s="22" t="str">
         <f>CONCATENATE("  ",E26,", // #",A26," = ",B26,IF(C26&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  127, // #24 = Button 1</v>
+        <v xml:space="preserve">  0, // #24 = Pot Assign EXIT </v>
       </c>
       <c r="L26" s="22" t="str">
         <f>CONCATENATE("  ",F26,", // #",A26," = ",B26,IF(C26&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  20, // #24 = Button 1</v>
+        <v xml:space="preserve">  0, // #24 = Pot Assign EXIT </v>
       </c>
       <c r="M26" s="22" t="str">
         <f>CONCATENATE("  ",C26,", // #",A26," = ",B26,IF(C26&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #24 = Button 1</v>
+        <v xml:space="preserve">  -1, // #24 = Pot Assign EXIT </v>
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="17" customFormat="1">
       <c r="A27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2">
-        <f>A143</f>
+        <f>A144</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
@@ -2207,47 +2319,47 @@
         <v>127</v>
       </c>
       <c r="F27" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="22" t="str">
         <f>CONCATENATE("  ",G27,", // #",A27," = ",B27,IF(C27&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_btn2, // #25 = Button 2</v>
+        <v xml:space="preserve">  m_btn1, // #25 = Btn 1 CC</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>CONCATENATE("  { """,B27,""" },  // #",A27," ",IF(C27&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Button 2" },  // #25 </v>
+        <v xml:space="preserve">  { "Btn 1 CC" },  // #25 </v>
       </c>
       <c r="J27" s="22" t="str">
         <f>CONCATENATE("  ",D27,", // #",A27," = ",B27,IF(C27&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #25 = Button 2</v>
+        <v xml:space="preserve">  -1, // #25 = Btn 1 CC</v>
       </c>
       <c r="K27" s="22" t="str">
         <f>CONCATENATE("  ",E27,", // #",A27," = ",B27,IF(C27&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  127, // #25 = Button 2</v>
+        <v xml:space="preserve">  127, // #25 = Btn 1 CC</v>
       </c>
       <c r="L27" s="22" t="str">
         <f>CONCATENATE("  ",F27,", // #",A27," = ",B27,IF(C27&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  21, // #25 = Button 2</v>
+        <v xml:space="preserve">  20, // #25 = Btn 1 CC</v>
       </c>
       <c r="M27" s="22" t="str">
         <f>CONCATENATE("  ",C27,", // #",A27," = ",B27,IF(C27&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #25 = Button 2</v>
+        <v xml:space="preserve">  0, // #25 = Btn 1 CC</v>
       </c>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2">
-        <f>A143</f>
+        <f>A144</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
@@ -2257,47 +2369,47 @@
         <v>127</v>
       </c>
       <c r="F28" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H28" s="22" t="str">
         <f>CONCATENATE("  ",G28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_btn3, // #26 = Button 3</v>
+        <v xml:space="preserve">  m_btn2, // #26 = Btn 2 CC</v>
       </c>
       <c r="I28" s="2" t="str">
         <f>CONCATENATE("  { """,B28,""" },  // #",A28," ",IF(C28&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Button 3" },  // #26 </v>
+        <v xml:space="preserve">  { "Btn 2 CC" },  // #26 </v>
       </c>
       <c r="J28" s="22" t="str">
         <f>CONCATENATE("  ",D28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #26 = Button 3</v>
+        <v xml:space="preserve">  -1, // #26 = Btn 2 CC</v>
       </c>
       <c r="K28" s="22" t="str">
         <f>CONCATENATE("  ",E28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  127, // #26 = Button 3</v>
+        <v xml:space="preserve">  127, // #26 = Btn 2 CC</v>
       </c>
       <c r="L28" s="22" t="str">
         <f>CONCATENATE("  ",F28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  22, // #26 = Button 3</v>
+        <v xml:space="preserve">  21, // #26 = Btn 2 CC</v>
       </c>
       <c r="M28" s="22" t="str">
         <f>CONCATENATE("  ",C28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #26 = Button 3</v>
+        <v xml:space="preserve">  0, // #26 = Btn 2 CC</v>
       </c>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2">
-        <f>A93</f>
+        <f>A144</f>
         <v>0</v>
       </c>
       <c r="D29" s="2">
@@ -2307,47 +2419,47 @@
         <v>127</v>
       </c>
       <c r="F29" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H29" s="22" t="str">
         <f>CONCATENATE("  ",G29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_btn4, // #27 = Button 4</v>
+        <v xml:space="preserve">  m_btn3, // #27 = Btn 3 CC</v>
       </c>
       <c r="I29" s="2" t="str">
         <f>CONCATENATE("  { """,B29,""" },  // #",A29," ",IF(C29&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Button 4" },  // #27 </v>
+        <v xml:space="preserve">  { "Btn 3 CC" },  // #27 </v>
       </c>
       <c r="J29" s="22" t="str">
         <f>CONCATENATE("  ",D29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #27 = Button 4</v>
+        <v xml:space="preserve">  -1, // #27 = Btn 3 CC</v>
       </c>
       <c r="K29" s="22" t="str">
         <f>CONCATENATE("  ",E29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  127, // #27 = Button 4</v>
+        <v xml:space="preserve">  127, // #27 = Btn 3 CC</v>
       </c>
       <c r="L29" s="22" t="str">
         <f>CONCATENATE("  ",F29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  23, // #27 = Button 4</v>
+        <v xml:space="preserve">  22, // #27 = Btn 3 CC</v>
       </c>
       <c r="M29" s="22" t="str">
         <f>CONCATENATE("  ",C29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #27 = Button 4</v>
+        <v xml:space="preserve">  0, // #27 = Btn 3 CC</v>
       </c>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2">
-        <f>A94</f>
+        <f t="shared" ref="C30:C42" si="24">A94</f>
         <v>0</v>
       </c>
       <c r="D30" s="2">
@@ -2357,47 +2469,47 @@
         <v>127</v>
       </c>
       <c r="F30" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" ref="H30:H41" si="17">CONCATENATE("  ",G30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_btn5, // #28 = Button 5</v>
+        <f>CONCATENATE("  ",G30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_btn4, // #28 = Btn 4 CC</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" ref="I30:I41" si="18">CONCATENATE("  { """,B30,""" },  // #",A30," ",IF(C30&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Button 5" },  // #28 </v>
+        <f>CONCATENATE("  { """,B30,""" },  // #",A30," ",IF(C30&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Btn 4 CC" },  // #28 </v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" ref="J30:J41" si="19">CONCATENATE("  ",D30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #28 = Button 5</v>
+        <f>CONCATENATE("  ",D30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #28 = Btn 4 CC</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" ref="K30:K41" si="20">CONCATENATE("  ",E30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  127, // #28 = Button 5</v>
+        <f>CONCATENATE("  ",E30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #28 = Btn 4 CC</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" ref="L30:L41" si="21">CONCATENATE("  ",F30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  24, // #28 = Button 5</v>
+        <f>CONCATENATE("  ",F30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  23, // #28 = Btn 4 CC</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" ref="M30:M41" si="22">CONCATENATE("  ",C30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #28 = Button 5</v>
+        <f>CONCATENATE("  ",C30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #28 = Btn 4 CC</v>
       </c>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2">
-        <f>A95</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D31" s="2">
@@ -2407,47 +2519,47 @@
         <v>127</v>
       </c>
       <c r="F31" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn6, // #29 = Button 6</v>
+        <f t="shared" ref="H31:H42" si="25">CONCATENATE("  ",G31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_btn5, // #29 = Btn 5 CC</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 6" },  // #29 </v>
+        <f t="shared" ref="I31:I42" si="26">CONCATENATE("  { """,B31,""" },  // #",A31," ",IF(C31&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Btn 5 CC" },  // #29 </v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #29 = Button 6</v>
+        <f t="shared" ref="J31:J42" si="27">CONCATENATE("  ",D31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #29 = Btn 5 CC</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #29 = Button 6</v>
+        <f t="shared" ref="K31:K42" si="28">CONCATENATE("  ",E31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #29 = Btn 5 CC</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  25, // #29 = Button 6</v>
+        <f t="shared" ref="L31:L42" si="29">CONCATENATE("  ",F31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  24, // #29 = Btn 5 CC</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #29 = Button 6</v>
+        <f t="shared" ref="M31:M42" si="30">CONCATENATE("  ",C31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #29 = Btn 5 CC</v>
       </c>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2">
-        <f>A96</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D32" s="2">
@@ -2457,47 +2569,47 @@
         <v>127</v>
       </c>
       <c r="F32" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn7, // #30 = Button 7</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn6, // #30 = Btn 6 CC</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 7" },  // #30 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 6 CC" },  // #30 </v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #30 = Button 7</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #30 = Btn 6 CC</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #30 = Button 7</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #30 = Btn 6 CC</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  26, // #30 = Button 7</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  25, // #30 = Btn 6 CC</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #30 = Button 7</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #30 = Btn 6 CC</v>
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2">
-        <f>A97</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D33" s="2">
@@ -2507,47 +2619,47 @@
         <v>127</v>
       </c>
       <c r="F33" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn8, // #31 = Button 8</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn7, // #31 = Btn 7 CC</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 8" },  // #31 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 7 CC" },  // #31 </v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #31 = Button 8</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #31 = Btn 7 CC</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #31 = Button 8</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #31 = Btn 7 CC</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  27, // #31 = Button 8</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  26, // #31 = Btn 7 CC</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #31 = Button 8</v>
-      </c>
-      <c r="O33" s="21"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #31 = Btn 7 CC</v>
+      </c>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2">
-        <f>A98</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D34" s="2">
@@ -2557,47 +2669,47 @@
         <v>127</v>
       </c>
       <c r="F34" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H34" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn9, // #32 = Button 9</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn8, // #32 = Btn 8 CC</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 9" },  // #32 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 8 CC" },  // #32 </v>
       </c>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #32 = Button 9</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #32 = Btn 8 CC</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #32 = Button 9</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #32 = Btn 8 CC</v>
       </c>
       <c r="L34" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  28, // #32 = Button 9</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  27, // #32 = Btn 8 CC</v>
       </c>
       <c r="M34" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #32 = Button 9</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #32 = Btn 8 CC</v>
       </c>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2">
-        <f>A99</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D35" s="2">
@@ -2607,47 +2719,47 @@
         <v>127</v>
       </c>
       <c r="F35" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H35" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn10, // #33 = Button 10</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn9, // #33 = Btn 9 CC</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 10" },  // #33 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 9 CC" },  // #33 </v>
       </c>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #33 = Button 10</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #33 = Btn 9 CC</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #33 = Button 10</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #33 = Btn 9 CC</v>
       </c>
       <c r="L35" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  29, // #33 = Button 10</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  28, // #33 = Btn 9 CC</v>
       </c>
       <c r="M35" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #33 = Button 10</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #33 = Btn 9 CC</v>
       </c>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2">
-        <f>A100</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D36" s="2">
@@ -2657,47 +2769,47 @@
         <v>127</v>
       </c>
       <c r="F36" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H36" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn11, // #34 = Button 11</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn10, // #34 = Btn 10 CC</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 11" },  // #34 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 10 CC" },  // #34 </v>
       </c>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #34 = Button 11</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #34 = Btn 10 CC</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #34 = Button 11</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #34 = Btn 10 CC</v>
       </c>
       <c r="L36" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  30, // #34 = Button 11</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  29, // #34 = Btn 10 CC</v>
       </c>
       <c r="M36" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #34 = Button 11</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #34 = Btn 10 CC</v>
       </c>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2">
-        <f>A101</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D37" s="2">
@@ -2707,47 +2819,47 @@
         <v>127</v>
       </c>
       <c r="F37" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H37" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn12, // #35 = Button 12</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn11, // #35 = Btn 11 CC</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 12" },  // #35 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 11 CC" },  // #35 </v>
       </c>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #35 = Button 12</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #35 = Btn 11 CC</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #35 = Button 12</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #35 = Btn 11 CC</v>
       </c>
       <c r="L37" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  31, // #35 = Button 12</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  30, // #35 = Btn 11 CC</v>
       </c>
       <c r="M37" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #35 = Button 12</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #35 = Btn 11 CC</v>
       </c>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2">
-        <f>A102</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D38" s="2">
@@ -2757,47 +2869,47 @@
         <v>127</v>
       </c>
       <c r="F38" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H38" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn13, // #36 = Button 13</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn12, // #36 = Btn 12 CC</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 13" },  // #36 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 12 CC" },  // #36 </v>
       </c>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #36 = Button 13</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #36 = Btn 12 CC</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #36 = Button 13</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #36 = Btn 12 CC</v>
       </c>
       <c r="L38" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  32, // #36 = Button 13</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  31, // #36 = Btn 12 CC</v>
       </c>
       <c r="M38" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #36 = Button 13</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #36 = Btn 12 CC</v>
       </c>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2">
-        <f>A103</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D39" s="2">
@@ -2807,47 +2919,47 @@
         <v>127</v>
       </c>
       <c r="F39" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H39" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn14, // #37 = Button 14</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn13, // #37 = Btn 13 CC</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 14" },  // #37 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 13 CC" },  // #37 </v>
       </c>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #37 = Button 14</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #37 = Btn 13 CC</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #37 = Button 14</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #37 = Btn 13 CC</v>
       </c>
       <c r="L39" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  33, // #37 = Button 14</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  32, // #37 = Btn 13 CC</v>
       </c>
       <c r="M39" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #37 = Button 14</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #37 = Btn 13 CC</v>
       </c>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C40" s="2">
-        <f>A104</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D40" s="2">
@@ -2857,47 +2969,47 @@
         <v>127</v>
       </c>
       <c r="F40" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H40" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn15, // #38 = Button 15</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn14, // #38 = Btn 14 CC</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 15" },  // #38 </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 14 CC" },  // #38 </v>
       </c>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #38 = Button 15</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #38 = Btn 14 CC</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #38 = Button 15</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #38 = Btn 14 CC</v>
       </c>
       <c r="L40" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  34, // #38 = Button 15</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  33, // #38 = Btn 14 CC</v>
       </c>
       <c r="M40" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #38 = Button 15</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #38 = Btn 14 CC</v>
       </c>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2">
-        <f>A105</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D41" s="2">
@@ -2907,721 +3019,1576 @@
         <v>127</v>
       </c>
       <c r="F41" s="2">
+        <v>34</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn15, // #39 = Btn 15 CC</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 15 CC" },  // #39 </v>
+      </c>
+      <c r="J41" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #39 = Btn 15 CC</v>
+      </c>
+      <c r="K41" s="22" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #39 = Btn 15 CC</v>
+      </c>
+      <c r="L41" s="22" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  34, // #39 = Btn 15 CC</v>
+      </c>
+      <c r="M41" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #39 = Btn 15 CC</v>
+      </c>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>127</v>
+      </c>
+      <c r="F42" s="2">
         <v>35</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  m_btn16, // #39 = Button 16</v>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  { "Button 16" },  // #39 </v>
-      </c>
-      <c r="J41" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  -1, // #39 = Button 16</v>
-      </c>
-      <c r="K41" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  127, // #39 = Button 16</v>
-      </c>
-      <c r="L41" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  35, // #39 = Button 16</v>
-      </c>
-      <c r="M41" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  0, // #39 = Button 16</v>
-      </c>
-      <c r="O41" s="21"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <f t="shared" si="5"/>
+      <c r="G42" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  m_btn16, // #40 = Btn 16 CC</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  { "Btn 16 CC" },  // #40 </v>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  -1, // #40 = Btn 16 CC</v>
+      </c>
+      <c r="K42" s="22" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  127, // #40 = Btn 16 CC</v>
+      </c>
+      <c r="L42" s="22" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  35, // #40 = Btn 16 CC</v>
+      </c>
+      <c r="M42" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #40 = Btn 16 CC</v>
+      </c>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="22" t="str">
+        <f t="shared" ref="H43:H51" si="31">CONCATENATE("  ",G43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_btn_back, // #41 = Button Assign EXIT </v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f t="shared" ref="I43:I51" si="32">CONCATENATE("  { """,B43,""" },  // #",A43," ",IF(C43&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Button Assign" },  // #41  EXIT SUBM</v>
+      </c>
+      <c r="J43" s="22" t="str">
+        <f t="shared" ref="J43:J51" si="33">CONCATENATE("  ",D43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #41 = Button Assign EXIT </v>
+      </c>
+      <c r="K43" s="22" t="str">
+        <f t="shared" ref="K43:K51" si="34">CONCATENATE("  ",E43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #41 = Button Assign EXIT </v>
+      </c>
+      <c r="L43" s="22" t="str">
+        <f t="shared" ref="L43:L51" si="35">CONCATENATE("  ",F43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #41 = Button Assign EXIT </v>
+      </c>
+      <c r="M43" s="22" t="str">
+        <f t="shared" ref="M43:M51" si="36">CONCATENATE("  ",C43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #41 = Button Assign EXIT </v>
+      </c>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2">
+        <f>A161</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <f>B161</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <f>D161</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="22" t="str">
+        <f t="shared" ref="H44:H60" si="37">CONCATENATE("  ",G44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_btnmode1, // #42 = Btn 1 Mode</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f t="shared" ref="I44:I60" si="38">CONCATENATE("  { """,B44,""" },  // #",A44," ",IF(C44&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Btn 1 Mode" },  // #42 </v>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f t="shared" ref="J44:J60" si="39">CONCATENATE("  ",D44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #42 = Btn 1 Mode</v>
+      </c>
+      <c r="K44" s="22" t="str">
+        <f t="shared" ref="K44:K60" si="40">CONCATENATE("  ",E44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  1, // #42 = Btn 1 Mode</v>
+      </c>
+      <c r="L44" s="22" t="str">
+        <f t="shared" ref="L44:L60" si="41">CONCATENATE("  ",F44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #42 = Btn 1 Mode</v>
+      </c>
+      <c r="M44" s="22" t="str">
+        <f t="shared" ref="M44:M60" si="42">CONCATENATE("  ",C44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #42 = Btn 1 Mode</v>
+      </c>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="2">
+        <f>A161</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <f>B161</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <f>D161</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode2, // #43 = Btn 2 Mode</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 2 Mode" },  // #43 </v>
+      </c>
+      <c r="J45" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #43 = Btn 2 Mode</v>
+      </c>
+      <c r="K45" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #43 = Btn 2 Mode</v>
+      </c>
+      <c r="L45" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #43 = Btn 2 Mode</v>
+      </c>
+      <c r="M45" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #43 = Btn 2 Mode</v>
+      </c>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="2">
+        <f>A161</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <f>B161</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f>D161</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode3, // #44 = Btn 3 Mode</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 3 Mode" },  // #44 </v>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #44 = Btn 3 Mode</v>
+      </c>
+      <c r="K46" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #44 = Btn 3 Mode</v>
+      </c>
+      <c r="L46" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #44 = Btn 3 Mode</v>
+      </c>
+      <c r="M46" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #44 = Btn 3 Mode</v>
+      </c>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="3">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ref="C47:F59" si="43">A111</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode4, // #45 = Btn 4 Mode</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 4 Mode" },  // #45 </v>
+      </c>
+      <c r="J47" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #45 = Btn 4 Mode</v>
+      </c>
+      <c r="K47" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #45 = Btn 4 Mode</v>
+      </c>
+      <c r="L47" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #45 = Btn 4 Mode</v>
+      </c>
+      <c r="M47" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #45 = Btn 4 Mode</v>
+      </c>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode5, // #46 = Btn 5 Mode</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 5 Mode" },  // #46 </v>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #46 = Btn 5 Mode</v>
+      </c>
+      <c r="K48" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #46 = Btn 5 Mode</v>
+      </c>
+      <c r="L48" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #46 = Btn 5 Mode</v>
+      </c>
+      <c r="M48" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #46 = Btn 5 Mode</v>
+      </c>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="3">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode6, // #47 = Btn 6 Mode</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 6 Mode" },  // #47 </v>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #47 = Btn 6 Mode</v>
+      </c>
+      <c r="K49" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #47 = Btn 6 Mode</v>
+      </c>
+      <c r="L49" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #47 = Btn 6 Mode</v>
+      </c>
+      <c r="M49" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #47 = Btn 6 Mode</v>
+      </c>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="3">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode7, // #48 = Btn 7 Mode</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 7 Mode" },  // #48 </v>
+      </c>
+      <c r="J50" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #48 = Btn 7 Mode</v>
+      </c>
+      <c r="K50" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #48 = Btn 7 Mode</v>
+      </c>
+      <c r="L50" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #48 = Btn 7 Mode</v>
+      </c>
+      <c r="M50" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #48 = Btn 7 Mode</v>
+      </c>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="3">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode8, // #49 = Btn 8 Mode</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 8 Mode" },  // #49 </v>
+      </c>
+      <c r="J51" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #49 = Btn 8 Mode</v>
+      </c>
+      <c r="K51" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #49 = Btn 8 Mode</v>
+      </c>
+      <c r="L51" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #49 = Btn 8 Mode</v>
+      </c>
+      <c r="M51" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #49 = Btn 8 Mode</v>
+      </c>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode9, // #50 = Btn 9 Mode</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 9 Mode" },  // #50 </v>
+      </c>
+      <c r="J52" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #50 = Btn 9 Mode</v>
+      </c>
+      <c r="K52" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #50 = Btn 9 Mode</v>
+      </c>
+      <c r="L52" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #50 = Btn 9 Mode</v>
+      </c>
+      <c r="M52" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #50 = Btn 9 Mode</v>
+      </c>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode10, // #51 = Btn 10 Mode</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 10 Mode" },  // #51 </v>
+      </c>
+      <c r="J53" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #51 = Btn 10 Mode</v>
+      </c>
+      <c r="K53" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #51 = Btn 10 Mode</v>
+      </c>
+      <c r="L53" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #51 = Btn 10 Mode</v>
+      </c>
+      <c r="M53" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #51 = Btn 10 Mode</v>
+      </c>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode11, // #52 = Btn 11 Mode</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 11 Mode" },  // #52 </v>
+      </c>
+      <c r="J54" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #52 = Btn 11 Mode</v>
+      </c>
+      <c r="K54" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #52 = Btn 11 Mode</v>
+      </c>
+      <c r="L54" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #52 = Btn 11 Mode</v>
+      </c>
+      <c r="M54" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #52 = Btn 11 Mode</v>
+      </c>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="3">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode12, // #53 = Btn 12 Mode</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 12 Mode" },  // #53 </v>
+      </c>
+      <c r="J55" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #53 = Btn 12 Mode</v>
+      </c>
+      <c r="K55" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #53 = Btn 12 Mode</v>
+      </c>
+      <c r="L55" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #53 = Btn 12 Mode</v>
+      </c>
+      <c r="M55" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #53 = Btn 12 Mode</v>
+      </c>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="3">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode13, // #54 = Btn 13 Mode</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 13 Mode" },  // #54 </v>
+      </c>
+      <c r="J56" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #54 = Btn 13 Mode</v>
+      </c>
+      <c r="K56" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #54 = Btn 13 Mode</v>
+      </c>
+      <c r="L56" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #54 = Btn 13 Mode</v>
+      </c>
+      <c r="M56" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #54 = Btn 13 Mode</v>
+      </c>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="3">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode14, // #55 = Btn 14 Mode</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 14 Mode" },  // #55 </v>
+      </c>
+      <c r="J57" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #55 = Btn 14 Mode</v>
+      </c>
+      <c r="K57" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #55 = Btn 14 Mode</v>
+      </c>
+      <c r="L57" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #55 = Btn 14 Mode</v>
+      </c>
+      <c r="M57" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #55 = Btn 14 Mode</v>
+      </c>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="3">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode15, // #56 = Btn 15 Mode</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 15 Mode" },  // #56 </v>
+      </c>
+      <c r="J58" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #56 = Btn 15 Mode</v>
+      </c>
+      <c r="K58" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #56 = Btn 15 Mode</v>
+      </c>
+      <c r="L58" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #56 = Btn 15 Mode</v>
+      </c>
+      <c r="M58" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #56 = Btn 15 Mode</v>
+      </c>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="3">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H59" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode16, // #57 = Btn 16 Mode</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Btn 16 Mode" },  // #57 </v>
+      </c>
+      <c r="J59" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #57 = Btn 16 Mode</v>
+      </c>
+      <c r="K59" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  1, // #57 = Btn 16 Mode</v>
+      </c>
+      <c r="L59" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #57 = Btn 16 Mode</v>
+      </c>
+      <c r="M59" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  0, // #57 = Btn 16 Mode</v>
+      </c>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  m_btnmode_back, // #58 = Button Mode EXIT </v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  { "Button Mode" },  // #58  EXIT SUBM</v>
+      </c>
+      <c r="J60" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  0, // #58 = Button Mode EXIT </v>
+      </c>
+      <c r="K60" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  0, // #58 = Button Mode EXIT </v>
+      </c>
+      <c r="L60" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  0, // #58 = Button Mode EXIT </v>
+      </c>
+      <c r="M60" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  -1, // #58 = Button Mode EXIT </v>
+      </c>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <f>A79</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="22" t="str">
+        <f>CONCATENATE("  ",G61,", // #",A61," = ",B61,IF(C61&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_driver_type, // #59 = Kbd Driver</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>CONCATENATE("  { """,B61,""" },  // #",A61," ",IF(C61&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Kbd Driver" },  // #59 </v>
+      </c>
+      <c r="J61" s="22" t="str">
+        <f>CONCATENATE("  ",D61,", // #",A61," = ",B61,IF(C61&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #59 = Kbd Driver</v>
+      </c>
+      <c r="K61" s="22" t="str">
+        <f>CONCATENATE("  ",E61,", // #",A61," = ",B61,IF(C61&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  drv_custom, // #59 = Kbd Driver</v>
+      </c>
+      <c r="L61" s="22" t="str">
+        <f>CONCATENATE("  ",F61,", // #",A61," = ",B61,IF(C61&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  drv_fatar1, // #59 = Kbd Driver</v>
+      </c>
+      <c r="M61" s="22" t="str">
+        <f>CONCATENATE("  ",C61,", // #",A61," = ",B61,IF(C61&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #59 = Kbd Driver</v>
+      </c>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="3">
+        <f>A61+1</f>
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <f>A95</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="F62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="22" t="str">
+        <f>CONCATENATE("  ",G62,", // #",A62," = ",B62,IF(C62&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_mindyn, // #60 = Velocity Min</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f>CONCATENATE("  { """,B62,""" },  // #",A62," ",IF(C62&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Velocity Min" },  // #60 </v>
+      </c>
+      <c r="J62" s="22" t="str">
+        <f>CONCATENATE("  ",D62,", // #",A62," = ",B62,IF(C62&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  1, // #60 = Velocity Min</v>
+      </c>
+      <c r="K62" s="22" t="str">
+        <f>CONCATENATE("  ",E62,", // #",A62," = ",B62,IF(C62&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  40, // #60 = Velocity Min</v>
+      </c>
+      <c r="L62" s="22" t="str">
+        <f>CONCATENATE("  ",F62,", // #",A62," = ",B62,IF(C62&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  MIDI_MINDYN, // #60 = Velocity Min</v>
+      </c>
+      <c r="M62" s="22" t="str">
+        <f>CONCATENATE("  ",C62,", // #",A62," = ",B62,IF(C62&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #60 = Velocity Min</v>
+      </c>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="3">
+        <f>A62+1</f>
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2">
+        <f>A95</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="22" t="str">
+        <f>CONCATENATE("  ",G63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_maxdynadj, // #61 = Velocity MaxAdj</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>CONCATENATE("  { """,B63,""" },  // #",A63," ",IF(C63&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Velocity MaxAdj" },  // #61 </v>
+      </c>
+      <c r="J63" s="22" t="str">
+        <f>CONCATENATE("  ",D63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  1, // #61 = Velocity MaxAdj</v>
+      </c>
+      <c r="K63" s="22" t="str">
+        <f>CONCATENATE("  ",E63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  40, // #61 = Velocity MaxAdj</v>
+      </c>
+      <c r="L63" s="22" t="str">
+        <f>CONCATENATE("  ",F63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  MIDI_MAXDYNADJ, // #61 = Velocity MaxAdj</v>
+      </c>
+      <c r="M63" s="22" t="str">
+        <f>CONCATENATE("  ",C63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #61 = Velocity MaxAdj</v>
+      </c>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="3">
+        <f>A63+1</f>
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2">
+        <f>A95</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>30</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="22" t="str">
+        <f>CONCATENATE("  ",G64,", // #",A64," = ",B64,IF(C64&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_slope, // #62 = Velocity Slope</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>CONCATENATE("  { """,B64,""" },  // #",A64," ",IF(C64&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Velocity Slope" },  // #62 </v>
+      </c>
+      <c r="J64" s="22" t="str">
+        <f>CONCATENATE("  ",D64,", // #",A64," = ",B64,IF(C64&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  1, // #62 = Velocity Slope</v>
+      </c>
+      <c r="K64" s="22" t="str">
+        <f>CONCATENATE("  ",E64,", // #",A64," = ",B64,IF(C64&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  30, // #62 = Velocity Slope</v>
+      </c>
+      <c r="L64" s="22" t="str">
+        <f>CONCATENATE("  ",F64,", // #",A64," = ",B64,IF(C64&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  MIDI_DYNSLOPE, // #62 = Velocity Slope</v>
+      </c>
+      <c r="M64" s="22" t="str">
+        <f>CONCATENATE("  ",C64,", // #",A64," = ",B64,IF(C64&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #62 = Velocity Slope</v>
+      </c>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="3">
+        <f>A64+1</f>
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2">
+        <v>60</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="22" t="str">
+        <f>CONCATENATE("  ",G65,", // #",A65," = ",B65,IF(C65&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_upper_base, // #63 = Upper Base</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>CONCATENATE("  { """,B65,""" },  // #",A65," ",IF(C65&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Upper Base" },  // #63 </v>
+      </c>
+      <c r="J65" s="22" t="str">
+        <f>CONCATENATE("  ",D65,", // #",A65," = ",B65,IF(C65&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  12, // #63 = Upper Base</v>
+      </c>
+      <c r="K65" s="22" t="str">
+        <f>CONCATENATE("  ",E65,", // #",A65," = ",B65,IF(C65&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  60, // #63 = Upper Base</v>
+      </c>
+      <c r="L65" s="22" t="str">
+        <f>CONCATENATE("  ",F65,", // #",A65," = ",B65,IF(C65&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  MIDI_BASE_UPR, // #63 = Upper Base</v>
+      </c>
+      <c r="M65" s="22" t="str">
+        <f>CONCATENATE("  ",C65,", // #",A65," = ",B65,IF(C65&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #63 = Upper Base</v>
+      </c>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="3">
+        <f>A65+1</f>
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2">
+        <v>60</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="22" t="str">
+        <f>CONCATENATE("  ",G66,", // #",A66," = ",B66,IF(C66&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_lower_base, // #64 = Lower Base</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>CONCATENATE("  { """,B66,""" },  // #",A66," ",IF(C66&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Lower Base" },  // #64 </v>
+      </c>
+      <c r="J66" s="22" t="str">
+        <f>CONCATENATE("  ",D66,", // #",A66," = ",B66,IF(C66&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  12, // #64 = Lower Base</v>
+      </c>
+      <c r="K66" s="22" t="str">
+        <f>CONCATENATE("  ",E66,", // #",A66," = ",B66,IF(C66&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  60, // #64 = Lower Base</v>
+      </c>
+      <c r="L66" s="22" t="str">
+        <f>CONCATENATE("  ",F66,", // #",A66," = ",B66,IF(C66&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  MIDI_BASE_LWR, // #64 = Lower Base</v>
+      </c>
+      <c r="M66" s="22" t="str">
+        <f>CONCATENATE("  ",C66,", // #",A66," = ",B66,IF(C66&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #64 = Lower Base</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="3">
+        <f>A66+1</f>
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>60</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="22" t="str">
+        <f>CONCATENATE("  ",G67,", // #",A67," = ",B67,IF(C67&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_pedal_base, // #65 = Pedal Base</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f>CONCATENATE("  { """,B67,""" },  // #",A67," ",IF(C67&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Pedal Base" },  // #65 </v>
+      </c>
+      <c r="J67" s="22" t="str">
+        <f>CONCATENATE("  ",D67,", // #",A67," = ",B67,IF(C67&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  12, // #65 = Pedal Base</v>
+      </c>
+      <c r="K67" s="22" t="str">
+        <f>CONCATENATE("  ",E67,", // #",A67," = ",B67,IF(C67&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  60, // #65 = Pedal Base</v>
+      </c>
+      <c r="L67" s="22" t="str">
+        <f>CONCATENATE("  ",F67,", // #",A67," = ",B67,IF(C67&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  MIDI_BASE_PED, // #65 = Pedal Base</v>
+      </c>
+      <c r="M67" s="22" t="str">
+        <f>CONCATENATE("  ",C67,", // #",A67," = ",B67,IF(C67&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #65 = Pedal Base</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="3">
+        <f>A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="3">
         <v>-1</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="22" t="str">
-        <f>CONCATENATE("  ",G42,", // #",A42," = ",B42,IF(C42&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_btn_back, // #40 = Button Assign EXIT </v>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f>CONCATENATE("  { """,B42,""" },  // #",A42," ",IF(C42&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Button Assign" },  // #40  EXIT SUBM</v>
-      </c>
-      <c r="J42" s="22" t="str">
-        <f>CONCATENATE("  ",D42,", // #",A42," = ",B42,IF(C42&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #40 = Button Assign EXIT </v>
-      </c>
-      <c r="K42" s="22" t="str">
-        <f>CONCATENATE("  ",E42,", // #",A42," = ",B42,IF(C42&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #40 = Button Assign EXIT </v>
-      </c>
-      <c r="L42" s="22" t="str">
-        <f>CONCATENATE("  ",F42,", // #",A42," = ",B42,IF(C42&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #40 = Button Assign EXIT </v>
-      </c>
-      <c r="M42" s="22" t="str">
-        <f>CONCATENATE("  ",C42,", // #",A42," = ",B42,IF(C42&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #40 = Button Assign EXIT </v>
-      </c>
-      <c r="O42" s="21"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2">
-        <f>A78</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="22" t="str">
-        <f>CONCATENATE("  ",G43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_driver_type, // #41 = Kbd Driver</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f>CONCATENATE("  { """,B43,""" },  // #",A43," ",IF(C43&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Kbd Driver" },  // #41 </v>
-      </c>
-      <c r="J43" s="22" t="str">
-        <f>CONCATENATE("  ",D43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #41 = Kbd Driver</v>
-      </c>
-      <c r="K43" s="22" t="str">
-        <f>CONCATENATE("  ",E43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  drv_custom, // #41 = Kbd Driver</v>
-      </c>
-      <c r="L43" s="22" t="str">
-        <f>CONCATENATE("  ",F43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  drv_fatar1, // #41 = Kbd Driver</v>
-      </c>
-      <c r="M43" s="22" t="str">
-        <f>CONCATENATE("  ",C43,", // #",A43," = ",B43,IF(C43&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #41 = Kbd Driver</v>
-      </c>
-      <c r="O43" s="21"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2">
-        <f>A94</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>40</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="22" t="str">
-        <f>CONCATENATE("  ",G44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_mindyn, // #42 = Velocity Min</v>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f>CONCATENATE("  { """,B44,""" },  // #",A44," ",IF(C44&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Velocity Min" },  // #42 </v>
-      </c>
-      <c r="J44" s="22" t="str">
-        <f>CONCATENATE("  ",D44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  1, // #42 = Velocity Min</v>
-      </c>
-      <c r="K44" s="22" t="str">
-        <f>CONCATENATE("  ",E44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  40, // #42 = Velocity Min</v>
-      </c>
-      <c r="L44" s="22" t="str">
-        <f>CONCATENATE("  ",F44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  MIDI_MINDYN, // #42 = Velocity Min</v>
-      </c>
-      <c r="M44" s="22" t="str">
-        <f>CONCATENATE("  ",C44,", // #",A44," = ",B44,IF(C44&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #42 = Velocity Min</v>
-      </c>
-      <c r="O44" s="21"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="2">
-        <f>A94</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>40</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="22" t="str">
-        <f>CONCATENATE("  ",G45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_maxdynadj, // #43 = Velocity MaxAdj</v>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f>CONCATENATE("  { """,B45,""" },  // #",A45," ",IF(C45&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Velocity MaxAdj" },  // #43 </v>
-      </c>
-      <c r="J45" s="22" t="str">
-        <f>CONCATENATE("  ",D45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  1, // #43 = Velocity MaxAdj</v>
-      </c>
-      <c r="K45" s="22" t="str">
-        <f>CONCATENATE("  ",E45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  40, // #43 = Velocity MaxAdj</v>
-      </c>
-      <c r="L45" s="22" t="str">
-        <f>CONCATENATE("  ",F45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  MIDI_MAXDYNADJ, // #43 = Velocity MaxAdj</v>
-      </c>
-      <c r="M45" s="22" t="str">
-        <f>CONCATENATE("  ",C45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #43 = Velocity MaxAdj</v>
-      </c>
-      <c r="O45" s="21"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2">
-        <f>A94</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>30</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="22" t="str">
-        <f>CONCATENATE("  ",G46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_slope, // #44 = Velocity Slope</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f>CONCATENATE("  { """,B46,""" },  // #",A46," ",IF(C46&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Velocity Slope" },  // #44 </v>
-      </c>
-      <c r="J46" s="22" t="str">
-        <f>CONCATENATE("  ",D46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  1, // #44 = Velocity Slope</v>
-      </c>
-      <c r="K46" s="22" t="str">
-        <f>CONCATENATE("  ",E46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  30, // #44 = Velocity Slope</v>
-      </c>
-      <c r="L46" s="22" t="str">
-        <f>CONCATENATE("  ",F46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  MIDI_DYNSLOPE, // #44 = Velocity Slope</v>
-      </c>
-      <c r="M46" s="22" t="str">
-        <f>CONCATENATE("  ",C46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #44 = Velocity Slope</v>
-      </c>
-      <c r="O46" s="21"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2">
-        <v>60</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="22" t="str">
-        <f>CONCATENATE("  ",G47,", // #",A47," = ",B47,IF(C47&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_upper_base, // #45 = Upper Base</v>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f>CONCATENATE("  { """,B47,""" },  // #",A47," ",IF(C47&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Upper Base" },  // #45 </v>
-      </c>
-      <c r="J47" s="22" t="str">
-        <f>CONCATENATE("  ",D47,", // #",A47," = ",B47,IF(C47&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  12, // #45 = Upper Base</v>
-      </c>
-      <c r="K47" s="22" t="str">
-        <f>CONCATENATE("  ",E47,", // #",A47," = ",B47,IF(C47&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  60, // #45 = Upper Base</v>
-      </c>
-      <c r="L47" s="22" t="str">
-        <f>CONCATENATE("  ",F47,", // #",A47," = ",B47,IF(C47&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  MIDI_BASE_UPR, // #45 = Upper Base</v>
-      </c>
-      <c r="M47" s="22" t="str">
-        <f>CONCATENATE("  ",C47,", // #",A47," = ",B47,IF(C47&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #45 = Upper Base</v>
-      </c>
-      <c r="O47" s="21"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2">
-        <v>60</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="22" t="str">
-        <f>CONCATENATE("  ",G48,", // #",A48," = ",B48,IF(C48&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_lower_base, // #46 = Lower Base</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f>CONCATENATE("  { """,B48,""" },  // #",A48," ",IF(C48&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Lower Base" },  // #46 </v>
-      </c>
-      <c r="J48" s="22" t="str">
-        <f>CONCATENATE("  ",D48,", // #",A48," = ",B48,IF(C48&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  12, // #46 = Lower Base</v>
-      </c>
-      <c r="K48" s="22" t="str">
-        <f>CONCATENATE("  ",E48,", // #",A48," = ",B48,IF(C48&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  60, // #46 = Lower Base</v>
-      </c>
-      <c r="L48" s="22" t="str">
-        <f>CONCATENATE("  ",F48,", // #",A48," = ",B48,IF(C48&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  MIDI_BASE_LWR, // #46 = Lower Base</v>
-      </c>
-      <c r="M48" s="22" t="str">
-        <f>CONCATENATE("  ",C48,", // #",A48," = ",B48,IF(C48&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #46 = Lower Base</v>
-      </c>
-      <c r="O48" s="21"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="24" t="str">
+        <f>CONCATENATE("  ",G68,", // #",A68," = ",B68,IF(C68&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_kbd_back, // #66 = Keyboard EXIT </v>
+      </c>
+      <c r="I68" s="3" t="str">
+        <f>CONCATENATE("  { """,B68,""" },  // #",A68," ",IF(C68&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Keyboard" },  // #66  EXIT SUBM</v>
+      </c>
+      <c r="J68" s="24" t="str">
+        <f>CONCATENATE("  ",D68,", // #",A68," = ",B68,IF(C68&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #66 = Keyboard EXIT </v>
+      </c>
+      <c r="K68" s="24" t="str">
+        <f>CONCATENATE("  ",E68,", // #",A68," = ",B68,IF(C68&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #66 = Keyboard EXIT </v>
+      </c>
+      <c r="L68" s="24" t="str">
+        <f>CONCATENATE("  ",F68,", // #",A68," = ",B68,IF(C68&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #66 = Keyboard EXIT </v>
+      </c>
+      <c r="M68" s="24" t="str">
+        <f>CONCATENATE("  ",C68,", // #",A68," = ",B68,IF(C68&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #66 = Keyboard EXIT </v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="3"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2">
-        <v>60</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="22" t="str">
-        <f>CONCATENATE("  ",G49,", // #",A49," = ",B49,IF(C49&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_pedal_base, // #47 = Pedal Base</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f>CONCATENATE("  { """,B49,""" },  // #",A49," ",IF(C49&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Pedal Base" },  // #47 </v>
-      </c>
-      <c r="J49" s="22" t="str">
-        <f>CONCATENATE("  ",D49,", // #",A49," = ",B49,IF(C49&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  12, // #47 = Pedal Base</v>
-      </c>
-      <c r="K49" s="22" t="str">
-        <f>CONCATENATE("  ",E49,", // #",A49," = ",B49,IF(C49&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  60, // #47 = Pedal Base</v>
-      </c>
-      <c r="L49" s="22" t="str">
-        <f>CONCATENATE("  ",F49,", // #",A49," = ",B49,IF(C49&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  MIDI_BASE_PED, // #47 = Pedal Base</v>
-      </c>
-      <c r="M49" s="22" t="str">
-        <f>CONCATENATE("  ",C49,", // #",A49," = ",B49,IF(C49&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #47 = Pedal Base</v>
-      </c>
-      <c r="O49" s="21"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="22" t="str">
-        <f>CONCATENATE("  ",G50,", // #",A50," = ",B50,IF(C50&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  m_kbd_back, // #48 = Keyboard EXIT </v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f>CONCATENATE("  { """,B50,""" },  // #",A50," ",IF(C50&lt;0," EXIT SUBM",""))</f>
-        <v xml:space="preserve">  { "Keyboard" },  // #48  EXIT SUBM</v>
-      </c>
-      <c r="J50" s="22" t="str">
-        <f>CONCATENATE("  ",D50,", // #",A50," = ",B50,IF(C50&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #48 = Keyboard EXIT </v>
-      </c>
-      <c r="K50" s="22" t="str">
-        <f>CONCATENATE("  ",E50,", // #",A50," = ",B50,IF(C50&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #48 = Keyboard EXIT </v>
-      </c>
-      <c r="L50" s="22" t="str">
-        <f>CONCATENATE("  ",F50,", // #",A50," = ",B50,IF(C50&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  0, // #48 = Keyboard EXIT </v>
-      </c>
-      <c r="M50" s="22" t="str">
-        <f>CONCATENATE("  ",C50,", // #",A50," = ",B50,IF(C50&lt;0," EXIT ",""))</f>
-        <v xml:space="preserve">  -1, // #48 = Keyboard EXIT </v>
-      </c>
-      <c r="O50" s="21"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O51" s="21"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="H52" s="19"/>
-      <c r="O52" s="21"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O53" s="21"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O54" s="21"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O55" s="21"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="21"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="21"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O58" s="21"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O59" s="21"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O60" s="21"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O61" s="21"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O62" s="21"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O63" s="21"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="H64" s="19"/>
-      <c r="O64" s="21"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="H65" s="19"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="H67" s="19"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="H68" s="19"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="H70" s="19"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="7"/>
+    <row r="78" spans="1:15">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="7"/>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="3"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="H81" s="19"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="3"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="H89" s="19"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="7"/>
+    <row r="90" spans="1:8">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1"/>
+      <c r="B91" s="7"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="3"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:8">
+      <c r="A93" s="3"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="1"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="1"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1"/>
+      <c r="B95" s="7"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="3"/>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="3"/>
       <c r="H97" s="19"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="3"/>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="3"/>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="3"/>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="3"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
       <c r="H101" s="19"/>
-      <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="3"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3630,7 +4597,7 @@
       <c r="H102" s="19"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="3"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3639,7 +4606,7 @@
       <c r="H103" s="19"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="3"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3648,7 +4615,7 @@
       <c r="H104" s="19"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="3"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3657,7 +4624,7 @@
       <c r="H105" s="19"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="3"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3666,7 +4633,7 @@
       <c r="H106" s="19"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="3"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3675,7 +4642,7 @@
       <c r="H107" s="19"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="3"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3684,7 +4651,7 @@
       <c r="H108" s="19"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="3"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3693,7 +4660,7 @@
       <c r="H109" s="19"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="3"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3702,7 +4669,7 @@
       <c r="H110" s="19"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="3"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3711,7 +4678,7 @@
       <c r="H111" s="19"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="3"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3720,7 +4687,7 @@
       <c r="H112" s="19"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="3"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3729,9 +4696,8 @@
       <c r="H113" s="19"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="7"/>
+    <row r="114" spans="1:10">
+      <c r="A114" s="3"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3739,8 +4705,9 @@
       <c r="H114" s="19"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3748,7 +4715,7 @@
       <c r="H115" s="19"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="3"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3757,7 +4724,7 @@
       <c r="H116" s="19"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="3"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3766,9 +4733,8 @@
       <c r="H117" s="19"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="7"/>
+    <row r="118" spans="1:10">
+      <c r="A118" s="3"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -3776,8 +4742,9 @@
       <c r="H118" s="19"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1"/>
+      <c r="B119" s="7"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3785,7 +4752,7 @@
       <c r="H119" s="19"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="3"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3794,7 +4761,7 @@
       <c r="H120" s="19"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="3"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3803,7 +4770,7 @@
       <c r="H121" s="19"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="3"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3812,7 +4779,7 @@
       <c r="H122" s="19"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="3"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -3821,7 +4788,7 @@
       <c r="H123" s="19"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="3"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3830,7 +4797,7 @@
       <c r="H124" s="19"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="3"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3839,7 +4806,7 @@
       <c r="H125" s="19"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="3"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3848,7 +4815,7 @@
       <c r="H126" s="19"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="3"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3857,7 +4824,7 @@
       <c r="H127" s="19"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="3"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3866,7 +4833,7 @@
       <c r="H128" s="19"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="3"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3875,7 +4842,7 @@
       <c r="H129" s="19"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="3"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3884,9 +4851,8 @@
       <c r="H130" s="19"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="7"/>
+    <row r="131" spans="1:10">
+      <c r="A131" s="3"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3894,8 +4860,9 @@
       <c r="H131" s="19"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3903,7 +4870,7 @@
       <c r="H132" s="19"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="3"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3912,7 +4879,7 @@
       <c r="H133" s="19"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="3"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3921,7 +4888,7 @@
       <c r="H134" s="19"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="3"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -3930,7 +4897,7 @@
       <c r="H135" s="19"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="3"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3939,7 +4906,7 @@
       <c r="H136" s="19"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="3"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3948,7 +4915,7 @@
       <c r="H137" s="19"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="3"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -3957,7 +4924,7 @@
       <c r="H138" s="19"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="3"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3966,7 +4933,7 @@
       <c r="H139" s="19"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="3"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3975,7 +4942,7 @@
       <c r="H140" s="19"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="3"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3984,7 +4951,7 @@
       <c r="H141" s="19"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="3"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -3993,9 +4960,8 @@
       <c r="H142" s="19"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="7"/>
+    <row r="143" spans="1:10">
+      <c r="A143" s="3"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4003,8 +4969,9 @@
       <c r="H143" s="19"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4012,7 +4979,7 @@
       <c r="H144" s="19"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="3"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4021,7 +4988,7 @@
       <c r="H145" s="19"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="3"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4030,7 +4997,7 @@
       <c r="H146" s="19"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="3"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4039,7 +5006,7 @@
       <c r="H147" s="19"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="3"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -4048,50 +5015,59 @@
       <c r="H148" s="19"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="7"/>
+    <row r="149" spans="1:10">
+      <c r="A149" s="3"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
       <c r="H149" s="19"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1"/>
+      <c r="B150" s="7"/>
       <c r="H150" s="19"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="3"/>
       <c r="H151" s="19"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="3"/>
       <c r="H152" s="19"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="3"/>
       <c r="H153" s="19"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="3"/>
       <c r="H154" s="19"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="3"/>
       <c r="H155" s="19"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="3"/>
       <c r="H156" s="19"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="3"/>
       <c r="H157" s="19"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
+      <c r="A158" s="3"/>
       <c r="H158" s="19"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-      <c r="B159" s="4"/>
+    <row r="159" spans="1:10">
       <c r="H159" s="19"/>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="8"/>
+      <c r="B160" s="4"/>
+      <c r="H160" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/MIDI_menuItems.xlsx
+++ b/docs/MIDI_menuItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
   <si>
     <t>Index #</t>
   </si>
@@ -508,6 +508,27 @@
   </si>
   <si>
     <t>(Keyboard)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Main Menus</t>
+  </si>
+  <si>
+    <t>Submenu Pots</t>
+  </si>
+  <si>
+    <t>Exit entry, back to main</t>
+  </si>
+  <si>
+    <t>Submenu Button Fuction</t>
+  </si>
+  <si>
+    <t>Submenu Button Mode</t>
+  </si>
+  <si>
+    <t>Submenu Keyboard Params</t>
   </si>
 </sst>
 </file>
@@ -606,12 +627,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Lucida Console"/>
       <family val="3"/>
@@ -628,6 +643,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -706,14 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -722,10 +740,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -734,7 +752,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,10 +1084,11 @@
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
     <col min="11" max="12" width="22.85546875" style="12" customWidth="1"/>
     <col min="13" max="13" width="32.28515625" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="12"/>
+    <col min="14" max="14" width="24" style="27" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1128,9 @@
       <c r="M1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="26" t="s">
+        <v>163</v>
+      </c>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1129,7 +1156,7 @@
       <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="19" t="str">
+      <c r="H2" s="18" t="str">
         <f t="shared" ref="H2:H3" si="0">CONCATENATE("  ",G2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_upper_channel, // #0 = Upper Channel</v>
       </c>
@@ -1137,21 +1164,24 @@
         <f t="shared" ref="I2:I15" si="1">CONCATENATE("  { """,B2,""" },  // #",A2," ",IF(C2&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Upper Channel" },  // #0 </v>
       </c>
-      <c r="J2" s="19" t="str">
+      <c r="J2" s="18" t="str">
         <f t="shared" ref="J2" si="2">CONCATENATE("  ",D2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  1, // #0 = Upper Channel</v>
       </c>
-      <c r="K2" s="19" t="str">
+      <c r="K2" s="18" t="str">
         <f t="shared" ref="K2" si="3">CONCATENATE("  ",E2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  16, // #0 = Upper Channel</v>
       </c>
-      <c r="L2" s="19" t="str">
+      <c r="L2" s="18" t="str">
         <f t="shared" ref="L2" si="4">CONCATENATE("  ",F2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  MIDI_CH_UPR, // #0 = Upper Channel</v>
       </c>
-      <c r="M2" s="19" t="str">
+      <c r="M2" s="18" t="str">
         <f t="shared" ref="M2" si="5">CONCATENATE("  ",C2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #0 = Upper Channel</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -1178,7 +1208,7 @@
       <c r="G3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="19" t="str">
+      <c r="H3" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  m_lower_channel, // #1 = Lower Channel</v>
       </c>
@@ -1186,19 +1216,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Lower Channel" },  // #1 </v>
       </c>
-      <c r="J3" s="19" t="str">
+      <c r="J3" s="18" t="str">
         <f t="shared" ref="J3:J15" si="7">CONCATENATE("  ",D3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  1, // #1 = Lower Channel</v>
       </c>
-      <c r="K3" s="19" t="str">
+      <c r="K3" s="18" t="str">
         <f t="shared" ref="K3:K15" si="8">CONCATENATE("  ",E3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  16, // #1 = Lower Channel</v>
       </c>
-      <c r="L3" s="19" t="str">
+      <c r="L3" s="18" t="str">
         <f t="shared" ref="L3:L15" si="9">CONCATENATE("  ",F3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  MIDI_CH_LWR, // #1 = Lower Channel</v>
       </c>
-      <c r="M3" s="19" t="str">
+      <c r="M3" s="18" t="str">
         <f t="shared" ref="M3:M15" si="10">CONCATENATE("  ",C3,", // #",A3," = ",B3,IF(C3&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #1 = Lower Channel</v>
       </c>
@@ -1227,7 +1257,7 @@
       <c r="G4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="19" t="str">
+      <c r="H4" s="18" t="str">
         <f t="shared" ref="H4:H15" si="11">CONCATENATE("  ",G4,", // #",A4," = ",B4,IF(C4&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_pedal_channel, // #2 = Pedal Channel</v>
       </c>
@@ -1235,19 +1265,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pedal Channel" },  // #2 </v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="J4" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  1, // #2 = Pedal Channel</v>
       </c>
-      <c r="K4" s="19" t="str">
+      <c r="K4" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  16, // #2 = Pedal Channel</v>
       </c>
-      <c r="L4" s="19" t="str">
+      <c r="L4" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  MIDI_CH_PED, // #2 = Pedal Channel</v>
       </c>
-      <c r="M4" s="19" t="str">
+      <c r="M4" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #2 = Pedal Channel</v>
       </c>
@@ -1276,7 +1306,7 @@
       <c r="G5" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="19" t="str">
+      <c r="H5" s="18" t="str">
         <f t="shared" ref="H5:H6" si="12">CONCATENATE("  ",G5,", // #",A5," = ",B5,IF(C5&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_pitchwheel_pot, // #3 = Pitchwheel Pot</v>
       </c>
@@ -1284,19 +1314,19 @@
         <f t="shared" ref="I5:I6" si="13">CONCATENATE("  { """,B5,""" },  // #",A5," ",IF(C5&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Pitchwheel Pot" },  // #3 </v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="18" t="str">
         <f t="shared" ref="J5:J6" si="14">CONCATENATE("  ",D5,", // #",A5," = ",B5,IF(C5&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #3 = Pitchwheel Pot</v>
       </c>
-      <c r="K5" s="19" t="str">
+      <c r="K5" s="18" t="str">
         <f t="shared" ref="K5:K6" si="15">CONCATENATE("  ",E5,", // #",A5," = ",B5,IF(C5&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  31, // #3 = Pitchwheel Pot</v>
       </c>
-      <c r="L5" s="19" t="str">
+      <c r="L5" s="18" t="str">
         <f t="shared" ref="L5:L6" si="16">CONCATENATE("  ",F5,", // #",A5," = ",B5,IF(C5&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #3 = Pitchwheel Pot</v>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="18" t="str">
         <f t="shared" ref="M5:M6" si="17">CONCATENATE("  ",C5,", // #",A5," = ",B5,IF(C5&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #3 = Pitchwheel Pot</v>
       </c>
@@ -1325,7 +1355,7 @@
       <c r="G6" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="18" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">  m_modulation_pot, // #4 = Modulation Pot</v>
       </c>
@@ -1333,19 +1363,19 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">  { "Modulation Pot" },  // #4 </v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="18" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">  -1, // #4 = Modulation Pot</v>
       </c>
-      <c r="K6" s="19" t="str">
+      <c r="K6" s="18" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  31, // #4 = Modulation Pot</v>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L6" s="18" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">  -1, // #4 = Modulation Pot</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="18" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  0, // #4 = Modulation Pot</v>
       </c>
@@ -1359,22 +1389,22 @@
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="25">
-        <v>59</v>
+      <c r="C7" s="23">
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="19" t="str">
+      <c r="H7" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_kbd_subm, // #5 = Keyboard</v>
       </c>
@@ -1382,22 +1412,23 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Keyboard" },  // #5 </v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #5 = Keyboard</v>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  0, // #5 = Keyboard</v>
       </c>
-      <c r="L7" s="19" t="str">
+      <c r="L7" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  0, // #5 = Keyboard</v>
       </c>
-      <c r="M7" s="19" t="str">
+      <c r="M7" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">  59, // #5 = Keyboard</v>
-      </c>
+        <v xml:space="preserve">  61, // #5 = Keyboard</v>
+      </c>
+      <c r="N7" s="27"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1408,7 +1439,7 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>10</v>
       </c>
       <c r="D8" s="1">
@@ -1420,10 +1451,10 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="19" t="str">
+      <c r="H8" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_cc_subm, // #6 = Pot Assign</v>
       </c>
@@ -1431,22 +1462,23 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pot Assign" },  // #6 </v>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #6 = Pot Assign</v>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  0, // #6 = Pot Assign</v>
       </c>
-      <c r="L8" s="19" t="str">
+      <c r="L8" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  0, // #6 = Pot Assign</v>
       </c>
-      <c r="M8" s="19" t="str">
+      <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  10, // #6 = Pot Assign</v>
       </c>
+      <c r="N8" s="27"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1489,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>27</v>
       </c>
       <c r="D9" s="1">
@@ -1469,10 +1501,10 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_btncc_subm, // #7 = Button Assign</v>
       </c>
@@ -1480,22 +1512,23 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Button Assign" },  // #7 </v>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #7 = Button Assign</v>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  0, // #7 = Button Assign</v>
       </c>
-      <c r="L9" s="19" t="str">
+      <c r="L9" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  0, // #7 = Button Assign</v>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  27, // #7 = Button Assign</v>
       </c>
+      <c r="N9" s="27"/>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1506,7 +1539,7 @@
       <c r="B10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -1518,10 +1551,10 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="19" t="str">
+      <c r="H10" s="18" t="str">
         <f t="shared" ref="H10" si="18">CONCATENATE("  ",G10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btnmode_subm, // #8 = Button Mode</v>
       </c>
@@ -1529,22 +1562,23 @@
         <f t="shared" ref="I10" si="19">CONCATENATE("  { """,B10,""" },  // #",A10," ",IF(C10&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Button Mode" },  // #8 </v>
       </c>
-      <c r="J10" s="19" t="str">
+      <c r="J10" s="18" t="str">
         <f t="shared" ref="J10" si="20">CONCATENATE("  ",D10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #8 = Button Mode</v>
       </c>
-      <c r="K10" s="19" t="str">
+      <c r="K10" s="18" t="str">
         <f t="shared" ref="K10" si="21">CONCATENATE("  ",E10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #8 = Button Mode</v>
       </c>
-      <c r="L10" s="19" t="str">
+      <c r="L10" s="18" t="str">
         <f t="shared" ref="L10" si="22">CONCATENATE("  ",F10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #8 = Button Mode</v>
       </c>
-      <c r="M10" s="19" t="str">
+      <c r="M10" s="18" t="str">
         <f t="shared" ref="M10" si="23">CONCATENATE("  ",C10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  44, // #8 = Button Mode</v>
       </c>
+      <c r="N10" s="27"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1570,7 +1604,7 @@
       <c r="G11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="19" t="str">
+      <c r="H11" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_end, // #9 = (end)</v>
       </c>
@@ -1578,22 +1612,25 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "(end)" },  // #9 </v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  0, // #9 = (end)</v>
       </c>
-      <c r="K11" s="19" t="str">
+      <c r="K11" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  0, // #9 = (end)</v>
       </c>
-      <c r="L11" s="19" t="str">
+      <c r="L11" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  0, // #9 = (end)</v>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #9 = (end)</v>
       </c>
+      <c r="N11" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1601,16 +1638,16 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="20">
         <v>127</v>
       </c>
       <c r="F12" s="1">
@@ -1619,7 +1656,7 @@
       <c r="G12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="19" t="str">
+      <c r="H12" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_CC1, // #10 = Pot 1 CC</v>
       </c>
@@ -1627,19 +1664,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pot 1 CC" },  // #10 </v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="J12" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  -1, // #10 = Pot 1 CC</v>
       </c>
-      <c r="K12" s="19" t="str">
+      <c r="K12" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  127, // #10 = Pot 1 CC</v>
       </c>
-      <c r="L12" s="19" t="str">
+      <c r="L12" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  7, // #10 = Pot 1 CC</v>
       </c>
-      <c r="M12" s="19" t="str">
+      <c r="M12" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #10 = Pot 1 CC</v>
       </c>
@@ -1659,7 +1696,7 @@
       <c r="D13" s="1">
         <v>-1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <f>E12</f>
         <v>127</v>
       </c>
@@ -1669,7 +1706,7 @@
       <c r="G13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="19" t="str">
+      <c r="H13" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_CC2, // #11 = Pot 2 CC</v>
       </c>
@@ -1677,19 +1714,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pot 2 CC" },  // #11 </v>
       </c>
-      <c r="J13" s="19" t="str">
+      <c r="J13" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  -1, // #11 = Pot 2 CC</v>
       </c>
-      <c r="K13" s="19" t="str">
+      <c r="K13" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  127, // #11 = Pot 2 CC</v>
       </c>
-      <c r="L13" s="19" t="str">
+      <c r="L13" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  10, // #11 = Pot 2 CC</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #11 = Pot 2 CC</v>
       </c>
@@ -1709,7 +1746,7 @@
       <c r="D14" s="1">
         <v>-1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <f t="shared" ref="E14:E27" si="24">E13</f>
         <v>127</v>
       </c>
@@ -1719,7 +1756,7 @@
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="19" t="str">
+      <c r="H14" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_CC3, // #12 = Pot 3 CC</v>
       </c>
@@ -1727,19 +1764,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pot 3 CC" },  // #12 </v>
       </c>
-      <c r="J14" s="19" t="str">
+      <c r="J14" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  -1, // #12 = Pot 3 CC</v>
       </c>
-      <c r="K14" s="19" t="str">
+      <c r="K14" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  127, // #12 = Pot 3 CC</v>
       </c>
-      <c r="L14" s="19" t="str">
+      <c r="L14" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  11, // #12 = Pot 3 CC</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #12 = Pot 3 CC</v>
       </c>
@@ -1759,7 +1796,7 @@
       <c r="D15" s="1">
         <v>-1</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -1769,7 +1806,7 @@
       <c r="G15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="19" t="str">
+      <c r="H15" s="18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  m_CC4, // #13 = Pot 4 CC</v>
       </c>
@@ -1777,19 +1814,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  { "Pot 4 CC" },  // #13 </v>
       </c>
-      <c r="J15" s="19" t="str">
+      <c r="J15" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  -1, // #13 = Pot 4 CC</v>
       </c>
-      <c r="K15" s="19" t="str">
+      <c r="K15" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  127, // #13 = Pot 4 CC</v>
       </c>
-      <c r="L15" s="19" t="str">
+      <c r="L15" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  91, // #13 = Pot 4 CC</v>
       </c>
-      <c r="M15" s="19" t="str">
+      <c r="M15" s="18" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #13 = Pot 4 CC</v>
       </c>
@@ -1809,7 +1846,7 @@
       <c r="D16" s="1">
         <v>-1</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -1819,7 +1856,7 @@
       <c r="G16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="19" t="str">
+      <c r="H16" s="18" t="str">
         <f t="shared" ref="H16:H27" si="25">CONCATENATE("  ",G16,", // #",A16," = ",B16,IF(C16&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_CC5, // #14 = Pot 5 CC</v>
       </c>
@@ -1827,22 +1864,23 @@
         <f t="shared" ref="I16:I27" si="26">CONCATENATE("  { """,B16,""" },  // #",A16," ",IF(C16&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Pot 5 CC" },  // #14 </v>
       </c>
-      <c r="J16" s="19" t="str">
+      <c r="J16" s="18" t="str">
         <f t="shared" ref="J16:J27" si="27">CONCATENATE("  ",D16,", // #",A16," = ",B16,IF(C16&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #14 = Pot 5 CC</v>
       </c>
-      <c r="K16" s="19" t="str">
+      <c r="K16" s="18" t="str">
         <f t="shared" ref="K16:K27" si="28">CONCATENATE("  ",E16,", // #",A16," = ",B16,IF(C16&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  127, // #14 = Pot 5 CC</v>
       </c>
-      <c r="L16" s="19" t="str">
+      <c r="L16" s="18" t="str">
         <f t="shared" ref="L16:L27" si="29">CONCATENATE("  ",F16,", // #",A16," = ",B16,IF(C16&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #14 = Pot 5 CC</v>
       </c>
-      <c r="M16" s="19" t="str">
+      <c r="M16" s="18" t="str">
         <f t="shared" ref="M16:M27" si="30">CONCATENATE("  ",C16,", // #",A16," = ",B16,IF(C16&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #14 = Pot 5 CC</v>
       </c>
+      <c r="N16" s="27"/>
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,7 +1897,7 @@
       <c r="D17" s="1">
         <v>-1</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -1869,7 +1907,7 @@
       <c r="G17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="19" t="str">
+      <c r="H17" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC6, // #15 = Pot 6 CC</v>
       </c>
@@ -1877,19 +1915,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 6 CC" },  // #15 </v>
       </c>
-      <c r="J17" s="19" t="str">
+      <c r="J17" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #15 = Pot 6 CC</v>
       </c>
-      <c r="K17" s="19" t="str">
+      <c r="K17" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #15 = Pot 6 CC</v>
       </c>
-      <c r="L17" s="19" t="str">
+      <c r="L17" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #15 = Pot 6 CC</v>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #15 = Pot 6 CC</v>
       </c>
@@ -1909,7 +1947,7 @@
       <c r="D18" s="1">
         <v>-1</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -1919,7 +1957,7 @@
       <c r="G18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="19" t="str">
+      <c r="H18" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC7, // #16 = Pot 7 CC</v>
       </c>
@@ -1927,19 +1965,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 7 CC" },  // #16 </v>
       </c>
-      <c r="J18" s="19" t="str">
+      <c r="J18" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #16 = Pot 7 CC</v>
       </c>
-      <c r="K18" s="19" t="str">
+      <c r="K18" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #16 = Pot 7 CC</v>
       </c>
-      <c r="L18" s="19" t="str">
+      <c r="L18" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #16 = Pot 7 CC</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #16 = Pot 7 CC</v>
       </c>
@@ -1959,7 +1997,7 @@
       <c r="D19" s="1">
         <v>-1</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -1969,7 +2007,7 @@
       <c r="G19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="19" t="str">
+      <c r="H19" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC8, // #17 = Pot 8 CC</v>
       </c>
@@ -1977,19 +2015,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 8 CC" },  // #17 </v>
       </c>
-      <c r="J19" s="19" t="str">
+      <c r="J19" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #17 = Pot 8 CC</v>
       </c>
-      <c r="K19" s="19" t="str">
+      <c r="K19" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #17 = Pot 8 CC</v>
       </c>
-      <c r="L19" s="19" t="str">
+      <c r="L19" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #17 = Pot 8 CC</v>
       </c>
-      <c r="M19" s="19" t="str">
+      <c r="M19" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #17 = Pot 8 CC</v>
       </c>
@@ -2009,7 +2047,7 @@
       <c r="D20" s="1">
         <v>-1</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2019,7 +2057,7 @@
       <c r="G20" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="19" t="str">
+      <c r="H20" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC9, // #18 = Pot 9 CC</v>
       </c>
@@ -2027,19 +2065,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 9 CC" },  // #18 </v>
       </c>
-      <c r="J20" s="19" t="str">
+      <c r="J20" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #18 = Pot 9 CC</v>
       </c>
-      <c r="K20" s="19" t="str">
+      <c r="K20" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #18 = Pot 9 CC</v>
       </c>
-      <c r="L20" s="19" t="str">
+      <c r="L20" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #18 = Pot 9 CC</v>
       </c>
-      <c r="M20" s="19" t="str">
+      <c r="M20" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #18 = Pot 9 CC</v>
       </c>
@@ -2059,7 +2097,7 @@
       <c r="D21" s="1">
         <v>-1</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2069,7 +2107,7 @@
       <c r="G21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="19" t="str">
+      <c r="H21" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC10, // #19 = Pot 10 CC</v>
       </c>
@@ -2077,22 +2115,23 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 10 CC" },  // #19 </v>
       </c>
-      <c r="J21" s="19" t="str">
+      <c r="J21" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #19 = Pot 10 CC</v>
       </c>
-      <c r="K21" s="19" t="str">
+      <c r="K21" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #19 = Pot 10 CC</v>
       </c>
-      <c r="L21" s="19" t="str">
+      <c r="L21" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #19 = Pot 10 CC</v>
       </c>
-      <c r="M21" s="19" t="str">
+      <c r="M21" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #19 = Pot 10 CC</v>
       </c>
+      <c r="N21" s="27"/>
       <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2109,7 +2148,7 @@
       <c r="D22" s="1">
         <v>-1</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2119,7 +2158,7 @@
       <c r="G22" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="19" t="str">
+      <c r="H22" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC11, // #20 = Pot 11 CC</v>
       </c>
@@ -2127,19 +2166,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 11 CC" },  // #20 </v>
       </c>
-      <c r="J22" s="19" t="str">
+      <c r="J22" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #20 = Pot 11 CC</v>
       </c>
-      <c r="K22" s="19" t="str">
+      <c r="K22" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #20 = Pot 11 CC</v>
       </c>
-      <c r="L22" s="19" t="str">
+      <c r="L22" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #20 = Pot 11 CC</v>
       </c>
-      <c r="M22" s="19" t="str">
+      <c r="M22" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #20 = Pot 11 CC</v>
       </c>
@@ -2159,7 +2198,7 @@
       <c r="D23" s="1">
         <v>-1</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2169,7 +2208,7 @@
       <c r="G23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="19" t="str">
+      <c r="H23" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC12, // #21 = Pot 12 CC</v>
       </c>
@@ -2177,19 +2216,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 12 CC" },  // #21 </v>
       </c>
-      <c r="J23" s="19" t="str">
+      <c r="J23" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #21 = Pot 12 CC</v>
       </c>
-      <c r="K23" s="19" t="str">
+      <c r="K23" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #21 = Pot 12 CC</v>
       </c>
-      <c r="L23" s="19" t="str">
+      <c r="L23" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #21 = Pot 12 CC</v>
       </c>
-      <c r="M23" s="19" t="str">
+      <c r="M23" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #21 = Pot 12 CC</v>
       </c>
@@ -2209,7 +2248,7 @@
       <c r="D24" s="1">
         <v>-1</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2219,7 +2258,7 @@
       <c r="G24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="19" t="str">
+      <c r="H24" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC13, // #22 = Pot 13 CC</v>
       </c>
@@ -2227,19 +2266,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 13 CC" },  // #22 </v>
       </c>
-      <c r="J24" s="19" t="str">
+      <c r="J24" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #22 = Pot 13 CC</v>
       </c>
-      <c r="K24" s="19" t="str">
+      <c r="K24" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #22 = Pot 13 CC</v>
       </c>
-      <c r="L24" s="19" t="str">
+      <c r="L24" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #22 = Pot 13 CC</v>
       </c>
-      <c r="M24" s="19" t="str">
+      <c r="M24" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #22 = Pot 13 CC</v>
       </c>
@@ -2259,7 +2298,7 @@
       <c r="D25" s="1">
         <v>-1</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2269,7 +2308,7 @@
       <c r="G25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="19" t="str">
+      <c r="H25" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC14, // #23 = Pot 14 CC</v>
       </c>
@@ -2277,19 +2316,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 14 CC" },  // #23 </v>
       </c>
-      <c r="J25" s="19" t="str">
+      <c r="J25" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #23 = Pot 14 CC</v>
       </c>
-      <c r="K25" s="19" t="str">
+      <c r="K25" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #23 = Pot 14 CC</v>
       </c>
-      <c r="L25" s="19" t="str">
+      <c r="L25" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #23 = Pot 14 CC</v>
       </c>
-      <c r="M25" s="19" t="str">
+      <c r="M25" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #23 = Pot 14 CC</v>
       </c>
@@ -2309,7 +2348,7 @@
       <c r="D26" s="1">
         <v>-1</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2319,7 +2358,7 @@
       <c r="G26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="19" t="str">
+      <c r="H26" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC15, // #24 = Pot 15 CC</v>
       </c>
@@ -2327,19 +2366,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 15 CC" },  // #24 </v>
       </c>
-      <c r="J26" s="19" t="str">
+      <c r="J26" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #24 = Pot 15 CC</v>
       </c>
-      <c r="K26" s="19" t="str">
+      <c r="K26" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #24 = Pot 15 CC</v>
       </c>
-      <c r="L26" s="19" t="str">
+      <c r="L26" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #24 = Pot 15 CC</v>
       </c>
-      <c r="M26" s="19" t="str">
+      <c r="M26" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #24 = Pot 15 CC</v>
       </c>
@@ -2359,7 +2398,7 @@
       <c r="D27" s="1">
         <v>-1</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
@@ -2369,7 +2408,7 @@
       <c r="G27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="19" t="str">
+      <c r="H27" s="18" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">  m_CC16, // #25 = Pot 16 CC</v>
       </c>
@@ -2377,19 +2416,19 @@
         <f t="shared" si="26"/>
         <v xml:space="preserve">  { "Pot 16 CC" },  // #25 </v>
       </c>
-      <c r="J27" s="19" t="str">
+      <c r="J27" s="18" t="str">
         <f t="shared" si="27"/>
         <v xml:space="preserve">  -1, // #25 = Pot 16 CC</v>
       </c>
-      <c r="K27" s="19" t="str">
+      <c r="K27" s="18" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  127, // #25 = Pot 16 CC</v>
       </c>
-      <c r="L27" s="19" t="str">
+      <c r="L27" s="18" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  -1, // #25 = Pot 16 CC</v>
       </c>
-      <c r="M27" s="19" t="str">
+      <c r="M27" s="18" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #25 = Pot 16 CC</v>
       </c>
@@ -2400,48 +2439,51 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="24">
-        <v>-1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0</v>
-      </c>
-      <c r="F28" s="24">
-        <v>0</v>
-      </c>
-      <c r="G28" s="27" t="s">
+      <c r="C28" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="19" t="str">
+      <c r="H28" s="25" t="str">
         <f>CONCATENATE("  ",G28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_cc_back, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I28" s="22" t="str">
         <f>CONCATENATE("  { """,B28,""" },  // #",A28," ",IF(C28&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "(Pot CC)" },  // #26  EXIT SUBM</v>
       </c>
-      <c r="J28" s="19" t="str">
+      <c r="J28" s="25" t="str">
         <f>CONCATENATE("  ",D28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="K28" s="19" t="str">
+      <c r="K28" s="25" t="str">
         <f>CONCATENATE("  ",E28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="L28" s="19" t="str">
+      <c r="L28" s="25" t="str">
         <f>CONCATENATE("  ",F28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="M28" s="19" t="str">
+      <c r="M28" s="25" t="str">
         <f>CONCATENATE("  ",C28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #26 = (Pot CC) EXIT </v>
       </c>
+      <c r="N28" s="27" t="s">
+        <v>166</v>
+      </c>
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2449,16 +2491,16 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="20">
         <v>127</v>
       </c>
       <c r="F29" s="1">
@@ -2467,7 +2509,7 @@
       <c r="G29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="19" t="str">
+      <c r="H29" s="18" t="str">
         <f>CONCATENATE("  ",G29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn1, // #27 = Btn 1 CC/Prg</v>
       </c>
@@ -2475,22 +2517,25 @@
         <f>CONCATENATE("  { """,B29,""" },  // #",A29," ",IF(C29&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Btn 1 CC/Prg" },  // #27 </v>
       </c>
-      <c r="J29" s="19" t="str">
+      <c r="J29" s="18" t="str">
         <f>CONCATENATE("  ",D29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #27 = Btn 1 CC/Prg</v>
       </c>
-      <c r="K29" s="19" t="str">
+      <c r="K29" s="18" t="str">
         <f>CONCATENATE("  ",E29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  127, // #27 = Btn 1 CC/Prg</v>
       </c>
-      <c r="L29" s="19" t="str">
+      <c r="L29" s="18" t="str">
         <f>CONCATENATE("  ",F29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  20, // #27 = Btn 1 CC/Prg</v>
       </c>
-      <c r="M29" s="19" t="str">
+      <c r="M29" s="18" t="str">
         <f>CONCATENATE("  ",C29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #27 = Btn 1 CC/Prg</v>
       </c>
+      <c r="N29" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="O29" s="13"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2507,7 +2552,7 @@
       <c r="D30" s="1">
         <v>-1</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <f>E29</f>
         <v>127</v>
       </c>
@@ -2517,7 +2562,7 @@
       <c r="G30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="19" t="str">
+      <c r="H30" s="18" t="str">
         <f>CONCATENATE("  ",G30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn2, // #28 = Btn 2 CC/Prg</v>
       </c>
@@ -2525,19 +2570,19 @@
         <f>CONCATENATE("  { """,B30,""" },  // #",A30," ",IF(C30&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Btn 2 CC/Prg" },  // #28 </v>
       </c>
-      <c r="J30" s="19" t="str">
+      <c r="J30" s="18" t="str">
         <f>CONCATENATE("  ",D30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #28 = Btn 2 CC/Prg</v>
       </c>
-      <c r="K30" s="19" t="str">
+      <c r="K30" s="18" t="str">
         <f>CONCATENATE("  ",E30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  127, // #28 = Btn 2 CC/Prg</v>
       </c>
-      <c r="L30" s="19" t="str">
+      <c r="L30" s="18" t="str">
         <f>CONCATENATE("  ",F30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  21, // #28 = Btn 2 CC/Prg</v>
       </c>
-      <c r="M30" s="19" t="str">
+      <c r="M30" s="18" t="str">
         <f>CONCATENATE("  ",C30,", // #",A30," = ",B30,IF(C30&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #28 = Btn 2 CC/Prg</v>
       </c>
@@ -2557,7 +2602,7 @@
       <c r="D31" s="1">
         <v>-1</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <f t="shared" ref="E31:E44" si="31">E30</f>
         <v>127</v>
       </c>
@@ -2567,7 +2612,7 @@
       <c r="G31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="19" t="str">
+      <c r="H31" s="18" t="str">
         <f>CONCATENATE("  ",G31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn3, // #29 = Btn 3 CC/Prg</v>
       </c>
@@ -2575,19 +2620,19 @@
         <f>CONCATENATE("  { """,B31,""" },  // #",A31," ",IF(C31&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Btn 3 CC/Prg" },  // #29 </v>
       </c>
-      <c r="J31" s="19" t="str">
+      <c r="J31" s="18" t="str">
         <f>CONCATENATE("  ",D31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #29 = Btn 3 CC/Prg</v>
       </c>
-      <c r="K31" s="19" t="str">
+      <c r="K31" s="18" t="str">
         <f>CONCATENATE("  ",E31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  127, // #29 = Btn 3 CC/Prg</v>
       </c>
-      <c r="L31" s="19" t="str">
+      <c r="L31" s="18" t="str">
         <f>CONCATENATE("  ",F31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  22, // #29 = Btn 3 CC/Prg</v>
       </c>
-      <c r="M31" s="19" t="str">
+      <c r="M31" s="18" t="str">
         <f>CONCATENATE("  ",C31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #29 = Btn 3 CC/Prg</v>
       </c>
@@ -2607,7 +2652,7 @@
       <c r="D32" s="1">
         <v>-1</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2617,7 +2662,7 @@
       <c r="G32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="19" t="str">
+      <c r="H32" s="18" t="str">
         <f>CONCATENATE("  ",G32,", // #",A32," = ",B32,IF(C32&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn4, // #30 = Btn 4 CC/Prg</v>
       </c>
@@ -2625,19 +2670,19 @@
         <f>CONCATENATE("  { """,B32,""" },  // #",A32," ",IF(C32&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Btn 4 CC/Prg" },  // #30 </v>
       </c>
-      <c r="J32" s="19" t="str">
+      <c r="J32" s="18" t="str">
         <f>CONCATENATE("  ",D32,", // #",A32," = ",B32,IF(C32&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #30 = Btn 4 CC/Prg</v>
       </c>
-      <c r="K32" s="19" t="str">
+      <c r="K32" s="18" t="str">
         <f>CONCATENATE("  ",E32,", // #",A32," = ",B32,IF(C32&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  127, // #30 = Btn 4 CC/Prg</v>
       </c>
-      <c r="L32" s="19" t="str">
+      <c r="L32" s="18" t="str">
         <f>CONCATENATE("  ",F32,", // #",A32," = ",B32,IF(C32&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  23, // #30 = Btn 4 CC/Prg</v>
       </c>
-      <c r="M32" s="19" t="str">
+      <c r="M32" s="18" t="str">
         <f>CONCATENATE("  ",C32,", // #",A32," = ",B32,IF(C32&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #30 = Btn 4 CC/Prg</v>
       </c>
@@ -2657,7 +2702,7 @@
       <c r="D33" s="1">
         <v>-1</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2667,7 +2712,7 @@
       <c r="G33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="19" t="str">
+      <c r="H33" s="18" t="str">
         <f t="shared" ref="H33:H44" si="32">CONCATENATE("  ",G33,", // #",A33," = ",B33,IF(C33&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn5, // #31 = Btn 5 CC/Prg</v>
       </c>
@@ -2675,19 +2720,19 @@
         <f t="shared" ref="I33:I44" si="33">CONCATENATE("  { """,B33,""" },  // #",A33," ",IF(C33&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Btn 5 CC/Prg" },  // #31 </v>
       </c>
-      <c r="J33" s="19" t="str">
+      <c r="J33" s="18" t="str">
         <f t="shared" ref="J33:J44" si="34">CONCATENATE("  ",D33,", // #",A33," = ",B33,IF(C33&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #31 = Btn 5 CC/Prg</v>
       </c>
-      <c r="K33" s="19" t="str">
+      <c r="K33" s="18" t="str">
         <f t="shared" ref="K33:K44" si="35">CONCATENATE("  ",E33,", // #",A33," = ",B33,IF(C33&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  127, // #31 = Btn 5 CC/Prg</v>
       </c>
-      <c r="L33" s="19" t="str">
+      <c r="L33" s="18" t="str">
         <f t="shared" ref="L33:L44" si="36">CONCATENATE("  ",F33,", // #",A33," = ",B33,IF(C33&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  24, // #31 = Btn 5 CC/Prg</v>
       </c>
-      <c r="M33" s="19" t="str">
+      <c r="M33" s="18" t="str">
         <f t="shared" ref="M33:M44" si="37">CONCATENATE("  ",C33,", // #",A33," = ",B33,IF(C33&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #31 = Btn 5 CC/Prg</v>
       </c>
@@ -2707,7 +2752,7 @@
       <c r="D34" s="1">
         <v>-1</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2717,7 +2762,7 @@
       <c r="G34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="19" t="str">
+      <c r="H34" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn6, // #32 = Btn 6 CC/Prg</v>
       </c>
@@ -2725,19 +2770,19 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 6 CC/Prg" },  // #32 </v>
       </c>
-      <c r="J34" s="19" t="str">
+      <c r="J34" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #32 = Btn 6 CC/Prg</v>
       </c>
-      <c r="K34" s="19" t="str">
+      <c r="K34" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #32 = Btn 6 CC/Prg</v>
       </c>
-      <c r="L34" s="19" t="str">
+      <c r="L34" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  25, // #32 = Btn 6 CC/Prg</v>
       </c>
-      <c r="M34" s="19" t="str">
+      <c r="M34" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #32 = Btn 6 CC/Prg</v>
       </c>
@@ -2757,7 +2802,7 @@
       <c r="D35" s="1">
         <v>-1</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2767,7 +2812,7 @@
       <c r="G35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="19" t="str">
+      <c r="H35" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn7, // #33 = Btn 7 CC/Prg</v>
       </c>
@@ -2775,19 +2820,19 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 7 CC/Prg" },  // #33 </v>
       </c>
-      <c r="J35" s="19" t="str">
+      <c r="J35" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #33 = Btn 7 CC/Prg</v>
       </c>
-      <c r="K35" s="19" t="str">
+      <c r="K35" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #33 = Btn 7 CC/Prg</v>
       </c>
-      <c r="L35" s="19" t="str">
+      <c r="L35" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  26, // #33 = Btn 7 CC/Prg</v>
       </c>
-      <c r="M35" s="19" t="str">
+      <c r="M35" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #33 = Btn 7 CC/Prg</v>
       </c>
@@ -2807,7 +2852,7 @@
       <c r="D36" s="1">
         <v>-1</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2817,7 +2862,7 @@
       <c r="G36" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="19" t="str">
+      <c r="H36" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn8, // #34 = Btn 8 CC/Prg</v>
       </c>
@@ -2825,23 +2870,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 8 CC/Prg" },  // #34 </v>
       </c>
-      <c r="J36" s="19" t="str">
+      <c r="J36" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #34 = Btn 8 CC/Prg</v>
       </c>
-      <c r="K36" s="19" t="str">
+      <c r="K36" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #34 = Btn 8 CC/Prg</v>
       </c>
-      <c r="L36" s="19" t="str">
+      <c r="L36" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  27, // #34 = Btn 8 CC/Prg</v>
       </c>
-      <c r="M36" s="19" t="str">
+      <c r="M36" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #34 = Btn 8 CC/Prg</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -2857,7 +2902,7 @@
       <c r="D37" s="1">
         <v>-1</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2867,7 +2912,7 @@
       <c r="G37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="19" t="str">
+      <c r="H37" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn9, // #35 = Btn 9 CC/Prg</v>
       </c>
@@ -2875,23 +2920,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 9 CC/Prg" },  // #35 </v>
       </c>
-      <c r="J37" s="19" t="str">
+      <c r="J37" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #35 = Btn 9 CC/Prg</v>
       </c>
-      <c r="K37" s="19" t="str">
+      <c r="K37" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #35 = Btn 9 CC/Prg</v>
       </c>
-      <c r="L37" s="19" t="str">
+      <c r="L37" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  28, // #35 = Btn 9 CC/Prg</v>
       </c>
-      <c r="M37" s="19" t="str">
+      <c r="M37" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #35 = Btn 9 CC/Prg</v>
       </c>
-      <c r="O37" s="18"/>
+      <c r="O37" s="17"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -2907,7 +2952,7 @@
       <c r="D38" s="1">
         <v>-1</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2917,7 +2962,7 @@
       <c r="G38" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="19" t="str">
+      <c r="H38" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn10, // #36 = Btn 10 CC/Prg</v>
       </c>
@@ -2925,23 +2970,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 10 CC/Prg" },  // #36 </v>
       </c>
-      <c r="J38" s="19" t="str">
+      <c r="J38" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #36 = Btn 10 CC/Prg</v>
       </c>
-      <c r="K38" s="19" t="str">
+      <c r="K38" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #36 = Btn 10 CC/Prg</v>
       </c>
-      <c r="L38" s="19" t="str">
+      <c r="L38" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  29, // #36 = Btn 10 CC/Prg</v>
       </c>
-      <c r="M38" s="19" t="str">
+      <c r="M38" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #36 = Btn 10 CC/Prg</v>
       </c>
-      <c r="O38" s="18"/>
+      <c r="O38" s="17"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -2957,7 +3002,7 @@
       <c r="D39" s="1">
         <v>-1</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -2967,7 +3012,7 @@
       <c r="G39" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="19" t="str">
+      <c r="H39" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn11, // #37 = Btn 11 CC/Prg</v>
       </c>
@@ -2975,23 +3020,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 11 CC/Prg" },  // #37 </v>
       </c>
-      <c r="J39" s="19" t="str">
+      <c r="J39" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #37 = Btn 11 CC/Prg</v>
       </c>
-      <c r="K39" s="19" t="str">
+      <c r="K39" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #37 = Btn 11 CC/Prg</v>
       </c>
-      <c r="L39" s="19" t="str">
+      <c r="L39" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  30, // #37 = Btn 11 CC/Prg</v>
       </c>
-      <c r="M39" s="19" t="str">
+      <c r="M39" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #37 = Btn 11 CC/Prg</v>
       </c>
-      <c r="O39" s="18"/>
+      <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3007,7 +3052,7 @@
       <c r="D40" s="1">
         <v>-1</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -3017,7 +3062,7 @@
       <c r="G40" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="19" t="str">
+      <c r="H40" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn12, // #38 = Btn 12 CC/Prg</v>
       </c>
@@ -3025,23 +3070,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 12 CC/Prg" },  // #38 </v>
       </c>
-      <c r="J40" s="19" t="str">
+      <c r="J40" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #38 = Btn 12 CC/Prg</v>
       </c>
-      <c r="K40" s="19" t="str">
+      <c r="K40" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #38 = Btn 12 CC/Prg</v>
       </c>
-      <c r="L40" s="19" t="str">
+      <c r="L40" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  31, // #38 = Btn 12 CC/Prg</v>
       </c>
-      <c r="M40" s="19" t="str">
+      <c r="M40" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #38 = Btn 12 CC/Prg</v>
       </c>
-      <c r="O40" s="18"/>
+      <c r="O40" s="17"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -3057,7 +3102,7 @@
       <c r="D41" s="1">
         <v>-1</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -3067,7 +3112,7 @@
       <c r="G41" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="19" t="str">
+      <c r="H41" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn13, // #39 = Btn 13 CC/Prg</v>
       </c>
@@ -3075,23 +3120,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 13 CC/Prg" },  // #39 </v>
       </c>
-      <c r="J41" s="19" t="str">
+      <c r="J41" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #39 = Btn 13 CC/Prg</v>
       </c>
-      <c r="K41" s="19" t="str">
+      <c r="K41" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #39 = Btn 13 CC/Prg</v>
       </c>
-      <c r="L41" s="19" t="str">
+      <c r="L41" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  32, // #39 = Btn 13 CC/Prg</v>
       </c>
-      <c r="M41" s="19" t="str">
+      <c r="M41" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #39 = Btn 13 CC/Prg</v>
       </c>
-      <c r="O41" s="18"/>
+      <c r="O41" s="17"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3107,7 +3152,7 @@
       <c r="D42" s="1">
         <v>-1</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -3117,7 +3162,7 @@
       <c r="G42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="19" t="str">
+      <c r="H42" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn14, // #40 = Btn 14 CC/Prg</v>
       </c>
@@ -3125,23 +3170,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 14 CC/Prg" },  // #40 </v>
       </c>
-      <c r="J42" s="19" t="str">
+      <c r="J42" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #40 = Btn 14 CC/Prg</v>
       </c>
-      <c r="K42" s="19" t="str">
+      <c r="K42" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #40 = Btn 14 CC/Prg</v>
       </c>
-      <c r="L42" s="19" t="str">
+      <c r="L42" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  33, // #40 = Btn 14 CC/Prg</v>
       </c>
-      <c r="M42" s="19" t="str">
+      <c r="M42" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #40 = Btn 14 CC/Prg</v>
       </c>
-      <c r="O42" s="18"/>
+      <c r="O42" s="17"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -3157,7 +3202,7 @@
       <c r="D43" s="1">
         <v>-1</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -3167,7 +3212,7 @@
       <c r="G43" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="19" t="str">
+      <c r="H43" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn15, // #41 = Btn 15 CC/Prg</v>
       </c>
@@ -3175,23 +3220,23 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 15 CC/Prg" },  // #41 </v>
       </c>
-      <c r="J43" s="19" t="str">
+      <c r="J43" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #41 = Btn 15 CC/Prg</v>
       </c>
-      <c r="K43" s="19" t="str">
+      <c r="K43" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #41 = Btn 15 CC/Prg</v>
       </c>
-      <c r="L43" s="19" t="str">
+      <c r="L43" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  34, // #41 = Btn 15 CC/Prg</v>
       </c>
-      <c r="M43" s="19" t="str">
+      <c r="M43" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #41 = Btn 15 CC/Prg</v>
       </c>
-      <c r="O43" s="18"/>
+      <c r="O43" s="17"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -3207,7 +3252,7 @@
       <c r="D44" s="1">
         <v>-1</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="21">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
@@ -3217,7 +3262,7 @@
       <c r="G44" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="19" t="str">
+      <c r="H44" s="18" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  m_btn16, // #42 = Btn 16 CC/Prg</v>
       </c>
@@ -3225,88 +3270,91 @@
         <f t="shared" si="33"/>
         <v xml:space="preserve">  { "Btn 16 CC/Prg" },  // #42 </v>
       </c>
-      <c r="J44" s="19" t="str">
+      <c r="J44" s="18" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve">  -1, // #42 = Btn 16 CC/Prg</v>
       </c>
-      <c r="K44" s="19" t="str">
+      <c r="K44" s="18" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">  127, // #42 = Btn 16 CC/Prg</v>
       </c>
-      <c r="L44" s="19" t="str">
+      <c r="L44" s="18" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  35, // #42 = Btn 16 CC/Prg</v>
       </c>
-      <c r="M44" s="19" t="str">
+      <c r="M44" s="18" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  0, // #42 = Btn 16 CC/Prg</v>
       </c>
-      <c r="O44" s="18"/>
+      <c r="O44" s="17"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="24">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="24">
-        <v>0</v>
-      </c>
-      <c r="E45" s="24">
-        <v>0</v>
-      </c>
-      <c r="F45" s="24">
-        <v>0</v>
-      </c>
-      <c r="G45" s="27" t="s">
+      <c r="C45" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="19" t="str">
+      <c r="H45" s="25" t="str">
         <f t="shared" ref="H45" si="38">CONCATENATE("  ",G45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn_back, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="I45" s="1" t="str">
+      <c r="I45" s="22" t="str">
         <f t="shared" ref="I45" si="39">CONCATENATE("  { """,B45,""" },  // #",A45," ",IF(C45&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "(Btn CC)" },  // #43  EXIT SUBM</v>
       </c>
-      <c r="J45" s="19" t="str">
+      <c r="J45" s="25" t="str">
         <f t="shared" ref="J45" si="40">CONCATENATE("  ",D45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="K45" s="19" t="str">
+      <c r="K45" s="25" t="str">
         <f t="shared" ref="K45" si="41">CONCATENATE("  ",E45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="L45" s="19" t="str">
+      <c r="L45" s="25" t="str">
         <f t="shared" ref="L45" si="42">CONCATENATE("  ",F45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="M45" s="19" t="str">
+      <c r="M45" s="25" t="str">
         <f t="shared" ref="M45" si="43">CONCATENATE("  ",C45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="O45" s="18"/>
+      <c r="N45" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="O45" s="17"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="22">
-        <v>0</v>
-      </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20">
         <v>3</v>
       </c>
       <c r="F46" s="1">
@@ -3315,7 +3363,7 @@
       <c r="G46" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="19" t="str">
+      <c r="H46" s="18" t="str">
         <f t="shared" ref="H46:H62" si="44">CONCATENATE("  ",G46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btnmode1, // #44 = Btn 1 Mode</v>
       </c>
@@ -3323,23 +3371,26 @@
         <f t="shared" ref="I46:I62" si="45">CONCATENATE("  { """,B46,""" },  // #",A46," ",IF(C46&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Btn 1 Mode" },  // #44 </v>
       </c>
-      <c r="J46" s="19" t="str">
+      <c r="J46" s="18" t="str">
         <f t="shared" ref="J46:J62" si="46">CONCATENATE("  ",D46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #44 = Btn 1 Mode</v>
       </c>
-      <c r="K46" s="19" t="str">
+      <c r="K46" s="18" t="str">
         <f t="shared" ref="K46:K62" si="47">CONCATENATE("  ",E46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  3, // #44 = Btn 1 Mode</v>
       </c>
-      <c r="L46" s="19" t="str">
+      <c r="L46" s="18" t="str">
         <f t="shared" ref="L46:L62" si="48">CONCATENATE("  ",F46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #44 = Btn 1 Mode</v>
       </c>
-      <c r="M46" s="19" t="str">
+      <c r="M46" s="18" t="str">
         <f t="shared" ref="M46:M62" si="49">CONCATENATE("  ",C46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #44 = Btn 1 Mode</v>
       </c>
-      <c r="O46" s="18"/>
+      <c r="N46" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O46" s="17"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -3355,7 +3406,7 @@
       <c r="D47" s="1">
         <v>0</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <f>E46</f>
         <v>3</v>
       </c>
@@ -3365,7 +3416,7 @@
       <c r="G47" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="19" t="str">
+      <c r="H47" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode2, // #45 = Btn 2 Mode</v>
       </c>
@@ -3373,23 +3424,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 2 Mode" },  // #45 </v>
       </c>
-      <c r="J47" s="19" t="str">
+      <c r="J47" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #45 = Btn 2 Mode</v>
       </c>
-      <c r="K47" s="19" t="str">
+      <c r="K47" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #45 = Btn 2 Mode</v>
       </c>
-      <c r="L47" s="19" t="str">
+      <c r="L47" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #45 = Btn 2 Mode</v>
       </c>
-      <c r="M47" s="19" t="str">
+      <c r="M47" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #45 = Btn 2 Mode</v>
       </c>
-      <c r="O47" s="18"/>
+      <c r="O47" s="17"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -3405,7 +3456,7 @@
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="21">
         <f t="shared" ref="E48:E61" si="50">E47</f>
         <v>3</v>
       </c>
@@ -3415,7 +3466,7 @@
       <c r="G48" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H48" s="19" t="str">
+      <c r="H48" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode3, // #46 = Btn 3 Mode</v>
       </c>
@@ -3423,23 +3474,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 3 Mode" },  // #46 </v>
       </c>
-      <c r="J48" s="19" t="str">
+      <c r="J48" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #46 = Btn 3 Mode</v>
       </c>
-      <c r="K48" s="19" t="str">
+      <c r="K48" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #46 = Btn 3 Mode</v>
       </c>
-      <c r="L48" s="19" t="str">
+      <c r="L48" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #46 = Btn 3 Mode</v>
       </c>
-      <c r="M48" s="19" t="str">
+      <c r="M48" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #46 = Btn 3 Mode</v>
       </c>
-      <c r="O48" s="18"/>
+      <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -3455,7 +3506,7 @@
       <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3465,7 +3516,7 @@
       <c r="G49" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="19" t="str">
+      <c r="H49" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode4, // #47 = Btn 4 Mode</v>
       </c>
@@ -3473,23 +3524,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 4 Mode" },  // #47 </v>
       </c>
-      <c r="J49" s="19" t="str">
+      <c r="J49" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #47 = Btn 4 Mode</v>
       </c>
-      <c r="K49" s="19" t="str">
+      <c r="K49" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #47 = Btn 4 Mode</v>
       </c>
-      <c r="L49" s="19" t="str">
+      <c r="L49" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #47 = Btn 4 Mode</v>
       </c>
-      <c r="M49" s="19" t="str">
+      <c r="M49" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #47 = Btn 4 Mode</v>
       </c>
-      <c r="O49" s="18"/>
+      <c r="O49" s="17"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -3505,7 +3556,7 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3515,7 +3566,7 @@
       <c r="G50" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="19" t="str">
+      <c r="H50" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode5, // #48 = Btn 5 Mode</v>
       </c>
@@ -3523,23 +3574,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 5 Mode" },  // #48 </v>
       </c>
-      <c r="J50" s="19" t="str">
+      <c r="J50" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #48 = Btn 5 Mode</v>
       </c>
-      <c r="K50" s="19" t="str">
+      <c r="K50" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #48 = Btn 5 Mode</v>
       </c>
-      <c r="L50" s="19" t="str">
+      <c r="L50" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #48 = Btn 5 Mode</v>
       </c>
-      <c r="M50" s="19" t="str">
+      <c r="M50" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #48 = Btn 5 Mode</v>
       </c>
-      <c r="O50" s="18"/>
+      <c r="O50" s="17"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -3555,7 +3606,7 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3565,7 +3616,7 @@
       <c r="G51" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="19" t="str">
+      <c r="H51" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode6, // #49 = Btn 6 Mode</v>
       </c>
@@ -3573,23 +3624,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 6 Mode" },  // #49 </v>
       </c>
-      <c r="J51" s="19" t="str">
+      <c r="J51" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #49 = Btn 6 Mode</v>
       </c>
-      <c r="K51" s="19" t="str">
+      <c r="K51" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #49 = Btn 6 Mode</v>
       </c>
-      <c r="L51" s="19" t="str">
+      <c r="L51" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #49 = Btn 6 Mode</v>
       </c>
-      <c r="M51" s="19" t="str">
+      <c r="M51" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #49 = Btn 6 Mode</v>
       </c>
-      <c r="O51" s="18"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -3605,7 +3656,7 @@
       <c r="D52" s="1">
         <v>0</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3615,7 +3666,7 @@
       <c r="G52" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="19" t="str">
+      <c r="H52" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode7, // #50 = Btn 7 Mode</v>
       </c>
@@ -3623,23 +3674,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 7 Mode" },  // #50 </v>
       </c>
-      <c r="J52" s="19" t="str">
+      <c r="J52" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #50 = Btn 7 Mode</v>
       </c>
-      <c r="K52" s="19" t="str">
+      <c r="K52" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #50 = Btn 7 Mode</v>
       </c>
-      <c r="L52" s="19" t="str">
+      <c r="L52" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #50 = Btn 7 Mode</v>
       </c>
-      <c r="M52" s="19" t="str">
+      <c r="M52" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #50 = Btn 7 Mode</v>
       </c>
-      <c r="O52" s="18"/>
+      <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -3655,7 +3706,7 @@
       <c r="D53" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3665,7 +3716,7 @@
       <c r="G53" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H53" s="19" t="str">
+      <c r="H53" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode8, // #51 = Btn 8 Mode</v>
       </c>
@@ -3673,23 +3724,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 8 Mode" },  // #51 </v>
       </c>
-      <c r="J53" s="19" t="str">
+      <c r="J53" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #51 = Btn 8 Mode</v>
       </c>
-      <c r="K53" s="19" t="str">
+      <c r="K53" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #51 = Btn 8 Mode</v>
       </c>
-      <c r="L53" s="19" t="str">
+      <c r="L53" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #51 = Btn 8 Mode</v>
       </c>
-      <c r="M53" s="19" t="str">
+      <c r="M53" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #51 = Btn 8 Mode</v>
       </c>
-      <c r="O53" s="18"/>
+      <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -3705,7 +3756,7 @@
       <c r="D54" s="1">
         <v>0</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3715,7 +3766,7 @@
       <c r="G54" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H54" s="19" t="str">
+      <c r="H54" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode9, // #52 = Btn 9 Mode</v>
       </c>
@@ -3723,23 +3774,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 9 Mode" },  // #52 </v>
       </c>
-      <c r="J54" s="19" t="str">
+      <c r="J54" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #52 = Btn 9 Mode</v>
       </c>
-      <c r="K54" s="19" t="str">
+      <c r="K54" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #52 = Btn 9 Mode</v>
       </c>
-      <c r="L54" s="19" t="str">
+      <c r="L54" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #52 = Btn 9 Mode</v>
       </c>
-      <c r="M54" s="19" t="str">
+      <c r="M54" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #52 = Btn 9 Mode</v>
       </c>
-      <c r="O54" s="18"/>
+      <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -3755,7 +3806,7 @@
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3765,7 +3816,7 @@
       <c r="G55" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="19" t="str">
+      <c r="H55" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode10, // #53 = Btn 10 Mode</v>
       </c>
@@ -3773,23 +3824,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 10 Mode" },  // #53 </v>
       </c>
-      <c r="J55" s="19" t="str">
+      <c r="J55" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #53 = Btn 10 Mode</v>
       </c>
-      <c r="K55" s="19" t="str">
+      <c r="K55" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #53 = Btn 10 Mode</v>
       </c>
-      <c r="L55" s="19" t="str">
+      <c r="L55" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #53 = Btn 10 Mode</v>
       </c>
-      <c r="M55" s="19" t="str">
+      <c r="M55" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #53 = Btn 10 Mode</v>
       </c>
-      <c r="O55" s="18"/>
+      <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -3805,7 +3856,7 @@
       <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3815,7 +3866,7 @@
       <c r="G56" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H56" s="19" t="str">
+      <c r="H56" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode11, // #54 = Btn 11 Mode</v>
       </c>
@@ -3823,23 +3874,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 11 Mode" },  // #54 </v>
       </c>
-      <c r="J56" s="19" t="str">
+      <c r="J56" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #54 = Btn 11 Mode</v>
       </c>
-      <c r="K56" s="19" t="str">
+      <c r="K56" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #54 = Btn 11 Mode</v>
       </c>
-      <c r="L56" s="19" t="str">
+      <c r="L56" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #54 = Btn 11 Mode</v>
       </c>
-      <c r="M56" s="19" t="str">
+      <c r="M56" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #54 = Btn 11 Mode</v>
       </c>
-      <c r="O56" s="18"/>
+      <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -3855,7 +3906,7 @@
       <c r="D57" s="1">
         <v>0</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3865,7 +3916,7 @@
       <c r="G57" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H57" s="19" t="str">
+      <c r="H57" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode12, // #55 = Btn 12 Mode</v>
       </c>
@@ -3873,23 +3924,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 12 Mode" },  // #55 </v>
       </c>
-      <c r="J57" s="19" t="str">
+      <c r="J57" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #55 = Btn 12 Mode</v>
       </c>
-      <c r="K57" s="19" t="str">
+      <c r="K57" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #55 = Btn 12 Mode</v>
       </c>
-      <c r="L57" s="19" t="str">
+      <c r="L57" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #55 = Btn 12 Mode</v>
       </c>
-      <c r="M57" s="19" t="str">
+      <c r="M57" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #55 = Btn 12 Mode</v>
       </c>
-      <c r="O57" s="18"/>
+      <c r="O57" s="17"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -3905,7 +3956,7 @@
       <c r="D58" s="1">
         <v>0</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3915,7 +3966,7 @@
       <c r="G58" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="19" t="str">
+      <c r="H58" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode13, // #56 = Btn 13 Mode</v>
       </c>
@@ -3923,23 +3974,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 13 Mode" },  // #56 </v>
       </c>
-      <c r="J58" s="19" t="str">
+      <c r="J58" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #56 = Btn 13 Mode</v>
       </c>
-      <c r="K58" s="19" t="str">
+      <c r="K58" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #56 = Btn 13 Mode</v>
       </c>
-      <c r="L58" s="19" t="str">
+      <c r="L58" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #56 = Btn 13 Mode</v>
       </c>
-      <c r="M58" s="19" t="str">
+      <c r="M58" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #56 = Btn 13 Mode</v>
       </c>
-      <c r="O58" s="18"/>
+      <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -3955,7 +4006,7 @@
       <c r="D59" s="1">
         <v>0</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -3965,7 +4016,7 @@
       <c r="G59" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="19" t="str">
+      <c r="H59" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode14, // #57 = Btn 14 Mode</v>
       </c>
@@ -3973,23 +4024,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 14 Mode" },  // #57 </v>
       </c>
-      <c r="J59" s="19" t="str">
+      <c r="J59" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #57 = Btn 14 Mode</v>
       </c>
-      <c r="K59" s="19" t="str">
+      <c r="K59" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #57 = Btn 14 Mode</v>
       </c>
-      <c r="L59" s="19" t="str">
+      <c r="L59" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #57 = Btn 14 Mode</v>
       </c>
-      <c r="M59" s="19" t="str">
+      <c r="M59" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #57 = Btn 14 Mode</v>
       </c>
-      <c r="O59" s="18"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -4005,7 +4056,7 @@
       <c r="D60" s="1">
         <v>0</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -4015,7 +4066,7 @@
       <c r="G60" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="19" t="str">
+      <c r="H60" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode15, // #58 = Btn 15 Mode</v>
       </c>
@@ -4023,23 +4074,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 15 Mode" },  // #58 </v>
       </c>
-      <c r="J60" s="19" t="str">
+      <c r="J60" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #58 = Btn 15 Mode</v>
       </c>
-      <c r="K60" s="19" t="str">
+      <c r="K60" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #58 = Btn 15 Mode</v>
       </c>
-      <c r="L60" s="19" t="str">
+      <c r="L60" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #58 = Btn 15 Mode</v>
       </c>
-      <c r="M60" s="19" t="str">
+      <c r="M60" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #58 = Btn 15 Mode</v>
       </c>
-      <c r="O60" s="18"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -4055,7 +4106,7 @@
       <c r="D61" s="1">
         <v>0</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="21">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
@@ -4065,7 +4116,7 @@
       <c r="G61" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="19" t="str">
+      <c r="H61" s="18" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode16, // #59 = Btn 16 Mode</v>
       </c>
@@ -4073,88 +4124,91 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "Btn 16 Mode" },  // #59 </v>
       </c>
-      <c r="J61" s="19" t="str">
+      <c r="J61" s="18" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #59 = Btn 16 Mode</v>
       </c>
-      <c r="K61" s="19" t="str">
+      <c r="K61" s="18" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  3, // #59 = Btn 16 Mode</v>
       </c>
-      <c r="L61" s="19" t="str">
+      <c r="L61" s="18" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #59 = Btn 16 Mode</v>
       </c>
-      <c r="M61" s="19" t="str">
+      <c r="M61" s="18" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  0, // #59 = Btn 16 Mode</v>
       </c>
-      <c r="O61" s="18"/>
+      <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="24">
-        <v>-1</v>
-      </c>
-      <c r="D62" s="24">
-        <v>0</v>
-      </c>
-      <c r="E62" s="24">
-        <v>0</v>
-      </c>
-      <c r="F62" s="24">
-        <v>0</v>
-      </c>
-      <c r="G62" s="27" t="s">
+      <c r="C62" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H62" s="19" t="str">
+      <c r="H62" s="25" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode_back, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="I62" s="1" t="str">
+      <c r="I62" s="22" t="str">
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "(Btn Mode)" },  // #60  EXIT SUBM</v>
       </c>
-      <c r="J62" s="19" t="str">
+      <c r="J62" s="25" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="K62" s="19" t="str">
+      <c r="K62" s="25" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  0, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="L62" s="19" t="str">
+      <c r="L62" s="25" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="M62" s="19" t="str">
+      <c r="M62" s="25" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  -1, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="O62" s="18"/>
+      <c r="N62" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="22">
-        <v>0</v>
-      </c>
-      <c r="D63" s="22">
-        <v>0</v>
-      </c>
-      <c r="E63" s="26" t="s">
+      <c r="C63" s="20">
+        <v>0</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -4163,7 +4217,7 @@
       <c r="G63" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H63" s="19" t="str">
+      <c r="H63" s="18" t="str">
         <f t="shared" ref="H63:H70" si="51">CONCATENATE("  ",G63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_driver_type, // #61 = Kbd Driver</v>
       </c>
@@ -4171,23 +4225,26 @@
         <f t="shared" ref="I63:I70" si="52">CONCATENATE("  { """,B63,""" },  // #",A63," ",IF(C63&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "Kbd Driver" },  // #61 </v>
       </c>
-      <c r="J63" s="19" t="str">
+      <c r="J63" s="18" t="str">
         <f t="shared" ref="J63:J70" si="53">CONCATENATE("  ",D63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #61 = Kbd Driver</v>
       </c>
-      <c r="K63" s="19" t="str">
+      <c r="K63" s="18" t="str">
         <f t="shared" ref="K63:K70" si="54">CONCATENATE("  ",E63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  drv_custom, // #61 = Kbd Driver</v>
       </c>
-      <c r="L63" s="19" t="str">
+      <c r="L63" s="18" t="str">
         <f t="shared" ref="L63:L70" si="55">CONCATENATE("  ",F63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  drv_fatar1, // #61 = Kbd Driver</v>
       </c>
-      <c r="M63" s="19" t="str">
+      <c r="M63" s="18" t="str">
         <f t="shared" ref="M63:M70" si="56">CONCATENATE("  ",C63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #61 = Kbd Driver</v>
       </c>
-      <c r="O63" s="18"/>
+      <c r="N63" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -4212,7 +4269,7 @@
       <c r="G64" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="19" t="str">
+      <c r="H64" s="18" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_mindyn, // #62 = Velocity Min</v>
       </c>
@@ -4220,23 +4277,23 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "Velocity Min" },  // #62 </v>
       </c>
-      <c r="J64" s="19" t="str">
+      <c r="J64" s="18" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  1, // #62 = Velocity Min</v>
       </c>
-      <c r="K64" s="19" t="str">
+      <c r="K64" s="18" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  40, // #62 = Velocity Min</v>
       </c>
-      <c r="L64" s="19" t="str">
+      <c r="L64" s="18" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  MIDI_MINDYN, // #62 = Velocity Min</v>
       </c>
-      <c r="M64" s="19" t="str">
+      <c r="M64" s="18" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  0, // #62 = Velocity Min</v>
       </c>
-      <c r="O64" s="18"/>
+      <c r="O64" s="17"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -4261,7 +4318,7 @@
       <c r="G65" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H65" s="19" t="str">
+      <c r="H65" s="18" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_maxdynadj, // #63 = Velocity MaxAdj</v>
       </c>
@@ -4269,23 +4326,23 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "Velocity MaxAdj" },  // #63 </v>
       </c>
-      <c r="J65" s="19" t="str">
+      <c r="J65" s="18" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  1, // #63 = Velocity MaxAdj</v>
       </c>
-      <c r="K65" s="19" t="str">
+      <c r="K65" s="18" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  40, // #63 = Velocity MaxAdj</v>
       </c>
-      <c r="L65" s="19" t="str">
+      <c r="L65" s="18" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  MIDI_MAXDYNADJ, // #63 = Velocity MaxAdj</v>
       </c>
-      <c r="M65" s="19" t="str">
+      <c r="M65" s="18" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  0, // #63 = Velocity MaxAdj</v>
       </c>
-      <c r="O65" s="18"/>
+      <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -4310,7 +4367,7 @@
       <c r="G66" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="19" t="str">
+      <c r="H66" s="18" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_slope, // #64 = Velocity Slope</v>
       </c>
@@ -4318,23 +4375,23 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "Velocity Slope" },  // #64 </v>
       </c>
-      <c r="J66" s="19" t="str">
+      <c r="J66" s="18" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  1, // #64 = Velocity Slope</v>
       </c>
-      <c r="K66" s="19" t="str">
+      <c r="K66" s="18" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  30, // #64 = Velocity Slope</v>
       </c>
-      <c r="L66" s="19" t="str">
+      <c r="L66" s="18" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  MIDI_DYNSLOPE, // #64 = Velocity Slope</v>
       </c>
-      <c r="M66" s="19" t="str">
+      <c r="M66" s="18" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  0, // #64 = Velocity Slope</v>
       </c>
-      <c r="O66" s="18"/>
+      <c r="O66" s="17"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -4359,7 +4416,7 @@
       <c r="G67" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H67" s="19" t="str">
+      <c r="H67" s="18" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_upper_base, // #65 = Upper Base</v>
       </c>
@@ -4367,23 +4424,23 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "Upper Base" },  // #65 </v>
       </c>
-      <c r="J67" s="19" t="str">
+      <c r="J67" s="18" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  12, // #65 = Upper Base</v>
       </c>
-      <c r="K67" s="19" t="str">
+      <c r="K67" s="18" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  60, // #65 = Upper Base</v>
       </c>
-      <c r="L67" s="19" t="str">
+      <c r="L67" s="18" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  MIDI_BASE_UPR, // #65 = Upper Base</v>
       </c>
-      <c r="M67" s="19" t="str">
+      <c r="M67" s="18" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  0, // #65 = Upper Base</v>
       </c>
-      <c r="O67" s="18"/>
+      <c r="O67" s="17"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -4408,7 +4465,7 @@
       <c r="G68" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H68" s="19" t="str">
+      <c r="H68" s="18" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_lower_base, // #66 = Lower Base</v>
       </c>
@@ -4416,19 +4473,19 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "Lower Base" },  // #66 </v>
       </c>
-      <c r="J68" s="19" t="str">
+      <c r="J68" s="18" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  12, // #66 = Lower Base</v>
       </c>
-      <c r="K68" s="19" t="str">
+      <c r="K68" s="18" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  60, // #66 = Lower Base</v>
       </c>
-      <c r="L68" s="19" t="str">
+      <c r="L68" s="18" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  MIDI_BASE_LWR, // #66 = Lower Base</v>
       </c>
-      <c r="M68" s="19" t="str">
+      <c r="M68" s="18" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  0, // #66 = Lower Base</v>
       </c>
@@ -4456,7 +4513,7 @@
       <c r="G69" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="19" t="str">
+      <c r="H69" s="18" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_pedal_base, // #67 = Pedal Base</v>
       </c>
@@ -4464,19 +4521,19 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "Pedal Base" },  // #67 </v>
       </c>
-      <c r="J69" s="19" t="str">
+      <c r="J69" s="18" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  12, // #67 = Pedal Base</v>
       </c>
-      <c r="K69" s="19" t="str">
+      <c r="K69" s="18" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  60, // #67 = Pedal Base</v>
       </c>
-      <c r="L69" s="19" t="str">
+      <c r="L69" s="18" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  MIDI_BASE_PED, // #67 = Pedal Base</v>
       </c>
-      <c r="M69" s="19" t="str">
+      <c r="M69" s="18" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  0, // #67 = Pedal Base</v>
       </c>
@@ -4486,47 +4543,50 @@
         <f t="shared" si="57"/>
         <v>68</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="24">
-        <v>-1</v>
-      </c>
-      <c r="D70" s="24">
-        <v>0</v>
-      </c>
-      <c r="E70" s="24">
-        <v>0</v>
-      </c>
-      <c r="F70" s="24">
-        <v>0</v>
-      </c>
-      <c r="G70" s="27" t="s">
+      <c r="C70" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D70" s="22">
+        <v>0</v>
+      </c>
+      <c r="E70" s="22">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22">
+        <v>0</v>
+      </c>
+      <c r="G70" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="20" t="str">
+      <c r="H70" s="25" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_kbd_back, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="I70" s="2" t="str">
+      <c r="I70" s="22" t="str">
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "(Keyboard)" },  // #68  EXIT SUBM</v>
       </c>
-      <c r="J70" s="20" t="str">
+      <c r="J70" s="25" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  0, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="K70" s="20" t="str">
+      <c r="K70" s="25" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  0, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="L70" s="20" t="str">
+      <c r="L70" s="25" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  0, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="M70" s="20" t="str">
+      <c r="M70" s="25" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  -1, // #68 = (Keyboard) EXIT </v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">

--- a/docs/MIDI_menuItems.xlsx
+++ b/docs/MIDI_menuItems.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="30915" windowHeight="16425"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="30915" windowHeight="16425" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ScanController" sheetId="1" r:id="rId1"/>
+    <sheet name="HX3-Framework" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="200">
   <si>
     <t>Index #</t>
   </si>
@@ -529,13 +530,103 @@
   </si>
   <si>
     <t>Submenu Keyboard Params</t>
+  </si>
+  <si>
+    <t>Master Volume</t>
+  </si>
+  <si>
+    <t>Amp Gain</t>
+  </si>
+  <si>
+    <t>Upper DBs</t>
+  </si>
+  <si>
+    <t>Lower DBs</t>
+  </si>
+  <si>
+    <t>Pedal DBs</t>
+  </si>
+  <si>
+    <t>Upper DB 16</t>
+  </si>
+  <si>
+    <t>Upper DB 5 1/3</t>
+  </si>
+  <si>
+    <t>Upper DB 8</t>
+  </si>
+  <si>
+    <t>Upper DB 4</t>
+  </si>
+  <si>
+    <t>Upper DB 2 2/3</t>
+  </si>
+  <si>
+    <t>Upper DB 2</t>
+  </si>
+  <si>
+    <t>Upper DB 1 3/5</t>
+  </si>
+  <si>
+    <t>Upper DB 1 1/3</t>
+  </si>
+  <si>
+    <t>Upper DB 1</t>
+  </si>
+  <si>
+    <t>Lower DB 16</t>
+  </si>
+  <si>
+    <t>Lower DB 5 1/3</t>
+  </si>
+  <si>
+    <t>Lower DB 8</t>
+  </si>
+  <si>
+    <t>Lower DB 4</t>
+  </si>
+  <si>
+    <t>Lower DB 2 2/3</t>
+  </si>
+  <si>
+    <t>Lower DB 2</t>
+  </si>
+  <si>
+    <t>Lower DB 1 3/5</t>
+  </si>
+  <si>
+    <t>Lower DB 1 1/3</t>
+  </si>
+  <si>
+    <t>Lower DB 1</t>
+  </si>
+  <si>
+    <t>Pedal DB 16</t>
+  </si>
+  <si>
+    <t>Pedal DB 8</t>
+  </si>
+  <si>
+    <t>MainMenuEnd</t>
+  </si>
+  <si>
+    <t>Upper DB</t>
+  </si>
+  <si>
+    <t>Lower DB</t>
+  </si>
+  <si>
+    <t>Pedal DB</t>
+  </si>
+  <si>
+    <t>Volumes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +658,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -586,6 +684,11 @@
       <color rgb="FF0070C0"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -652,7 +755,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +765,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,11 +805,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -692,7 +816,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -701,13 +828,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -716,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,37 +855,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71:M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1229,7 @@
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
     <col min="11" max="12" width="22.85546875" style="12" customWidth="1"/>
     <col min="13" max="13" width="32.28515625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="24" style="27" customWidth="1"/>
+    <col min="14" max="14" width="24" style="28" customWidth="1"/>
     <col min="15" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
@@ -1128,7 +1273,7 @@
       <c r="M1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>163</v>
       </c>
       <c r="O1" s="13"/>
@@ -1180,7 +1325,7 @@
         <f t="shared" ref="M2" si="5">CONCATENATE("  ",C2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #0 = Upper Channel</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="28" t="s">
         <v>164</v>
       </c>
       <c r="O2" s="13"/>
@@ -1428,7 +1573,7 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">  61, // #5 = Keyboard</v>
       </c>
-      <c r="N7" s="27"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1478,7 +1623,7 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">  10, // #6 = Pot Assign</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1673,7 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">  27, // #7 = Button Assign</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1578,7 +1723,7 @@
         <f t="shared" ref="M10" si="23">CONCATENATE("  ",C10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  44, // #8 = Button Mode</v>
       </c>
-      <c r="N10" s="27"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1628,7 +1773,7 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">  0, // #9 = (end)</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="N11" s="28" t="s">
         <v>165</v>
       </c>
       <c r="O11" s="13"/>
@@ -1880,7 +2025,7 @@
         <f t="shared" ref="M16:M27" si="30">CONCATENATE("  ",C16,", // #",A16," = ",B16,IF(C16&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #14 = Pot 5 CC</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2131,7 +2276,7 @@
         <f t="shared" si="30"/>
         <v xml:space="preserve">  0, // #19 = Pot 10 CC</v>
       </c>
-      <c r="N21" s="27"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,10 +2599,10 @@
       <c r="F28" s="22">
         <v>0</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="25" t="str">
+      <c r="H28" s="26" t="str">
         <f>CONCATENATE("  ",G28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_cc_back, // #26 = (Pot CC) EXIT </v>
       </c>
@@ -2465,23 +2610,23 @@
         <f>CONCATENATE("  { """,B28,""" },  // #",A28," ",IF(C28&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "(Pot CC)" },  // #26  EXIT SUBM</v>
       </c>
-      <c r="J28" s="25" t="str">
+      <c r="J28" s="26" t="str">
         <f>CONCATENATE("  ",D28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="K28" s="25" t="str">
+      <c r="K28" s="26" t="str">
         <f>CONCATENATE("  ",E28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="L28" s="25" t="str">
+      <c r="L28" s="26" t="str">
         <f>CONCATENATE("  ",F28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="M28" s="25" t="str">
+      <c r="M28" s="26" t="str">
         <f>CONCATENATE("  ",C28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #26 = (Pot CC) EXIT </v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="N28" s="28" t="s">
         <v>166</v>
       </c>
       <c r="O28" s="13"/>
@@ -2533,7 +2678,7 @@
         <f>CONCATENATE("  ",C29,", // #",A29," = ",B29,IF(C29&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #27 = Btn 1 CC/Prg</v>
       </c>
-      <c r="N29" s="27" t="s">
+      <c r="N29" s="28" t="s">
         <v>167</v>
       </c>
       <c r="O29" s="13"/>
@@ -3308,10 +3453,10 @@
       <c r="F45" s="22">
         <v>0</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="25" t="str">
+      <c r="H45" s="26" t="str">
         <f t="shared" ref="H45" si="38">CONCATENATE("  ",G45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  m_btn_back, // #43 = (Btn CC) EXIT </v>
       </c>
@@ -3319,23 +3464,23 @@
         <f t="shared" ref="I45" si="39">CONCATENATE("  { """,B45,""" },  // #",A45," ",IF(C45&lt;0," EXIT SUBM",""))</f>
         <v xml:space="preserve">  { "(Btn CC)" },  // #43  EXIT SUBM</v>
       </c>
-      <c r="J45" s="25" t="str">
+      <c r="J45" s="26" t="str">
         <f t="shared" ref="J45" si="40">CONCATENATE("  ",D45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="K45" s="25" t="str">
+      <c r="K45" s="26" t="str">
         <f t="shared" ref="K45" si="41">CONCATENATE("  ",E45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="L45" s="25" t="str">
+      <c r="L45" s="26" t="str">
         <f t="shared" ref="L45" si="42">CONCATENATE("  ",F45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="M45" s="25" t="str">
+      <c r="M45" s="26" t="str">
         <f t="shared" ref="M45" si="43">CONCATENATE("  ",C45,", // #",A45," = ",B45,IF(C45&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  -1, // #43 = (Btn CC) EXIT </v>
       </c>
-      <c r="N45" s="27" t="s">
+      <c r="N45" s="28" t="s">
         <v>166</v>
       </c>
       <c r="O45" s="17"/>
@@ -3387,7 +3532,7 @@
         <f t="shared" ref="M46:M62" si="49">CONCATENATE("  ",C46,", // #",A46," = ",B46,IF(C46&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #44 = Btn 1 Mode</v>
       </c>
-      <c r="N46" s="27" t="s">
+      <c r="N46" s="28" t="s">
         <v>168</v>
       </c>
       <c r="O46" s="17"/>
@@ -4162,10 +4307,10 @@
       <c r="F62" s="22">
         <v>0</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H62" s="25" t="str">
+      <c r="H62" s="26" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">  m_btnmode_back, // #60 = (Btn Mode) EXIT </v>
       </c>
@@ -4173,23 +4318,23 @@
         <f t="shared" si="45"/>
         <v xml:space="preserve">  { "(Btn Mode)" },  // #60  EXIT SUBM</v>
       </c>
-      <c r="J62" s="25" t="str">
+      <c r="J62" s="26" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">  0, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="K62" s="25" t="str">
+      <c r="K62" s="26" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">  0, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="L62" s="25" t="str">
+      <c r="L62" s="26" t="str">
         <f t="shared" si="48"/>
         <v xml:space="preserve">  0, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="M62" s="25" t="str">
+      <c r="M62" s="26" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve">  -1, // #60 = (Btn Mode) EXIT </v>
       </c>
-      <c r="N62" s="27" t="s">
+      <c r="N62" s="28" t="s">
         <v>166</v>
       </c>
       <c r="O62" s="17"/>
@@ -4208,7 +4353,7 @@
       <c r="D63" s="20">
         <v>0</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -4241,7 +4386,7 @@
         <f t="shared" ref="M63:M70" si="56">CONCATENATE("  ",C63,", // #",A63," = ",B63,IF(C63&lt;0," EXIT ",""))</f>
         <v xml:space="preserve">  0, // #61 = Kbd Driver</v>
       </c>
-      <c r="N63" s="27" t="s">
+      <c r="N63" s="28" t="s">
         <v>169</v>
       </c>
       <c r="O63" s="17"/>
@@ -4558,10 +4703,10 @@
       <c r="F70" s="22">
         <v>0</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="25" t="str">
+      <c r="H70" s="26" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">  m_kbd_back, // #68 = (Keyboard) EXIT </v>
       </c>
@@ -4569,23 +4714,23 @@
         <f t="shared" si="52"/>
         <v xml:space="preserve">  { "(Keyboard)" },  // #68  EXIT SUBM</v>
       </c>
-      <c r="J70" s="25" t="str">
+      <c r="J70" s="26" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">  0, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="K70" s="25" t="str">
+      <c r="K70" s="26" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve">  0, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="L70" s="25" t="str">
+      <c r="L70" s="26" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">  0, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="M70" s="25" t="str">
+      <c r="M70" s="26" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve">  -1, // #68 = (Keyboard) EXIT </v>
       </c>
-      <c r="N70" s="27" t="s">
+      <c r="N70" s="28" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4620,4 +4765,2181 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="12" width="22.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="24" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="24">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(B2," ","_")))</f>
+        <v>m_upper_dbs</v>
+      </c>
+      <c r="H2" s="18" t="str">
+        <f t="shared" ref="H2:H8" si="0">CONCATENATE("  ",G2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_upper_dbs, // #0 = Upper DBs</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" ref="I2:I8" si="1">CONCATENATE("  { """,B2,""" },  // #",A2," ",IF(C2&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Upper DBs" },  // #0 </v>
+      </c>
+      <c r="J2" s="18" t="str">
+        <f t="shared" ref="J2:J8" si="2">CONCATENATE("  ",D2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  1, // #0 = Upper DBs</v>
+      </c>
+      <c r="K2" s="18" t="str">
+        <f t="shared" ref="K2:K8" si="3">CONCATENATE("  ",E2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #0 = Upper DBs</v>
+      </c>
+      <c r="L2" s="18" t="str">
+        <f t="shared" ref="L2:L8" si="4">CONCATENATE("  ",F2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #0 = Upper DBs</v>
+      </c>
+      <c r="M2" s="18" t="str">
+        <f t="shared" ref="M2:M8" si="5">CONCATENATE("  ",C2,", // #",A2," = ",B2,IF(C2&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  7, // #0 = Upper DBs</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A35" si="6">A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="24">
+        <f>A19</f>
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12" t="str">
+        <f t="shared" ref="G3:G7" si="7">CONCATENATE("m_",LOWER(SUBSTITUTE(B3," ","_")))</f>
+        <v>m_lower_dbs</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  m_lower_dbs, // #1 = Lower DBs</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Lower DBs" },  // #1 </v>
+      </c>
+      <c r="J3" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  1, // #1 = Lower DBs</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  16, // #1 = Lower DBs</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  0, // #1 = Lower DBs</v>
+      </c>
+      <c r="M3" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  17, // #1 = Lower DBs</v>
+      </c>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="24">
+        <f>A29</f>
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>m_pedal_dbs</v>
+      </c>
+      <c r="H4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  m_pedal_dbs, // #2 = Pedal DBs</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Pedal DBs" },  // #2 </v>
+      </c>
+      <c r="J4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  1, // #2 = Pedal DBs</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  16, // #2 = Pedal DBs</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  0, // #2 = Pedal DBs</v>
+      </c>
+      <c r="M4" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  27, // #2 = Pedal DBs</v>
+      </c>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="24">
+        <f>A32</f>
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>m_volumes</v>
+      </c>
+      <c r="H5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  m_volumes, // #3 = Volumes</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Volumes" },  // #3 </v>
+      </c>
+      <c r="J5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  0, // #3 = Volumes</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  0, // #3 = Volumes</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  0, // #3 = Volumes</v>
+      </c>
+      <c r="M5" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  30, // #3 = Volumes</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="24">
+        <f>A35</f>
+        <v>33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(B6," ","_")))</f>
+        <v>m_keyboard</v>
+      </c>
+      <c r="H6" s="18" t="str">
+        <f>CONCATENATE("  ",G6,", // #",A6," = ",B6,IF(C6&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_keyboard, // #4 = Keyboard</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>CONCATENATE("  { """,B6,""" },  // #",A6," ",IF(C6&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Keyboard" },  // #4 </v>
+      </c>
+      <c r="J6" s="18" t="str">
+        <f>CONCATENATE("  ",D6,", // #",A6," = ",B6,IF(C6&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #4 = Keyboard</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f>CONCATENATE("  ",E6,", // #",A6," = ",B6,IF(C6&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #4 = Keyboard</v>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f>CONCATENATE("  ",F6,", // #",A6," = ",B6,IF(C6&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #4 = Keyboard</v>
+      </c>
+      <c r="M6" s="18" t="str">
+        <f>CONCATENATE("  ",C6,", // #",A6," = ",B6,IF(C6&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  33, // #4 = Keyboard</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>m_pitchwheel_pot</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  m_pitchwheel_pot, // #5 = Pitchwheel Pot</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "Pitchwheel Pot" },  // #5 </v>
+      </c>
+      <c r="J7" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  -1, // #5 = Pitchwheel Pot</v>
+      </c>
+      <c r="K7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  31, // #5 = Pitchwheel Pot</v>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  -1, // #5 = Pitchwheel Pot</v>
+      </c>
+      <c r="M7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  0, // #5 = Pitchwheel Pot</v>
+      </c>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  m_end, // #6 = MainMenuEnd</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  { "MainMenuEnd" },  // #6 </v>
+      </c>
+      <c r="J8" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  0, // #6 = MainMenuEnd</v>
+      </c>
+      <c r="K8" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  0, // #6 = MainMenuEnd</v>
+      </c>
+      <c r="L8" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  0, // #6 = MainMenuEnd</v>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  0, // #6 = MainMenuEnd</v>
+      </c>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>127</v>
+      </c>
+      <c r="F9" s="12">
+        <v>127</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B9,"/","")," ","_")))</f>
+        <v>m_upper_db_16</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <f t="shared" ref="H9" si="8">CONCATENATE("  ",G9,", // #",A9," = ",B9,IF(C9&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_upper_db_16, // #7 = Upper DB 16</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" ref="I9" si="9">CONCATENATE("  { """,B9,""" },  // #",A9," ",IF(C9&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Upper DB 16" },  // #7 </v>
+      </c>
+      <c r="J9" s="18" t="str">
+        <f t="shared" ref="J9" si="10">CONCATENATE("  ",D9,", // #",A9," = ",B9,IF(C9&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #7 = Upper DB 16</v>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f t="shared" ref="K9" si="11">CONCATENATE("  ",E9,", // #",A9," = ",B9,IF(C9&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #7 = Upper DB 16</v>
+      </c>
+      <c r="L9" s="18" t="str">
+        <f t="shared" ref="L9" si="12">CONCATENATE("  ",F9,", // #",A9," = ",B9,IF(C9&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #7 = Upper DB 16</v>
+      </c>
+      <c r="M9" s="18" t="str">
+        <f t="shared" ref="M9" si="13">CONCATENATE("  ",C9,", // #",A9," = ",B9,IF(C9&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #7 = Upper DB 16</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>127</v>
+      </c>
+      <c r="F10" s="12">
+        <v>127</v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f t="shared" ref="G10:G17" si="14">CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B10,"/","")," ","_")))</f>
+        <v>m_upper_db_5_13</v>
+      </c>
+      <c r="H10" s="18" t="str">
+        <f t="shared" ref="H10:H17" si="15">CONCATENATE("  ",G10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_upper_db_5_13, // #8 = Upper DB 5 1/3</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" ref="I10:I17" si="16">CONCATENATE("  { """,B10,""" },  // #",A10," ",IF(C10&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Upper DB 5 1/3" },  // #8 </v>
+      </c>
+      <c r="J10" s="18" t="str">
+        <f t="shared" ref="J10:J17" si="17">CONCATENATE("  ",D10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #8 = Upper DB 5 1/3</v>
+      </c>
+      <c r="K10" s="18" t="str">
+        <f t="shared" ref="K10:K17" si="18">CONCATENATE("  ",E10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #8 = Upper DB 5 1/3</v>
+      </c>
+      <c r="L10" s="18" t="str">
+        <f t="shared" ref="L10:L17" si="19">CONCATENATE("  ",F10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  127, // #8 = Upper DB 5 1/3</v>
+      </c>
+      <c r="M10" s="18" t="str">
+        <f t="shared" ref="M10:M17" si="20">CONCATENATE("  ",C10,", // #",A10," = ",B10,IF(C10&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #8 = Upper DB 5 1/3</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>127</v>
+      </c>
+      <c r="F11" s="12">
+        <v>127</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_8</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_8, // #9 = Upper DB 8</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 8" },  // #9 </v>
+      </c>
+      <c r="J11" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #9 = Upper DB 8</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #9 = Upper DB 8</v>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  127, // #9 = Upper DB 8</v>
+      </c>
+      <c r="M11" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #9 = Upper DB 8</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>127</v>
+      </c>
+      <c r="F12" s="12">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_4</v>
+      </c>
+      <c r="H12" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_4, // #10 = Upper DB 4</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 4" },  // #10 </v>
+      </c>
+      <c r="J12" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #10 = Upper DB 4</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #10 = Upper DB 4</v>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  50, // #10 = Upper DB 4</v>
+      </c>
+      <c r="M12" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #10 = Upper DB 4</v>
+      </c>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>127</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_2_23</v>
+      </c>
+      <c r="H13" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_2_23, // #11 = Upper DB 2 2/3</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 2 2/3" },  // #11 </v>
+      </c>
+      <c r="J13" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #11 = Upper DB 2 2/3</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #11 = Upper DB 2 2/3</v>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  0, // #11 = Upper DB 2 2/3</v>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #11 = Upper DB 2 2/3</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>127</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_2</v>
+      </c>
+      <c r="H14" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_2, // #12 = Upper DB 2</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 2" },  // #12 </v>
+      </c>
+      <c r="J14" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #12 = Upper DB 2</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #12 = Upper DB 2</v>
+      </c>
+      <c r="L14" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  0, // #12 = Upper DB 2</v>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #12 = Upper DB 2</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>127</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_1_35</v>
+      </c>
+      <c r="H15" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_1_35, // #13 = Upper DB 1 3/5</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 1 3/5" },  // #13 </v>
+      </c>
+      <c r="J15" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #13 = Upper DB 1 3/5</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #13 = Upper DB 1 3/5</v>
+      </c>
+      <c r="L15" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  0, // #13 = Upper DB 1 3/5</v>
+      </c>
+      <c r="M15" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #13 = Upper DB 1 3/5</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>127</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_1_13</v>
+      </c>
+      <c r="H16" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_1_13, // #14 = Upper DB 1 1/3</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 1 1/3" },  // #14 </v>
+      </c>
+      <c r="J16" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #14 = Upper DB 1 1/3</v>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #14 = Upper DB 1 1/3</v>
+      </c>
+      <c r="L16" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  0, // #14 = Upper DB 1 1/3</v>
+      </c>
+      <c r="M16" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #14 = Upper DB 1 1/3</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>127</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>m_upper_db_1</v>
+      </c>
+      <c r="H17" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  m_upper_db_1, // #15 = Upper DB 1</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  { "Upper DB 1" },  // #15 </v>
+      </c>
+      <c r="J17" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  0, // #15 = Upper DB 1</v>
+      </c>
+      <c r="K17" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  127, // #15 = Upper DB 1</v>
+      </c>
+      <c r="L17" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  0, // #15 = Upper DB 1</v>
+      </c>
+      <c r="M17" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  0, // #15 = Upper DB 1</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26" t="str">
+        <f>CONCATENATE("m_back_",A18)</f>
+        <v>m_back_16</v>
+      </c>
+      <c r="H18" s="26" t="str">
+        <f t="shared" ref="H18:H27" si="21">CONCATENATE("  ",G18,", // #",A18," = ",B18,IF(C18&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_back_16, // #16 = Upper DB EXIT </v>
+      </c>
+      <c r="I18" s="22" t="str">
+        <f t="shared" ref="I18:I27" si="22">CONCATENATE("  { """,B18,""" },  // #",A18," ",IF(C18&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Upper DB" },  // #16  EXIT SUBM</v>
+      </c>
+      <c r="J18" s="26" t="str">
+        <f t="shared" ref="J18:J27" si="23">CONCATENATE("  ",D18,", // #",A18," = ",B18,IF(C18&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #16 = Upper DB EXIT </v>
+      </c>
+      <c r="K18" s="26" t="str">
+        <f t="shared" ref="K18:K27" si="24">CONCATENATE("  ",E18,", // #",A18," = ",B18,IF(C18&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #16 = Upper DB EXIT </v>
+      </c>
+      <c r="L18" s="26" t="str">
+        <f t="shared" ref="L18:L27" si="25">CONCATENATE("  ",F18,", // #",A18," = ",B18,IF(C18&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #16 = Upper DB EXIT </v>
+      </c>
+      <c r="M18" s="26" t="str">
+        <f t="shared" ref="M18:M27" si="26">CONCATENATE("  ",C18,", // #",A18," = ",B18,IF(C18&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #16 = Upper DB EXIT </v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>127</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B19,"/","")," ","_")))</f>
+        <v>m_lower_db_16</v>
+      </c>
+      <c r="H19" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_16, // #17 = Lower DB 16</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 16" },  // #17 </v>
+      </c>
+      <c r="J19" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #17 = Lower DB 16</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #17 = Lower DB 16</v>
+      </c>
+      <c r="L19" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  0, // #17 = Lower DB 16</v>
+      </c>
+      <c r="M19" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #17 = Lower DB 16</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>127</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="str">
+        <f t="shared" ref="G20:G27" si="27">CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B20,"/","")," ","_")))</f>
+        <v>m_lower_db_5_13</v>
+      </c>
+      <c r="H20" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_5_13, // #18 = Lower DB 5 1/3</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 5 1/3" },  // #18 </v>
+      </c>
+      <c r="J20" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #18 = Lower DB 5 1/3</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #18 = Lower DB 5 1/3</v>
+      </c>
+      <c r="L20" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  0, // #18 = Lower DB 5 1/3</v>
+      </c>
+      <c r="M20" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #18 = Lower DB 5 1/3</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>127</v>
+      </c>
+      <c r="F21" s="12">
+        <v>127</v>
+      </c>
+      <c r="G21" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_8</v>
+      </c>
+      <c r="H21" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_8, // #19 = Lower DB 8</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 8" },  // #19 </v>
+      </c>
+      <c r="J21" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #19 = Lower DB 8</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #19 = Lower DB 8</v>
+      </c>
+      <c r="L21" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  127, // #19 = Lower DB 8</v>
+      </c>
+      <c r="M21" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #19 = Lower DB 8</v>
+      </c>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>127</v>
+      </c>
+      <c r="F22" s="12">
+        <v>127</v>
+      </c>
+      <c r="G22" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_4</v>
+      </c>
+      <c r="H22" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_4, // #20 = Lower DB 4</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 4" },  // #20 </v>
+      </c>
+      <c r="J22" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #20 = Lower DB 4</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #20 = Lower DB 4</v>
+      </c>
+      <c r="L22" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  127, // #20 = Lower DB 4</v>
+      </c>
+      <c r="M22" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #20 = Lower DB 4</v>
+      </c>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>127</v>
+      </c>
+      <c r="F23" s="12">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_2_23</v>
+      </c>
+      <c r="H23" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_2_23, // #21 = Lower DB 2 2/3</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 2 2/3" },  // #21 </v>
+      </c>
+      <c r="J23" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #21 = Lower DB 2 2/3</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #21 = Lower DB 2 2/3</v>
+      </c>
+      <c r="L23" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  40, // #21 = Lower DB 2 2/3</v>
+      </c>
+      <c r="M23" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #21 = Lower DB 2 2/3</v>
+      </c>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>127</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_2</v>
+      </c>
+      <c r="H24" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_2, // #22 = Lower DB 2</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 2" },  // #22 </v>
+      </c>
+      <c r="J24" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #22 = Lower DB 2</v>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #22 = Lower DB 2</v>
+      </c>
+      <c r="L24" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  0, // #22 = Lower DB 2</v>
+      </c>
+      <c r="M24" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #22 = Lower DB 2</v>
+      </c>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>127</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_1_35</v>
+      </c>
+      <c r="H25" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_1_35, // #23 = Lower DB 1 3/5</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 1 3/5" },  // #23 </v>
+      </c>
+      <c r="J25" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #23 = Lower DB 1 3/5</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #23 = Lower DB 1 3/5</v>
+      </c>
+      <c r="L25" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  0, // #23 = Lower DB 1 3/5</v>
+      </c>
+      <c r="M25" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #23 = Lower DB 1 3/5</v>
+      </c>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>127</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_1_13</v>
+      </c>
+      <c r="H26" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_1_13, // #24 = Lower DB 1 1/3</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 1 1/3" },  // #24 </v>
+      </c>
+      <c r="J26" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #24 = Lower DB 1 1/3</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #24 = Lower DB 1 1/3</v>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  0, // #24 = Lower DB 1 1/3</v>
+      </c>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #24 = Lower DB 1 1/3</v>
+      </c>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>127</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>m_lower_db_1</v>
+      </c>
+      <c r="H27" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  m_lower_db_1, // #25 = Lower DB 1</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  { "Lower DB 1" },  // #25 </v>
+      </c>
+      <c r="J27" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  0, // #25 = Lower DB 1</v>
+      </c>
+      <c r="K27" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  127, // #25 = Lower DB 1</v>
+      </c>
+      <c r="L27" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  0, // #25 = Lower DB 1</v>
+      </c>
+      <c r="M27" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  0, // #25 = Lower DB 1</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="26" t="str">
+        <f>CONCATENATE("m_back_",A28)</f>
+        <v>m_back_26</v>
+      </c>
+      <c r="H28" s="26" t="str">
+        <f t="shared" ref="H28:H30" si="28">CONCATENATE("  ",G28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_back_26, // #26 = Lower DB EXIT </v>
+      </c>
+      <c r="I28" s="22" t="str">
+        <f t="shared" ref="I28:I30" si="29">CONCATENATE("  { """,B28,""" },  // #",A28," ",IF(C28&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Lower DB" },  // #26  EXIT SUBM</v>
+      </c>
+      <c r="J28" s="26" t="str">
+        <f t="shared" ref="J28:J30" si="30">CONCATENATE("  ",D28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #26 = Lower DB EXIT </v>
+      </c>
+      <c r="K28" s="26" t="str">
+        <f t="shared" ref="K28:K30" si="31">CONCATENATE("  ",E28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #26 = Lower DB EXIT </v>
+      </c>
+      <c r="L28" s="26" t="str">
+        <f t="shared" ref="L28:L30" si="32">CONCATENATE("  ",F28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #26 = Lower DB EXIT </v>
+      </c>
+      <c r="M28" s="26" t="str">
+        <f t="shared" ref="M28:M30" si="33">CONCATENATE("  ",C28,", // #",A28," = ",B28,IF(C28&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #26 = Lower DB EXIT </v>
+      </c>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>127</v>
+      </c>
+      <c r="F29" s="12">
+        <v>127</v>
+      </c>
+      <c r="G29" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B29,"/","")," ","_")))</f>
+        <v>m_pedal_db_16</v>
+      </c>
+      <c r="H29" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  m_pedal_db_16, // #27 = Pedal DB 16</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  { "Pedal DB 16" },  // #27 </v>
+      </c>
+      <c r="J29" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #27 = Pedal DB 16</v>
+      </c>
+      <c r="K29" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  127, // #27 = Pedal DB 16</v>
+      </c>
+      <c r="L29" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  127, // #27 = Pedal DB 16</v>
+      </c>
+      <c r="M29" s="18" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  0, // #27 = Pedal DB 16</v>
+      </c>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>127</v>
+      </c>
+      <c r="F30" s="12">
+        <v>60</v>
+      </c>
+      <c r="G30" s="12" t="str">
+        <f t="shared" ref="G30" si="34">CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B30,"/","")," ","_")))</f>
+        <v>m_pedal_db_8</v>
+      </c>
+      <c r="H30" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  m_pedal_db_8, // #28 = Pedal DB 8</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  { "Pedal DB 8" },  // #28 </v>
+      </c>
+      <c r="J30" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  0, // #28 = Pedal DB 8</v>
+      </c>
+      <c r="K30" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  127, // #28 = Pedal DB 8</v>
+      </c>
+      <c r="L30" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  60, // #28 = Pedal DB 8</v>
+      </c>
+      <c r="M30" s="18" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  0, // #28 = Pedal DB 8</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="26" t="str">
+        <f>CONCATENATE("m_back_",A31)</f>
+        <v>m_back_29</v>
+      </c>
+      <c r="H31" s="26" t="str">
+        <f t="shared" ref="H31:H33" si="35">CONCATENATE("  ",G31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_back_29, // #29 = Pedal DB EXIT </v>
+      </c>
+      <c r="I31" s="22" t="str">
+        <f t="shared" ref="I31:I33" si="36">CONCATENATE("  { """,B31,""" },  // #",A31," ",IF(C31&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Pedal DB" },  // #29  EXIT SUBM</v>
+      </c>
+      <c r="J31" s="26" t="str">
+        <f t="shared" ref="J31:J33" si="37">CONCATENATE("  ",D31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #29 = Pedal DB EXIT </v>
+      </c>
+      <c r="K31" s="26" t="str">
+        <f t="shared" ref="K31:K33" si="38">CONCATENATE("  ",E31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #29 = Pedal DB EXIT </v>
+      </c>
+      <c r="L31" s="26" t="str">
+        <f t="shared" ref="L31:L33" si="39">CONCATENATE("  ",F31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #29 = Pedal DB EXIT </v>
+      </c>
+      <c r="M31" s="26" t="str">
+        <f t="shared" ref="M31:M33" si="40">CONCATENATE("  ",C31,", // #",A31," = ",B31,IF(C31&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #29 = Pedal DB EXIT </v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>127</v>
+      </c>
+      <c r="F32" s="12">
+        <v>127</v>
+      </c>
+      <c r="G32" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B32,"/","")," ","_")))</f>
+        <v>m_master_volume</v>
+      </c>
+      <c r="H32" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">  m_master_volume, // #30 = Master Volume</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">  { "Master Volume" },  // #30 </v>
+      </c>
+      <c r="J32" s="18" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  0, // #30 = Master Volume</v>
+      </c>
+      <c r="K32" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  127, // #30 = Master Volume</v>
+      </c>
+      <c r="L32" s="18" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  127, // #30 = Master Volume</v>
+      </c>
+      <c r="M32" s="18" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  0, // #30 = Master Volume</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>127</v>
+      </c>
+      <c r="F33" s="12">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12" t="str">
+        <f t="shared" ref="G33" si="41">CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B33,"/","")," ","_")))</f>
+        <v>m_amp_gain</v>
+      </c>
+      <c r="H33" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">  m_amp_gain, // #31 = Amp Gain</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">  { "Amp Gain" },  // #31 </v>
+      </c>
+      <c r="J33" s="18" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  0, // #31 = Amp Gain</v>
+      </c>
+      <c r="K33" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  127, // #31 = Amp Gain</v>
+      </c>
+      <c r="L33" s="18" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  40, // #31 = Amp Gain</v>
+      </c>
+      <c r="M33" s="18" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  0, // #31 = Amp Gain</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="26" t="str">
+        <f>CONCATENATE("m_back_",A34)</f>
+        <v>m_back_32</v>
+      </c>
+      <c r="H34" s="26" t="str">
+        <f t="shared" ref="H34" si="42">CONCATENATE("  ",G34,", // #",A34," = ",B34,IF(C34&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_back_32, // #32 = Volumes EXIT </v>
+      </c>
+      <c r="I34" s="22" t="str">
+        <f t="shared" ref="I34" si="43">CONCATENATE("  { """,B34,""" },  // #",A34," ",IF(C34&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Volumes" },  // #32  EXIT SUBM</v>
+      </c>
+      <c r="J34" s="26" t="str">
+        <f t="shared" ref="J34" si="44">CONCATENATE("  ",D34,", // #",A34," = ",B34,IF(C34&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #32 = Volumes EXIT </v>
+      </c>
+      <c r="K34" s="26" t="str">
+        <f t="shared" ref="K34" si="45">CONCATENATE("  ",E34,", // #",A34," = ",B34,IF(C34&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #32 = Volumes EXIT </v>
+      </c>
+      <c r="L34" s="26" t="str">
+        <f t="shared" ref="L34" si="46">CONCATENATE("  ",F34,", // #",A34," = ",B34,IF(C34&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #32 = Volumes EXIT </v>
+      </c>
+      <c r="M34" s="26" t="str">
+        <f t="shared" ref="M34" si="47">CONCATENATE("  ",C34,", // #",A34," = ",B34,IF(C34&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  -1, // #32 = Volumes EXIT </v>
+      </c>
+      <c r="N34" s="12"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="12" t="str">
+        <f>CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B35,"/","")," ","_")))</f>
+        <v>m_kbd_driver</v>
+      </c>
+      <c r="H35" s="18" t="str">
+        <f t="shared" ref="H35:H42" si="48">CONCATENATE("  ",G35,", // #",A35," = ",B35,IF(C35&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  m_kbd_driver, // #33 = Kbd Driver</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" ref="I35:I42" si="49">CONCATENATE("  { """,B35,""" },  // #",A35," ",IF(C35&lt;0," EXIT SUBM",""))</f>
+        <v xml:space="preserve">  { "Kbd Driver" },  // #33 </v>
+      </c>
+      <c r="J35" s="18" t="str">
+        <f t="shared" ref="J35:J42" si="50">CONCATENATE("  ",D35,", // #",A35," = ",B35,IF(C35&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #33 = Kbd Driver</v>
+      </c>
+      <c r="K35" s="18" t="str">
+        <f t="shared" ref="K35:K42" si="51">CONCATENATE("  ",E35,", // #",A35," = ",B35,IF(C35&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  drv_custom, // #33 = Kbd Driver</v>
+      </c>
+      <c r="L35" s="18" t="str">
+        <f t="shared" ref="L35:L42" si="52">CONCATENATE("  ",F35,", // #",A35," = ",B35,IF(C35&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  drv_fatar1, // #33 = Kbd Driver</v>
+      </c>
+      <c r="M35" s="18" t="str">
+        <f t="shared" ref="M35:M42" si="53">CONCATENATE("  ",C35,", // #",A35," = ",B35,IF(C35&lt;0," EXIT ",""))</f>
+        <v xml:space="preserve">  0, // #33 = Kbd Driver</v>
+      </c>
+      <c r="N35" s="12"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f>A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="12" t="str">
+        <f t="shared" ref="G36:G41" si="54">CONCATENATE("m_",LOWER(SUBSTITUTE(SUBSTITUTE(B36,"/","")," ","_")))</f>
+        <v>m_velocity_min</v>
+      </c>
+      <c r="H36" s="18" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_velocity_min, // #34 = Velocity Min</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "Velocity Min" },  // #34 </v>
+      </c>
+      <c r="J36" s="18" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  1, // #34 = Velocity Min</v>
+      </c>
+      <c r="K36" s="18" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  40, // #34 = Velocity Min</v>
+      </c>
+      <c r="L36" s="18" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  MIDI_MINDYN, // #34 = Velocity Min</v>
+      </c>
+      <c r="M36" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  0, // #34 = Velocity Min</v>
+      </c>
+      <c r="N36" s="12"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f>A36+1</f>
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>m_velocity_maxadj</v>
+      </c>
+      <c r="H37" s="18" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_velocity_maxadj, // #35 = Velocity MaxAdj</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "Velocity MaxAdj" },  // #35 </v>
+      </c>
+      <c r="J37" s="18" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  1, // #35 = Velocity MaxAdj</v>
+      </c>
+      <c r="K37" s="18" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  40, // #35 = Velocity MaxAdj</v>
+      </c>
+      <c r="L37" s="18" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  MIDI_MAXDYNADJ, // #35 = Velocity MaxAdj</v>
+      </c>
+      <c r="M37" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  0, // #35 = Velocity MaxAdj</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f>A37+1</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>m_velocity_slope</v>
+      </c>
+      <c r="H38" s="18" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_velocity_slope, // #36 = Velocity Slope</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "Velocity Slope" },  // #36 </v>
+      </c>
+      <c r="J38" s="18" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  1, // #36 = Velocity Slope</v>
+      </c>
+      <c r="K38" s="18" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  30, // #36 = Velocity Slope</v>
+      </c>
+      <c r="L38" s="18" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  MIDI_DYNSLOPE, // #36 = Velocity Slope</v>
+      </c>
+      <c r="M38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  0, // #36 = Velocity Slope</v>
+      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>A38+1</f>
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>m_upper_base</v>
+      </c>
+      <c r="H39" s="18" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_upper_base, // #37 = Upper Base</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "Upper Base" },  // #37 </v>
+      </c>
+      <c r="J39" s="18" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  12, // #37 = Upper Base</v>
+      </c>
+      <c r="K39" s="18" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  60, // #37 = Upper Base</v>
+      </c>
+      <c r="L39" s="18" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  MIDI_BASE_UPR, // #37 = Upper Base</v>
+      </c>
+      <c r="M39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  0, // #37 = Upper Base</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f>A39+1</f>
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>m_lower_base</v>
+      </c>
+      <c r="H40" s="18" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_lower_base, // #38 = Lower Base</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "Lower Base" },  // #38 </v>
+      </c>
+      <c r="J40" s="18" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  12, // #38 = Lower Base</v>
+      </c>
+      <c r="K40" s="18" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  60, // #38 = Lower Base</v>
+      </c>
+      <c r="L40" s="18" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  MIDI_BASE_LWR, // #38 = Lower Base</v>
+      </c>
+      <c r="M40" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  0, // #38 = Lower Base</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f>A40+1</f>
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1">
+        <v>60</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>m_pedal_base</v>
+      </c>
+      <c r="H41" s="18" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_pedal_base, // #39 = Pedal Base</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "Pedal Base" },  // #39 </v>
+      </c>
+      <c r="J41" s="18" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  12, // #39 = Pedal Base</v>
+      </c>
+      <c r="K41" s="18" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  60, // #39 = Pedal Base</v>
+      </c>
+      <c r="L41" s="18" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  MIDI_BASE_PED, // #39 = Pedal Base</v>
+      </c>
+      <c r="M41" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  0, // #39 = Pedal Base</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f>A41+1</f>
+        <v>40</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0</v>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f>CONCATENATE("m_back_",A42)</f>
+        <v>m_back_40</v>
+      </c>
+      <c r="H42" s="26" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  m_back_40, // #40 = (Keyboard) EXIT </v>
+      </c>
+      <c r="I42" s="22" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  { "(Keyboard)" },  // #40  EXIT SUBM</v>
+      </c>
+      <c r="J42" s="26" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  0, // #40 = (Keyboard) EXIT </v>
+      </c>
+      <c r="K42" s="26" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  0, // #40 = (Keyboard) EXIT </v>
+      </c>
+      <c r="L42" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  0, // #40 = (Keyboard) EXIT </v>
+      </c>
+      <c r="M42" s="26" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  -1, // #40 = (Keyboard) EXIT </v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/MIDI_menuItems.xlsx
+++ b/docs/MIDI_menuItems.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
   <si>
     <t>Index #</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>setBtnMode</t>
+  </si>
+  <si>
+    <t>Swell CC</t>
   </si>
 </sst>
 </file>
@@ -1407,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A54" si="1">A2+1</f>
+        <f t="shared" ref="A3:A55" si="1">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1554,27 +1557,27 @@
         <v>97</v>
       </c>
       <c r="I3" s="43" t="str">
-        <f t="shared" ref="I3:I54" si="2">CONCATENATE("""",B3,""", ")</f>
+        <f t="shared" ref="I3:I55" si="2">CONCATENATE("""",B3,""", ")</f>
         <v xml:space="preserve">"Lower Channel", </v>
       </c>
       <c r="J3" s="44" t="str">
-        <f t="shared" ref="J3:J54" si="3">IF(G3="NULL",CONCATENATE(G3,", "),CONCATENATE("&amp;",G3,", "))</f>
+        <f t="shared" ref="J3:J55" si="3">IF(G3="NULL",CONCATENATE(G3,", "),CONCATENATE("&amp;",G3,", "))</f>
         <v xml:space="preserve">&amp;MenuValues[1], </v>
       </c>
       <c r="K3" s="44" t="str">
-        <f t="shared" ref="K3:K54" si="4">IF(H3="NULL",CONCATENATE(H3,", "),CONCATENATE("&amp;",H3,", "))</f>
+        <f t="shared" ref="K3:K55" si="4">IF(H3="NULL",CONCATENATE(H3,", "),CONCATENATE("&amp;",H3,", "))</f>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L3" s="40" t="str">
-        <f>CONCATENATE("  {",I3,C3,", ",J3,K3,D3,", ",E3,"},")</f>
+        <f t="shared" ref="L3:L35" si="5">CONCATENATE("  {",I3,C3,", ",J3,K3,D3,", ",E3,"},")</f>
         <v xml:space="preserve">  {"Lower Channel", m_lower_ch, &amp;MenuValues[1], NULL, 1, 16},</v>
       </c>
       <c r="M3" s="76" t="str">
-        <f t="shared" ref="M3:M54" si="5" xml:space="preserve"> CONCATENATE("  ",F3,",  // ",B3)</f>
+        <f t="shared" ref="M3:M55" si="6" xml:space="preserve"> CONCATENATE("  ",F3,",  // ",B3)</f>
         <v xml:space="preserve">  2,  // Lower Channel</v>
       </c>
       <c r="N3" s="53" t="str">
-        <f t="shared" ref="N3:N11" si="6">CONCATENATE("  ",C3,",")</f>
+        <f t="shared" ref="N3:N12" si="7">CONCATENATE("  ",C3,",")</f>
         <v xml:space="preserve">  m_lower_ch,</v>
       </c>
     </row>
@@ -1618,33 +1621,33 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L4" s="40" t="str">
-        <f>CONCATENATE("  {",I4,C4,", ",J4,K4,D4,", ",E4,"},")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  {"Pedal Channel", m_pedal_ch, &amp;MenuValues[2], NULL, 1, 16},</v>
       </c>
       <c r="M4" s="76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">  3,  // Pedal Channel</v>
       </c>
       <c r="N4" s="53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">  m_pedal_ch,</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
+      <c r="B5" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="20">
         <v>-1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="20">
         <v>127</v>
       </c>
       <c r="F5" s="20">
@@ -1658,28 +1661,28 @@
         <v>97</v>
       </c>
       <c r="I5" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pitchwheel Pot", </v>
+        <f t="shared" ref="I5" si="8">CONCATENATE("""",B5,""", ")</f>
+        <v xml:space="preserve">"Swell CC", </v>
       </c>
       <c r="J5" s="44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J5" si="9">IF(G5="NULL",CONCATENATE(G5,", "),CONCATENATE("&amp;",G5,", "))</f>
         <v xml:space="preserve">&amp;MenuValues[3], </v>
       </c>
       <c r="K5" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5" si="10">IF(H5="NULL",CONCATENATE(H5,", "),CONCATENATE("&amp;",H5,", "))</f>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L5" s="40" t="str">
-        <f>CONCATENATE("  {",I5,C5,", ",J5,K5,D5,", ",E5,"},")</f>
-        <v xml:space="preserve">  {"Pitchwheel Pot", m_pitchwheel, &amp;MenuValues[3], NULL, -1, 127},</v>
+        <f t="shared" ref="L5" si="11">CONCATENATE("  {",I5,C5,", ",J5,K5,D5,", ",E5,"},")</f>
+        <v xml:space="preserve">  {"Swell CC", m_swell, &amp;MenuValues[3], NULL, -1, 127},</v>
       </c>
       <c r="M5" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Pitchwheel Pot</v>
+        <f t="shared" ref="M5" si="12" xml:space="preserve"> CONCATENATE("  ",F5,",  // ",B5)</f>
+        <v xml:space="preserve">  -1,  // Swell CC</v>
       </c>
       <c r="N5" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  m_pitchwheel,</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  m_swell,</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1688,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D6" s="20">
         <v>-1</v>
@@ -1711,78 +1714,79 @@
       </c>
       <c r="I6" s="43" t="str">
         <f t="shared" si="2"/>
+        <v xml:space="preserve">"Pitchwheel Pot", </v>
+      </c>
+      <c r="J6" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">&amp;MenuValues[4], </v>
+      </c>
+      <c r="K6" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L6" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Pitchwheel Pot", m_pitchwheel, &amp;MenuValues[4], NULL, -1, 127},</v>
+      </c>
+      <c r="M6" s="76" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Pitchwheel Pot</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f>CONCATENATE("  ",C6,",")</f>
+        <v xml:space="preserve">  m_pitchwheel,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>127</v>
+      </c>
+      <c r="F7" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="29" t="str">
+        <f>CONCATENATE("MenuValues[",A7,"]")</f>
+        <v>MenuValues[5]</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">"Modulation Pot", </v>
       </c>
-      <c r="J6" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[4], </v>
-      </c>
-      <c r="K6" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L6" s="40" t="str">
-        <f>CONCATENATE("  {",I6,C6,", ",J6,K6,D6,", ",E6,"},")</f>
-        <v xml:space="preserve">  {"Modulation Pot", m_mod_pot, &amp;MenuValues[4], NULL, -1, 127},</v>
-      </c>
-      <c r="M6" s="76" t="str">
+      <c r="J7" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">&amp;MenuValues[5], </v>
+      </c>
+      <c r="K7" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L7" s="40" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Modulation Pot", m_mod_pot, &amp;MenuValues[5], NULL, -1, 127},</v>
+      </c>
+      <c r="M7" s="76" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">  -1,  // Modulation Pot</v>
       </c>
-      <c r="N6" s="53" t="str">
-        <f t="shared" si="6"/>
+      <c r="N7" s="53" t="str">
+        <f>CONCATENATE("  ",C7,",")</f>
         <v xml:space="preserve">  m_mod_pot,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">"Keyboard", </v>
-      </c>
-      <c r="J7" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="K7" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L7" s="40" t="str">
-        <f>CONCATENATE("  {",I7,C7,", ",J7,K7,D7,", ",E7,"},")</f>
-        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, NULL, NULL, -1, -1},</v>
-      </c>
-      <c r="M7" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Keyboard</v>
-      </c>
-      <c r="N7" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  m_kbd_driver,</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1791,10 +1795,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D8" s="20">
         <v>-1</v>
@@ -1813,7 +1817,7 @@
       </c>
       <c r="I8" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot Assign", </v>
+        <v xml:space="preserve">"Keyboard", </v>
       </c>
       <c r="J8" s="44" t="str">
         <f t="shared" si="3"/>
@@ -1824,16 +1828,16 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L8" s="40" t="str">
-        <f>CONCATENATE("  {",I8,C8,", ",J8,K8,D8,", ",E8,"},")</f>
-        <v xml:space="preserve">  {"Pot Assign", m_pot_assign, NULL, NULL, -1, -1},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M8" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Pot Assign</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Keyboard</v>
       </c>
       <c r="N8" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  m_pot_assign,</v>
+        <f>CONCATENATE("  ",C8,",")</f>
+        <v xml:space="preserve">  m_kbd_driver,</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1846,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="20">
         <v>-1</v>
@@ -1864,7 +1868,7 @@
       </c>
       <c r="I9" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Button Assign", </v>
+        <v xml:space="preserve">"Pot Assign", </v>
       </c>
       <c r="J9" s="44" t="str">
         <f t="shared" si="3"/>
@@ -1875,16 +1879,16 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L9" s="40" t="str">
-        <f>CONCATENATE("  {",I9,C9,", ",J9,K9,D9,", ",E9,"},")</f>
-        <v xml:space="preserve">  {"Button Assign", m_btn_assign, NULL, NULL, -1, -1},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Pot Assign", m_pot_assign, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M9" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Button Assign</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Pot Assign</v>
       </c>
       <c r="N9" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  m_btn_assign,</v>
+        <f>CONCATENATE("  ",C9,",")</f>
+        <v xml:space="preserve">  m_pot_assign,</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1893,100 +1897,100 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">"Button Assign", </v>
+      </c>
+      <c r="J10" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="K10" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L10" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Button Assign", m_btn_assign, NULL, NULL, -1, -1},</v>
+      </c>
+      <c r="M10" s="76" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Button Assign</v>
+      </c>
+      <c r="N10" s="53" t="str">
+        <f>CONCATENATE("  ",C10,",")</f>
+        <v xml:space="preserve">  m_btn_assign,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="20">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="43" t="str">
+      <c r="D11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="43" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">"Button Mode", </v>
       </c>
-      <c r="J10" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="K10" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L10" s="40" t="str">
-        <f>CONCATENATE("  {",I10,C10,", ",J10,K10,D10,", ",E10,"},")</f>
+      <c r="J11" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="K11" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L11" s="40" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  {"Button Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
       </c>
-      <c r="M10" s="76" t="str">
-        <f t="shared" si="5"/>
+      <c r="M11" s="76" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">  -1,  // Button Mode</v>
       </c>
-      <c r="N10" s="53" t="str">
-        <f t="shared" si="6"/>
+      <c r="N11" s="53" t="str">
+        <f>CONCATENATE("  ",C11,",")</f>
         <v xml:space="preserve">  m_btn_mode,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="20">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">"End", </v>
-      </c>
-      <c r="J11" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="K11" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L11" s="40" t="str">
-        <f>CONCATENATE("  {",I11,C11,", ",J11,K11,D11,", ",E11,"},")</f>
-        <v xml:space="preserve">  {"End", m_main_end, NULL, NULL, -1, -1},</v>
-      </c>
-      <c r="M11" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // End</v>
-      </c>
-      <c r="N11" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  m_main_end,</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1994,50 +1998,50 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20">
         <v>-1</v>
       </c>
-      <c r="E12" s="20">
-        <v>127</v>
+      <c r="E12" s="1">
+        <v>-1</v>
       </c>
       <c r="F12" s="20">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A12,"]")</f>
-        <v>MenuValues[10]</v>
+      <c r="G12" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 1 CC", </v>
+        <v xml:space="preserve">"End", </v>
       </c>
       <c r="J12" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[10], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K12" s="44" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L12" s="40" t="str">
-        <f>CONCATENATE("  {",I12,C12,", ",J12,K12,D12,", ",E12,"},")</f>
-        <v xml:space="preserve">  {"Pot 1 CC", m_pot_assign, &amp;MenuValues[10], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"End", m_main_end, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M12" s="76" t="str">
-        <f xml:space="preserve"> CONCATENATE("  ",F12,",  // ",B12)</f>
-        <v xml:space="preserve">  -1,  // Pot 1 CC</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>159</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // End</v>
+      </c>
+      <c r="N12" s="53" t="str">
+        <f>CONCATENATE("  ",C12,",")</f>
+        <v xml:space="preserve">  m_main_end,</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2045,8 +2049,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>172</v>
@@ -2069,7 +2073,7 @@
       </c>
       <c r="I13" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 2 CC", </v>
+        <v xml:space="preserve">"Pot 1 CC", </v>
       </c>
       <c r="J13" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2080,14 +2084,16 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L13" s="40" t="str">
-        <f>CONCATENATE("  {",I13,C13,", ",J13,K13,D13,", ",E13,"},")</f>
-        <v xml:space="preserve">  {"Pot 2 CC", m_pot_assign, &amp;MenuValues[11], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Pot 1 CC", m_pot_assign, &amp;MenuValues[11], NULL, -1, 127},</v>
       </c>
       <c r="M13" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Pot 2 CC</v>
-      </c>
-      <c r="N13" s="53"/>
+        <f xml:space="preserve"> CONCATENATE("  ",F13,",  // ",B13)</f>
+        <v xml:space="preserve">  -1,  // Pot 1 CC</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
@@ -2095,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>172</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="I14" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 3 CC", </v>
+        <v xml:space="preserve">"Pot 2 CC", </v>
       </c>
       <c r="J14" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2129,12 +2135,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L14" s="40" t="str">
-        <f>CONCATENATE("  {",I14,C14,", ",J14,K14,D14,", ",E14,"},")</f>
-        <v xml:space="preserve">  {"Pot 3 CC", m_pot_assign, &amp;MenuValues[12], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Pot 2 CC", m_pot_assign, &amp;MenuValues[12], NULL, -1, 127},</v>
       </c>
       <c r="M14" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Pot 3 CC</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Pot 2 CC</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2143,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>172</v>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="I15" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 4 CC", </v>
+        <v xml:space="preserve">"Pot 3 CC", </v>
       </c>
       <c r="J15" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2177,119 +2183,118 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L15" s="40" t="str">
-        <f>CONCATENATE("  {",I15,C15,", ",J15,K15,D15,", ",E15,"},")</f>
-        <v xml:space="preserve">  {"Pot 4 CC", m_pot_assign, &amp;MenuValues[13], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Pot 3 CC", m_pot_assign, &amp;MenuValues[13], NULL, -1, 127},</v>
       </c>
       <c r="M15" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Pot 4 CC</v>
-      </c>
-      <c r="N15" s="7"/>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Pot 3 CC</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>175</v>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>97</v>
+      <c r="D16" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>127</v>
+      </c>
+      <c r="F16" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="29" t="str">
+        <f>CONCATENATE("MenuValues[",A16,"]")</f>
+        <v>MenuValues[14]</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>97</v>
       </c>
       <c r="I16" s="43" t="str">
         <f t="shared" si="2"/>
+        <v xml:space="preserve">"Pot 4 CC", </v>
+      </c>
+      <c r="J16" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">&amp;MenuValues[14], </v>
+      </c>
+      <c r="K16" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L16" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Pot 4 CC", m_pot_assign, &amp;MenuValues[14], NULL, -1, 127},</v>
+      </c>
+      <c r="M16" s="76" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Pot 4 CC</v>
+      </c>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="43" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">"Pot CC", </v>
       </c>
-      <c r="J16" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="K16" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L16" s="40" t="str">
-        <f>CONCATENATE("  {",I16,C16,", ",J16,K16,D16,", ",E16,"},")</f>
+      <c r="J17" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="K17" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L17" s="40" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  {"Pot CC", m_pot_assign, NULL, NULL, -1, -1},</v>
       </c>
-      <c r="M16" s="76" t="str">
-        <f t="shared" si="5"/>
+      <c r="M17" s="76" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">  -1,  // Pot CC</v>
       </c>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="20">
-        <v>127</v>
-      </c>
-      <c r="F17" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A17,"]")</f>
-        <v>MenuValues[15]</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 1 CC/Prg", </v>
-      </c>
-      <c r="J17" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[15], </v>
-      </c>
-      <c r="K17" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L17" s="40" t="str">
-        <f>CONCATENATE("  {",I17,C17,", ",J17,K17,D17,", ",E17,"},")</f>
-        <v xml:space="preserve">  {"Btn 1 CC/Prg", m_btn_assign, &amp;MenuValues[15], NULL, -1, 127},</v>
-      </c>
-      <c r="M17" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 1 CC/Prg</v>
-      </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>173</v>
@@ -2304,7 +2309,7 @@
         <v>-1</v>
       </c>
       <c r="G18" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A18,"]")</f>
+        <f t="shared" ref="G18:G33" si="13">CONCATENATE("MenuValues[",A18,"]")</f>
         <v>MenuValues[16]</v>
       </c>
       <c r="H18" s="29" t="s">
@@ -2312,7 +2317,7 @@
       </c>
       <c r="I18" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 2 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 1 CC/Prg", </v>
       </c>
       <c r="J18" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2323,12 +2328,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L18" s="40" t="str">
-        <f>CONCATENATE("  {",I18,C18,", ",J18,K18,D18,", ",E18,"},")</f>
-        <v xml:space="preserve">  {"Btn 2 CC/Prg", m_btn_assign, &amp;MenuValues[16], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 1 CC/Prg", m_btn_assign, &amp;MenuValues[16], NULL, -1, 127},</v>
       </c>
       <c r="M18" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 2 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 1 CC/Prg</v>
       </c>
       <c r="N18" s="7"/>
     </row>
@@ -2338,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>173</v>
@@ -2353,7 +2358,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A19,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[17]</v>
       </c>
       <c r="H19" s="29" t="s">
@@ -2361,7 +2366,7 @@
       </c>
       <c r="I19" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 3 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 2 CC/Prg", </v>
       </c>
       <c r="J19" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2372,12 +2377,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L19" s="40" t="str">
-        <f>CONCATENATE("  {",I19,C19,", ",J19,K19,D19,", ",E19,"},")</f>
-        <v xml:space="preserve">  {"Btn 3 CC/Prg", m_btn_assign, &amp;MenuValues[17], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 2 CC/Prg", m_btn_assign, &amp;MenuValues[17], NULL, -1, 127},</v>
       </c>
       <c r="M19" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 3 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 2 CC/Prg</v>
       </c>
       <c r="N19" s="7"/>
     </row>
@@ -2387,7 +2392,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>173</v>
@@ -2402,7 +2407,7 @@
         <v>-1</v>
       </c>
       <c r="G20" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A20,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[18]</v>
       </c>
       <c r="H20" s="29" t="s">
@@ -2410,7 +2415,7 @@
       </c>
       <c r="I20" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 4 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 3 CC/Prg", </v>
       </c>
       <c r="J20" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2421,12 +2426,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L20" s="40" t="str">
-        <f>CONCATENATE("  {",I20,C20,", ",J20,K20,D20,", ",E20,"},")</f>
-        <v xml:space="preserve">  {"Btn 4 CC/Prg", m_btn_assign, &amp;MenuValues[18], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 3 CC/Prg", m_btn_assign, &amp;MenuValues[18], NULL, -1, 127},</v>
       </c>
       <c r="M20" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 4 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 3 CC/Prg</v>
       </c>
       <c r="N20" s="7"/>
     </row>
@@ -2436,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>173</v>
@@ -2451,7 +2456,7 @@
         <v>-1</v>
       </c>
       <c r="G21" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A21,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[19]</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -2459,7 +2464,7 @@
       </c>
       <c r="I21" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 5 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 4 CC/Prg", </v>
       </c>
       <c r="J21" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2470,12 +2475,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L21" s="40" t="str">
-        <f>CONCATENATE("  {",I21,C21,", ",J21,K21,D21,", ",E21,"},")</f>
-        <v xml:space="preserve">  {"Btn 5 CC/Prg", m_btn_assign, &amp;MenuValues[19], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 4 CC/Prg", m_btn_assign, &amp;MenuValues[19], NULL, -1, 127},</v>
       </c>
       <c r="M21" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 5 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 4 CC/Prg</v>
       </c>
       <c r="N21" s="7"/>
     </row>
@@ -2485,7 +2490,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>173</v>
@@ -2500,7 +2505,7 @@
         <v>-1</v>
       </c>
       <c r="G22" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A22,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[20]</v>
       </c>
       <c r="H22" s="29" t="s">
@@ -2508,7 +2513,7 @@
       </c>
       <c r="I22" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 6 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 5 CC/Prg", </v>
       </c>
       <c r="J22" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2519,12 +2524,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L22" s="40" t="str">
-        <f>CONCATENATE("  {",I22,C22,", ",J22,K22,D22,", ",E22,"},")</f>
-        <v xml:space="preserve">  {"Btn 6 CC/Prg", m_btn_assign, &amp;MenuValues[20], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 5 CC/Prg", m_btn_assign, &amp;MenuValues[20], NULL, -1, 127},</v>
       </c>
       <c r="M22" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 6 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 5 CC/Prg</v>
       </c>
       <c r="N22" s="7"/>
     </row>
@@ -2534,7 +2539,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>173</v>
@@ -2549,7 +2554,7 @@
         <v>-1</v>
       </c>
       <c r="G23" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A23,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[21]</v>
       </c>
       <c r="H23" s="29" t="s">
@@ -2557,7 +2562,7 @@
       </c>
       <c r="I23" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 7 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 6 CC/Prg", </v>
       </c>
       <c r="J23" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2568,12 +2573,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L23" s="40" t="str">
-        <f>CONCATENATE("  {",I23,C23,", ",J23,K23,D23,", ",E23,"},")</f>
-        <v xml:space="preserve">  {"Btn 7 CC/Prg", m_btn_assign, &amp;MenuValues[21], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 6 CC/Prg", m_btn_assign, &amp;MenuValues[21], NULL, -1, 127},</v>
       </c>
       <c r="M23" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 7 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 6 CC/Prg</v>
       </c>
       <c r="N23" s="7"/>
     </row>
@@ -2583,7 +2588,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>173</v>
@@ -2598,7 +2603,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A24,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[22]</v>
       </c>
       <c r="H24" s="29" t="s">
@@ -2606,7 +2611,7 @@
       </c>
       <c r="I24" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 8 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 7 CC/Prg", </v>
       </c>
       <c r="J24" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2617,14 +2622,14 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L24" s="40" t="str">
-        <f>CONCATENATE("  {",I24,C24,", ",J24,K24,D24,", ",E24,"},")</f>
-        <v xml:space="preserve">  {"Btn 8 CC/Prg", m_btn_assign, &amp;MenuValues[22], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 7 CC/Prg", m_btn_assign, &amp;MenuValues[22], NULL, -1, 127},</v>
       </c>
       <c r="M24" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 8 CC/Prg</v>
-      </c>
-      <c r="N24" s="11"/>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 7 CC/Prg</v>
+      </c>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
@@ -2632,7 +2637,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>173</v>
@@ -2647,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="G25" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A25,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[23]</v>
       </c>
       <c r="H25" s="29" t="s">
@@ -2655,7 +2660,7 @@
       </c>
       <c r="I25" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 9 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 8 CC/Prg", </v>
       </c>
       <c r="J25" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2666,12 +2671,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L25" s="40" t="str">
-        <f>CONCATENATE("  {",I25,C25,", ",J25,K25,D25,", ",E25,"},")</f>
-        <v xml:space="preserve">  {"Btn 9 CC/Prg", m_btn_assign, &amp;MenuValues[23], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 8 CC/Prg", m_btn_assign, &amp;MenuValues[23], NULL, -1, 127},</v>
       </c>
       <c r="M25" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 9 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 8 CC/Prg</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -2681,7 +2686,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>173</v>
@@ -2696,7 +2701,7 @@
         <v>-1</v>
       </c>
       <c r="G26" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A26,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[24]</v>
       </c>
       <c r="H26" s="29" t="s">
@@ -2704,7 +2709,7 @@
       </c>
       <c r="I26" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 10 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 9 CC/Prg", </v>
       </c>
       <c r="J26" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2715,12 +2720,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L26" s="40" t="str">
-        <f>CONCATENATE("  {",I26,C26,", ",J26,K26,D26,", ",E26,"},")</f>
-        <v xml:space="preserve">  {"Btn 10 CC/Prg", m_btn_assign, &amp;MenuValues[24], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 9 CC/Prg", m_btn_assign, &amp;MenuValues[24], NULL, -1, 127},</v>
       </c>
       <c r="M26" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 10 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 9 CC/Prg</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -2730,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>173</v>
@@ -2745,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="G27" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A27,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[25]</v>
       </c>
       <c r="H27" s="29" t="s">
@@ -2753,7 +2758,7 @@
       </c>
       <c r="I27" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 11 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 10 CC/Prg", </v>
       </c>
       <c r="J27" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2764,12 +2769,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L27" s="40" t="str">
-        <f>CONCATENATE("  {",I27,C27,", ",J27,K27,D27,", ",E27,"},")</f>
-        <v xml:space="preserve">  {"Btn 11 CC/Prg", m_btn_assign, &amp;MenuValues[25], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 10 CC/Prg", m_btn_assign, &amp;MenuValues[25], NULL, -1, 127},</v>
       </c>
       <c r="M27" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 11 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 10 CC/Prg</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -2779,7 +2784,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>173</v>
@@ -2794,7 +2799,7 @@
         <v>-1</v>
       </c>
       <c r="G28" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A28,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[26]</v>
       </c>
       <c r="H28" s="29" t="s">
@@ -2802,7 +2807,7 @@
       </c>
       <c r="I28" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 12 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 11 CC/Prg", </v>
       </c>
       <c r="J28" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2813,12 +2818,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L28" s="40" t="str">
-        <f>CONCATENATE("  {",I28,C28,", ",J28,K28,D28,", ",E28,"},")</f>
-        <v xml:space="preserve">  {"Btn 12 CC/Prg", m_btn_assign, &amp;MenuValues[26], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 11 CC/Prg", m_btn_assign, &amp;MenuValues[26], NULL, -1, 127},</v>
       </c>
       <c r="M28" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 12 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 11 CC/Prg</v>
       </c>
       <c r="N28" s="11"/>
     </row>
@@ -2828,7 +2833,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>173</v>
@@ -2843,7 +2848,7 @@
         <v>-1</v>
       </c>
       <c r="G29" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A29,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[27]</v>
       </c>
       <c r="H29" s="29" t="s">
@@ -2851,7 +2856,7 @@
       </c>
       <c r="I29" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 13 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 12 CC/Prg", </v>
       </c>
       <c r="J29" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2862,12 +2867,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L29" s="40" t="str">
-        <f>CONCATENATE("  {",I29,C29,", ",J29,K29,D29,", ",E29,"},")</f>
-        <v xml:space="preserve">  {"Btn 13 CC/Prg", m_btn_assign, &amp;MenuValues[27], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 12 CC/Prg", m_btn_assign, &amp;MenuValues[27], NULL, -1, 127},</v>
       </c>
       <c r="M29" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 13 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 12 CC/Prg</v>
       </c>
       <c r="N29" s="11"/>
     </row>
@@ -2877,7 +2882,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>173</v>
@@ -2892,7 +2897,7 @@
         <v>-1</v>
       </c>
       <c r="G30" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A30,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[28]</v>
       </c>
       <c r="H30" s="29" t="s">
@@ -2900,7 +2905,7 @@
       </c>
       <c r="I30" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 14 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 13 CC/Prg", </v>
       </c>
       <c r="J30" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2911,12 +2916,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L30" s="40" t="str">
-        <f>CONCATENATE("  {",I30,C30,", ",J30,K30,D30,", ",E30,"},")</f>
-        <v xml:space="preserve">  {"Btn 14 CC/Prg", m_btn_assign, &amp;MenuValues[28], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 13 CC/Prg", m_btn_assign, &amp;MenuValues[28], NULL, -1, 127},</v>
       </c>
       <c r="M30" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 14 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 13 CC/Prg</v>
       </c>
       <c r="N30" s="11"/>
     </row>
@@ -2926,7 +2931,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>173</v>
@@ -2941,7 +2946,7 @@
         <v>-1</v>
       </c>
       <c r="G31" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A31,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[29]</v>
       </c>
       <c r="H31" s="29" t="s">
@@ -2949,7 +2954,7 @@
       </c>
       <c r="I31" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 15 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 14 CC/Prg", </v>
       </c>
       <c r="J31" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2960,12 +2965,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L31" s="40" t="str">
-        <f>CONCATENATE("  {",I31,C31,", ",J31,K31,D31,", ",E31,"},")</f>
-        <v xml:space="preserve">  {"Btn 15 CC/Prg", m_btn_assign, &amp;MenuValues[29], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 14 CC/Prg", m_btn_assign, &amp;MenuValues[29], NULL, -1, 127},</v>
       </c>
       <c r="M31" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 15 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 14 CC/Prg</v>
       </c>
       <c r="N31" s="11"/>
     </row>
@@ -2975,7 +2980,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>173</v>
@@ -2990,7 +2995,7 @@
         <v>-1</v>
       </c>
       <c r="G32" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A32,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[30]</v>
       </c>
       <c r="H32" s="29" t="s">
@@ -2998,7 +3003,7 @@
       </c>
       <c r="I32" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 16 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 15 CC/Prg", </v>
       </c>
       <c r="J32" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3009,12 +3014,12 @@
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L32" s="40" t="str">
-        <f>CONCATENATE("  {",I32,C32,", ",J32,K32,D32,", ",E32,"},")</f>
-        <v xml:space="preserve">  {"Btn 16 CC/Prg", m_btn_assign, &amp;MenuValues[30], NULL, -1, 127},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 15 CC/Prg", m_btn_assign, &amp;MenuValues[30], NULL, -1, 127},</v>
       </c>
       <c r="M32" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn 16 CC/Prg</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 15 CC/Prg</v>
       </c>
       <c r="N32" s="11"/>
     </row>
@@ -3023,46 +3028,47 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>176</v>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>97</v>
+      <c r="D33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="20">
+        <v>127</v>
+      </c>
+      <c r="F33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="29" t="str">
+        <f t="shared" si="13"/>
+        <v>MenuValues[31]</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>97</v>
       </c>
       <c r="I33" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn CC", </v>
+        <v xml:space="preserve">"Btn 16 CC/Prg", </v>
       </c>
       <c r="J33" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;MenuValues[31], </v>
       </c>
       <c r="K33" s="44" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L33" s="40" t="str">
-        <f>CONCATENATE("  {",I33,C33,", ",J33,K33,D33,", ",E33,"},")</f>
-        <v xml:space="preserve">  {"Btn CC", m_btn_assign, NULL, NULL, -1, -1},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 16 CC/Prg", m_btn_assign, &amp;MenuValues[31], NULL, -1, 127},</v>
       </c>
       <c r="M33" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn CC</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn 16 CC/Prg</v>
       </c>
       <c r="N33" s="11"/>
     </row>
@@ -3071,47 +3077,46 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>26</v>
+      <c r="B34" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>3</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A34,"]")</f>
-        <v>MenuValues[32]</v>
+        <v>173</v>
+      </c>
+      <c r="D34" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="I34" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 1 Mode", </v>
+        <v xml:space="preserve">"Btn CC", </v>
       </c>
       <c r="J34" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[32], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K34" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setBtnMode, </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L34" s="40" t="str">
-        <f>CONCATENATE("  {",I34,C34,", ",J34,K34,D34,", ",E34,"},")</f>
-        <v xml:space="preserve">  {"Btn 1 Mode", m_btn_mode, &amp;MenuValues[32], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn CC", m_btn_assign, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M34" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 1 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn CC</v>
       </c>
       <c r="N34" s="11"/>
     </row>
@@ -3120,8 +3125,8 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
+      <c r="B35" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>174</v>
@@ -3136,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A35,"]")</f>
+        <f t="shared" ref="G35:G50" si="14">CONCATENATE("MenuValues[",A35,"]")</f>
         <v>MenuValues[33]</v>
       </c>
       <c r="H35" s="29" t="s">
@@ -3144,7 +3149,7 @@
       </c>
       <c r="I35" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 2 Mode", </v>
+        <v xml:space="preserve">"Btn 1 Mode", </v>
       </c>
       <c r="J35" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3155,12 +3160,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L35" s="40" t="str">
-        <f>CONCATENATE("  {",I35,C35,", ",J35,K35,D35,", ",E35,"},")</f>
-        <v xml:space="preserve">  {"Btn 2 Mode", m_btn_mode, &amp;MenuValues[33], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  {"Btn 1 Mode", m_btn_mode, &amp;MenuValues[33], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M35" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 2 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 1 Mode</v>
       </c>
       <c r="N35" s="11"/>
     </row>
@@ -3170,7 +3175,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>174</v>
@@ -3185,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A36,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[34]</v>
       </c>
       <c r="H36" s="29" t="s">
@@ -3193,7 +3198,7 @@
       </c>
       <c r="I36" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 3 Mode", </v>
+        <v xml:space="preserve">"Btn 2 Mode", </v>
       </c>
       <c r="J36" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3204,12 +3209,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L36" s="40" t="str">
-        <f>CONCATENATE("  {",I36,C36,", ",J36,K36,D36,", ",E36,"},")</f>
-        <v xml:space="preserve">  {"Btn 3 Mode", m_btn_mode, &amp;MenuValues[34], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" ref="L36:L67" si="15">CONCATENATE("  {",I36,C36,", ",J36,K36,D36,", ",E36,"},")</f>
+        <v xml:space="preserve">  {"Btn 2 Mode", m_btn_mode, &amp;MenuValues[34], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M36" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 3 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 2 Mode</v>
       </c>
       <c r="N36" s="11"/>
     </row>
@@ -3219,7 +3224,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>174</v>
@@ -3234,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A37,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[35]</v>
       </c>
       <c r="H37" s="29" t="s">
@@ -3242,7 +3247,7 @@
       </c>
       <c r="I37" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 4 Mode", </v>
+        <v xml:space="preserve">"Btn 3 Mode", </v>
       </c>
       <c r="J37" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3253,12 +3258,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L37" s="40" t="str">
-        <f>CONCATENATE("  {",I37,C37,", ",J37,K37,D37,", ",E37,"},")</f>
-        <v xml:space="preserve">  {"Btn 4 Mode", m_btn_mode, &amp;MenuValues[35], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 3 Mode", m_btn_mode, &amp;MenuValues[35], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M37" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 4 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 3 Mode</v>
       </c>
       <c r="N37" s="11"/>
     </row>
@@ -3268,7 +3273,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>174</v>
@@ -3283,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A38,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[36]</v>
       </c>
       <c r="H38" s="29" t="s">
@@ -3291,7 +3296,7 @@
       </c>
       <c r="I38" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 5 Mode", </v>
+        <v xml:space="preserve">"Btn 4 Mode", </v>
       </c>
       <c r="J38" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3302,12 +3307,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L38" s="40" t="str">
-        <f>CONCATENATE("  {",I38,C38,", ",J38,K38,D38,", ",E38,"},")</f>
-        <v xml:space="preserve">  {"Btn 5 Mode", m_btn_mode, &amp;MenuValues[36], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 4 Mode", m_btn_mode, &amp;MenuValues[36], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M38" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 5 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 4 Mode</v>
       </c>
       <c r="N38" s="11"/>
     </row>
@@ -3317,7 +3322,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>174</v>
@@ -3332,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A39,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[37]</v>
       </c>
       <c r="H39" s="29" t="s">
@@ -3340,7 +3345,7 @@
       </c>
       <c r="I39" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 6 Mode", </v>
+        <v xml:space="preserve">"Btn 5 Mode", </v>
       </c>
       <c r="J39" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3351,12 +3356,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L39" s="40" t="str">
-        <f>CONCATENATE("  {",I39,C39,", ",J39,K39,D39,", ",E39,"},")</f>
-        <v xml:space="preserve">  {"Btn 6 Mode", m_btn_mode, &amp;MenuValues[37], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 5 Mode", m_btn_mode, &amp;MenuValues[37], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M39" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 6 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 5 Mode</v>
       </c>
       <c r="N39" s="11"/>
     </row>
@@ -3366,7 +3371,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>174</v>
@@ -3381,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A40,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[38]</v>
       </c>
       <c r="H40" s="29" t="s">
@@ -3389,7 +3394,7 @@
       </c>
       <c r="I40" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 7 Mode", </v>
+        <v xml:space="preserve">"Btn 6 Mode", </v>
       </c>
       <c r="J40" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3400,12 +3405,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L40" s="40" t="str">
-        <f>CONCATENATE("  {",I40,C40,", ",J40,K40,D40,", ",E40,"},")</f>
-        <v xml:space="preserve">  {"Btn 7 Mode", m_btn_mode, &amp;MenuValues[38], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 6 Mode", m_btn_mode, &amp;MenuValues[38], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M40" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 7 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 6 Mode</v>
       </c>
       <c r="N40" s="11"/>
     </row>
@@ -3415,7 +3420,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>174</v>
@@ -3430,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A41,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[39]</v>
       </c>
       <c r="H41" s="29" t="s">
@@ -3438,7 +3443,7 @@
       </c>
       <c r="I41" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 8 Mode", </v>
+        <v xml:space="preserve">"Btn 7 Mode", </v>
       </c>
       <c r="J41" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3449,12 +3454,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L41" s="40" t="str">
-        <f>CONCATENATE("  {",I41,C41,", ",J41,K41,D41,", ",E41,"},")</f>
-        <v xml:space="preserve">  {"Btn 8 Mode", m_btn_mode, &amp;MenuValues[39], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 7 Mode", m_btn_mode, &amp;MenuValues[39], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M41" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 8 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 7 Mode</v>
       </c>
       <c r="N41" s="11"/>
     </row>
@@ -3464,7 +3469,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>174</v>
@@ -3479,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A42,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[40]</v>
       </c>
       <c r="H42" s="29" t="s">
@@ -3487,7 +3492,7 @@
       </c>
       <c r="I42" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 9 Mode", </v>
+        <v xml:space="preserve">"Btn 8 Mode", </v>
       </c>
       <c r="J42" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3498,12 +3503,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L42" s="40" t="str">
-        <f>CONCATENATE("  {",I42,C42,", ",J42,K42,D42,", ",E42,"},")</f>
-        <v xml:space="preserve">  {"Btn 9 Mode", m_btn_mode, &amp;MenuValues[40], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 8 Mode", m_btn_mode, &amp;MenuValues[40], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M42" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 9 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 8 Mode</v>
       </c>
       <c r="N42" s="11"/>
     </row>
@@ -3513,7 +3518,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>174</v>
@@ -3528,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A43,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[41]</v>
       </c>
       <c r="H43" s="29" t="s">
@@ -3536,7 +3541,7 @@
       </c>
       <c r="I43" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 10 Mode", </v>
+        <v xml:space="preserve">"Btn 9 Mode", </v>
       </c>
       <c r="J43" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3547,12 +3552,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L43" s="40" t="str">
-        <f>CONCATENATE("  {",I43,C43,", ",J43,K43,D43,", ",E43,"},")</f>
-        <v xml:space="preserve">  {"Btn 10 Mode", m_btn_mode, &amp;MenuValues[41], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 9 Mode", m_btn_mode, &amp;MenuValues[41], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M43" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 10 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 9 Mode</v>
       </c>
       <c r="N43" s="11"/>
     </row>
@@ -3562,7 +3567,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>174</v>
@@ -3577,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A44,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[42]</v>
       </c>
       <c r="H44" s="29" t="s">
@@ -3585,7 +3590,7 @@
       </c>
       <c r="I44" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 11 Mode", </v>
+        <v xml:space="preserve">"Btn 10 Mode", </v>
       </c>
       <c r="J44" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3596,12 +3601,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L44" s="40" t="str">
-        <f>CONCATENATE("  {",I44,C44,", ",J44,K44,D44,", ",E44,"},")</f>
-        <v xml:space="preserve">  {"Btn 11 Mode", m_btn_mode, &amp;MenuValues[42], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 10 Mode", m_btn_mode, &amp;MenuValues[42], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M44" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 11 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 10 Mode</v>
       </c>
       <c r="N44" s="11"/>
     </row>
@@ -3611,7 +3616,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>174</v>
@@ -3626,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A45,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[43]</v>
       </c>
       <c r="H45" s="29" t="s">
@@ -3634,7 +3639,7 @@
       </c>
       <c r="I45" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 12 Mode", </v>
+        <v xml:space="preserve">"Btn 11 Mode", </v>
       </c>
       <c r="J45" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3645,12 +3650,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L45" s="40" t="str">
-        <f>CONCATENATE("  {",I45,C45,", ",J45,K45,D45,", ",E45,"},")</f>
-        <v xml:space="preserve">  {"Btn 12 Mode", m_btn_mode, &amp;MenuValues[43], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 11 Mode", m_btn_mode, &amp;MenuValues[43], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M45" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 12 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 11 Mode</v>
       </c>
       <c r="N45" s="11"/>
     </row>
@@ -3660,7 +3665,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>174</v>
@@ -3675,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A46,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[44]</v>
       </c>
       <c r="H46" s="29" t="s">
@@ -3683,7 +3688,7 @@
       </c>
       <c r="I46" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 13 Mode", </v>
+        <v xml:space="preserve">"Btn 12 Mode", </v>
       </c>
       <c r="J46" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3694,12 +3699,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L46" s="40" t="str">
-        <f>CONCATENATE("  {",I46,C46,", ",J46,K46,D46,", ",E46,"},")</f>
-        <v xml:space="preserve">  {"Btn 13 Mode", m_btn_mode, &amp;MenuValues[44], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 12 Mode", m_btn_mode, &amp;MenuValues[44], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M46" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 13 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 12 Mode</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -3709,7 +3714,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>174</v>
@@ -3724,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A47,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[45]</v>
       </c>
       <c r="H47" s="29" t="s">
@@ -3732,7 +3737,7 @@
       </c>
       <c r="I47" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 14 Mode", </v>
+        <v xml:space="preserve">"Btn 13 Mode", </v>
       </c>
       <c r="J47" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3743,12 +3748,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L47" s="40" t="str">
-        <f>CONCATENATE("  {",I47,C47,", ",J47,K47,D47,", ",E47,"},")</f>
-        <v xml:space="preserve">  {"Btn 14 Mode", m_btn_mode, &amp;MenuValues[45], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 13 Mode", m_btn_mode, &amp;MenuValues[45], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M47" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 14 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 13 Mode</v>
       </c>
       <c r="N47" s="11"/>
     </row>
@@ -3758,7 +3763,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>174</v>
@@ -3773,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A48,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[46]</v>
       </c>
       <c r="H48" s="29" t="s">
@@ -3781,7 +3786,7 @@
       </c>
       <c r="I48" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 15 Mode", </v>
+        <v xml:space="preserve">"Btn 14 Mode", </v>
       </c>
       <c r="J48" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3792,12 +3797,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L48" s="40" t="str">
-        <f>CONCATENATE("  {",I48,C48,", ",J48,K48,D48,", ",E48,"},")</f>
-        <v xml:space="preserve">  {"Btn 15 Mode", m_btn_mode, &amp;MenuValues[46], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 14 Mode", m_btn_mode, &amp;MenuValues[46], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M48" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 15 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 14 Mode</v>
       </c>
       <c r="N48" s="11"/>
     </row>
@@ -3807,7 +3812,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>174</v>
@@ -3822,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A49,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[47]</v>
       </c>
       <c r="H49" s="29" t="s">
@@ -3830,7 +3835,7 @@
       </c>
       <c r="I49" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 16 Mode", </v>
+        <v xml:space="preserve">"Btn 15 Mode", </v>
       </c>
       <c r="J49" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3841,12 +3846,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L49" s="40" t="str">
-        <f>CONCATENATE("  {",I49,C49,", ",J49,K49,D49,", ",E49,"},")</f>
-        <v xml:space="preserve">  {"Btn 16 Mode", m_btn_mode, &amp;MenuValues[47], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 15 Mode", m_btn_mode, &amp;MenuValues[47], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M49" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  0,  // Btn 16 Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 15 Mode</v>
       </c>
       <c r="N49" s="11"/>
     </row>
@@ -3855,46 +3860,47 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>177</v>
+      <c r="B50" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F50" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>97</v>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>3</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="29" t="str">
+        <f t="shared" si="14"/>
+        <v>MenuValues[48]</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="I50" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn Mode", </v>
+        <v xml:space="preserve">"Btn 16 Mode", </v>
       </c>
       <c r="J50" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;MenuValues[48], </v>
       </c>
       <c r="K50" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L50" s="40" t="str">
-        <f>CONCATENATE("  {",I50,C50,", ",J50,K50,D50,", ",E50,"},")</f>
-        <v xml:space="preserve">  {"Btn Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 16 Mode", m_btn_mode, &amp;MenuValues[48], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M50" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  -1,  // Btn Mode</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  0,  // Btn 16 Mode</v>
       </c>
       <c r="N50" s="11"/>
     </row>
@@ -3903,47 +3909,46 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>4</v>
+      <c r="B51" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="30">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12">
-        <v>4</v>
-      </c>
-      <c r="F51" s="30">
-        <v>1</v>
-      </c>
-      <c r="G51" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A51,"]")</f>
-        <v>MenuValues[49]</v>
+        <v>174</v>
+      </c>
+      <c r="D51" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="I51" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Kbd Driver", </v>
+        <v xml:space="preserve">"Btn Mode", </v>
       </c>
       <c r="J51" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[49], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K51" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setKbdDriver, </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L51" s="40" t="str">
-        <f>CONCATENATE("  {",I51,C51,", ",J51,K51,D51,", ",E51,"},")</f>
-        <v xml:space="preserve">  {"Kbd Driver", m_kbd_driver, &amp;MenuValues[49], &amp;setKbdDriver, 0, 4},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M51" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  1,  // Kbd Driver</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Btn Mode</v>
       </c>
       <c r="N51" s="11"/>
     </row>
@@ -3952,31 +3957,31 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
+      <c r="B52" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="30">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4</v>
+      </c>
+      <c r="F52" s="30">
         <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>30</v>
-      </c>
-      <c r="F52" s="20">
-        <v>10</v>
       </c>
       <c r="G52" s="29" t="str">
         <f>CONCATENATE("MenuValues[",A52,"]")</f>
         <v>MenuValues[50]</v>
       </c>
-      <c r="H52" s="36" t="s">
-        <v>182</v>
+      <c r="H52" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="I52" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Velocity Min", </v>
+        <v xml:space="preserve">"Kbd Driver", </v>
       </c>
       <c r="J52" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3984,15 +3989,15 @@
       </c>
       <c r="K52" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setDynSlope, </v>
+        <v xml:space="preserve">&amp;setKbdDriver, </v>
       </c>
       <c r="L52" s="40" t="str">
-        <f>CONCATENATE("  {",I52,C52,", ",J52,K52,D52,", ",E52,"},")</f>
-        <v xml:space="preserve">  {"Velocity Min", m_kbd_driver, &amp;MenuValues[50], &amp;setDynSlope, 1, 30},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Kbd Driver", m_kbd_driver, &amp;MenuValues[50], &amp;setKbdDriver, 0, 4},</v>
       </c>
       <c r="M52" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  10,  // Velocity Min</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  1,  // Kbd Driver</v>
       </c>
       <c r="N52" s="11"/>
     </row>
@@ -4002,16 +4007,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F53" s="20">
         <v>10</v>
@@ -4020,12 +4025,12 @@
         <f>CONCATENATE("MenuValues[",A53,"]")</f>
         <v>MenuValues[51]</v>
       </c>
-      <c r="H53" s="29" t="s">
-        <v>97</v>
+      <c r="H53" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="I53" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Velocity MaxAdj", </v>
+        <v xml:space="preserve">"Velocity Min", </v>
       </c>
       <c r="J53" s="44" t="str">
         <f t="shared" si="3"/>
@@ -4033,15 +4038,15 @@
       </c>
       <c r="K53" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;setDynSlope, </v>
       </c>
       <c r="L53" s="40" t="str">
-        <f>CONCATENATE("  {",I53,C53,", ",J53,K53,D53,", ",E53,"},")</f>
-        <v xml:space="preserve">  {"Velocity MaxAdj", m_kbd_driver, &amp;MenuValues[51], NULL, 0, 20},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Velocity Min", m_kbd_driver, &amp;MenuValues[51], &amp;setDynSlope, 1, 30},</v>
       </c>
       <c r="M53" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  10,  // Velocity MaxAdj</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  10,  // Velocity Min</v>
       </c>
       <c r="N53" s="11"/>
     </row>
@@ -4051,30 +4056,30 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F54" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="29" t="str">
         <f>CONCATENATE("MenuValues[",A54,"]")</f>
         <v>MenuValues[52]</v>
       </c>
-      <c r="H54" s="36" t="s">
-        <v>182</v>
+      <c r="H54" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="I54" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Velocity Slope", </v>
+        <v xml:space="preserve">"Velocity MaxAdj", </v>
       </c>
       <c r="J54" s="44" t="str">
         <f t="shared" si="3"/>
@@ -4082,74 +4087,74 @@
       </c>
       <c r="K54" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setDynSlope, </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L54" s="40" t="str">
-        <f>CONCATENATE("  {",I54,C54,", ",J54,K54,D54,", ",E54,"},")</f>
-        <v xml:space="preserve">  {"Velocity Slope", m_kbd_driver, &amp;MenuValues[52], &amp;setDynSlope, 1, 40},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Velocity MaxAdj", m_kbd_driver, &amp;MenuValues[52], NULL, 0, 20},</v>
       </c>
       <c r="M54" s="76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  20,  // Velocity Slope</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  10,  // Velocity MaxAdj</v>
       </c>
       <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <f t="shared" ref="A55:A58" si="7">A54+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D55" s="20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F55" s="20">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G55" s="29" t="str">
-        <f t="shared" ref="G55:G59" si="8">CONCATENATE("MenuValues[",A55,"]")</f>
+        <f>CONCATENATE("MenuValues[",A55,"]")</f>
         <v>MenuValues[53]</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>97</v>
+      <c r="H55" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="I55" s="43" t="str">
-        <f t="shared" ref="I55:I58" si="9">CONCATENATE("""",B55,""", ")</f>
-        <v xml:space="preserve">"Upper Base", </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">"Velocity Slope", </v>
       </c>
       <c r="J55" s="44" t="str">
-        <f t="shared" ref="J55:J58" si="10">IF(G55="NULL",CONCATENATE(G55,", "),CONCATENATE("&amp;",G55,", "))</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">&amp;MenuValues[53], </v>
       </c>
       <c r="K55" s="44" t="str">
-        <f t="shared" ref="K55:K58" si="11">IF(H55="NULL",CONCATENATE(H55,", "),CONCATENATE("&amp;",H55,", "))</f>
-        <v xml:space="preserve">NULL, </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&amp;setDynSlope, </v>
       </c>
       <c r="L55" s="40" t="str">
-        <f t="shared" ref="L55:L58" si="12">CONCATENATE("  {",I55,C55,", ",J55,K55,D55,", ",E55,"},")</f>
-        <v xml:space="preserve">  {"Upper Base", m_kbd_driver, &amp;MenuValues[53], NULL, 12, 60},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Velocity Slope", m_kbd_driver, &amp;MenuValues[53], &amp;setDynSlope, 1, 40},</v>
       </c>
       <c r="M55" s="76" t="str">
-        <f t="shared" ref="M55:M58" si="13" xml:space="preserve"> CONCATENATE("  ",F55,",  // ",B55)</f>
-        <v xml:space="preserve">  36,  // Upper Base</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  20,  // Velocity Slope</v>
       </c>
       <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A56:A59" si="16">A55+1</f>
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>112</v>
@@ -4164,40 +4169,41 @@
         <v>36</v>
       </c>
       <c r="G56" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G56:G59" si="17">CONCATENATE("MenuValues[",A56,"]")</f>
         <v>MenuValues[54]</v>
       </c>
       <c r="H56" s="29" t="s">
         <v>97</v>
       </c>
       <c r="I56" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">"Lower Base", </v>
+        <f t="shared" ref="I56:I59" si="18">CONCATENATE("""",B56,""", ")</f>
+        <v xml:space="preserve">"Upper Base", </v>
       </c>
       <c r="J56" s="44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J56:J59" si="19">IF(G56="NULL",CONCATENATE(G56,", "),CONCATENATE("&amp;",G56,", "))</f>
         <v xml:space="preserve">&amp;MenuValues[54], </v>
       </c>
       <c r="K56" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K56:K59" si="20">IF(H56="NULL",CONCATENATE(H56,", "),CONCATENATE("&amp;",H56,", "))</f>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L56" s="40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  {"Lower Base", m_kbd_driver, &amp;MenuValues[54], NULL, 12, 60},</v>
+        <f t="shared" ref="L56:L59" si="21">CONCATENATE("  {",I56,C56,", ",J56,K56,D56,", ",E56,"},")</f>
+        <v xml:space="preserve">  {"Upper Base", m_kbd_driver, &amp;MenuValues[54], NULL, 12, 60},</v>
       </c>
       <c r="M56" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  36,  // Lower Base</v>
-      </c>
+        <f t="shared" ref="M56:M59" si="22" xml:space="preserve"> CONCATENATE("  ",F56,",  // ",B56)</f>
+        <v xml:space="preserve">  36,  // Upper Base</v>
+      </c>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>112</v>
@@ -4212,127 +4218,149 @@
         <v>36</v>
       </c>
       <c r="G57" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>MenuValues[55]</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>97</v>
       </c>
       <c r="I57" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">"Pedal Base", </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">"Lower Base", </v>
       </c>
       <c r="J57" s="44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">&amp;MenuValues[55], </v>
       </c>
       <c r="K57" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L57" s="40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  {"Pedal Base", m_kbd_driver, &amp;MenuValues[55], NULL, 12, 60},</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  {"Lower Base", m_kbd_driver, &amp;MenuValues[55], NULL, 12, 60},</v>
       </c>
       <c r="M57" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  36,  // Pedal Base</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  36,  // Lower Base</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>25</v>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F58" s="61">
-        <v>-1</v>
+      <c r="D58" s="20">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>60</v>
+      </c>
+      <c r="F58" s="20">
+        <v>36</v>
       </c>
       <c r="G58" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>MenuValues[56]</v>
       </c>
       <c r="H58" s="29" t="s">
         <v>97</v>
       </c>
       <c r="I58" s="43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">"Pedal Base", </v>
+      </c>
+      <c r="J58" s="44" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">&amp;MenuValues[56], </v>
+      </c>
+      <c r="K58" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L58" s="40" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  {"Pedal Base", m_kbd_driver, &amp;MenuValues[56], NULL, 12, 60},</v>
+      </c>
+      <c r="M58" s="76" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  36,  // Pedal Base</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>MenuValues[57]</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="43" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">"Keyboard", </v>
       </c>
-      <c r="J58" s="44" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">&amp;MenuValues[56], </v>
-      </c>
-      <c r="K58" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L58" s="40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, &amp;MenuValues[56], NULL, -1, -1},</v>
-      </c>
-      <c r="M58" s="76" t="str">
-        <f t="shared" si="13"/>
+      <c r="J59" s="44" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">&amp;MenuValues[57], </v>
+      </c>
+      <c r="K59" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">NULL, </v>
+      </c>
+      <c r="L59" s="40" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, &amp;MenuValues[57], NULL, -1, -1},</v>
+      </c>
+      <c r="M59" s="76" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">  -1,  // Keyboard</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
-        <f>A58+1</f>
-        <v>57</v>
-      </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="9" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="77">
+        <f>A59+1</f>
+        <v>58</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L59" s="40" t="s">
+      <c r="L60" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M59" s="39" t="s">
+      <c r="M60" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F60" s="61"/>
-      <c r="G60" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J60" s="10"/>
-      <c r="L60" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="M60" s="76"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="73" t="s">
@@ -4344,92 +4372,118 @@
       <c r="C61" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="70">
-        <v>0</v>
-      </c>
-      <c r="E61" s="70">
-        <v>0</v>
-      </c>
-      <c r="F61" s="70"/>
+      <c r="D61" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="61"/>
       <c r="G61" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J61" s="10"/>
+      <c r="L61" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="M61" s="76"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="70">
+        <v>0</v>
+      </c>
+      <c r="E62" s="70">
+        <v>0</v>
+      </c>
+      <c r="F62" s="70"/>
+      <c r="G62" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="L61" s="74" t="str">
-        <f>CONCATENATE("#define MENU_POT_CC ",A12)</f>
-        <v>#define MENU_POT_CC 10</v>
-      </c>
-      <c r="M61" s="76"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G62" s="39" t="str">
-        <f>CONCATENATE("#define MENU_ITEMCOUNT ",A59)</f>
-        <v>#define MENU_ITEMCOUNT 57</v>
-      </c>
-      <c r="H62" s="39"/>
-      <c r="I62" s="6" t="s">
+      <c r="L62" s="74" t="str">
+        <f>CONCATENATE("#define MENU_POT_CC ",A13)</f>
+        <v>#define MENU_POT_CC 11</v>
+      </c>
+      <c r="M62" s="76"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G63" s="39" t="str">
+        <f>CONCATENATE("#define MENU_ITEMCOUNT ",A60)</f>
+        <v>#define MENU_ITEMCOUNT 58</v>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BTN_CC ",A17)</f>
-        <v>#define MENU_BTN_CC 15</v>
-      </c>
-      <c r="M62" s="76"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L63" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BTN_MODE ",A34)</f>
-        <v>#define MENU_BTN_MODE 32</v>
+        <f>CONCATENATE("#define MENU_BTN_CC ",A18)</f>
+        <v>#define MENU_BTN_CC 16</v>
       </c>
       <c r="M63" s="76"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L64" s="74" t="str">
-        <f>CONCATENATE("#define MENU_KBD_DRIVER ",A51)</f>
-        <v>#define MENU_KBD_DRIVER 49</v>
+        <f>CONCATENATE("#define MENU_BTN_MODE ",A35)</f>
+        <v>#define MENU_BTN_MODE 33</v>
       </c>
       <c r="M64" s="76"/>
     </row>
     <row r="65" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L65" s="74" t="str">
-        <f>CONCATENATE("#define MENU_MIN_DYN ",A52)</f>
-        <v>#define MENU_MIN_DYN 50</v>
+        <f>CONCATENATE("#define MENU_KBD_DRIVER ",A52)</f>
+        <v>#define MENU_KBD_DRIVER 50</v>
       </c>
       <c r="M65" s="76"/>
     </row>
     <row r="66" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L66" s="74" t="str">
-        <f>CONCATENATE("#define MENU_MAX_DYNADJ ",A53)</f>
-        <v>#define MENU_MAX_DYNADJ 51</v>
+        <f>CONCATENATE("#define MENU_MIN_DYN ",A53)</f>
+        <v>#define MENU_MIN_DYN 51</v>
       </c>
       <c r="M66" s="76"/>
     </row>
     <row r="67" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L67" s="74" t="str">
-        <f>CONCATENATE("#define MENU_DYNSLOPE ",A54)</f>
-        <v>#define MENU_DYNSLOPE 52</v>
+        <f>CONCATENATE("#define MENU_MAX_DYNADJ ",A54)</f>
+        <v>#define MENU_MAX_DYNADJ 52</v>
       </c>
       <c r="M67" s="76"/>
     </row>
     <row r="68" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L68" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BASE_UPR ",A55)</f>
-        <v>#define MENU_BASE_UPR 53</v>
+        <f>CONCATENATE("#define MENU_DYNSLOPE ",A55)</f>
+        <v>#define MENU_DYNSLOPE 53</v>
       </c>
       <c r="M68" s="76"/>
     </row>
     <row r="69" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L69" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BASE_LWR ",A56)</f>
-        <v>#define MENU_BASE_LWR 54</v>
+        <f>CONCATENATE("#define MENU_BASE_UPR ",A56)</f>
+        <v>#define MENU_BASE_UPR 54</v>
       </c>
       <c r="M69" s="76"/>
     </row>
     <row r="70" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L70" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BASE_PED ",A57)</f>
-        <v>#define MENU_BASE_PED 55</v>
+        <f>CONCATENATE("#define MENU_BASE_LWR ",A57)</f>
+        <v>#define MENU_BASE_LWR 55</v>
       </c>
       <c r="M70" s="76"/>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L71" s="74" t="str">
+        <f>CONCATENATE("#define MENU_BASE_PED ",A58)</f>
+        <v>#define MENU_BASE_PED 56</v>
+      </c>
+      <c r="M71" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/MIDI_menuItems.xlsx
+++ b/docs/MIDI_menuItems.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="184">
   <si>
     <t>Index #</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Btn 16 CC/Prg</t>
   </si>
   <si>
-    <t>Modulation Pot</t>
-  </si>
-  <si>
     <t>Pitchwheel Pot</t>
   </si>
   <si>
@@ -535,9 +532,6 @@
     <t>m_pedal_ch</t>
   </si>
   <si>
-    <t>m_mod_pot</t>
-  </si>
-  <si>
     <t>m_pot_assign</t>
   </si>
   <si>
@@ -577,7 +571,7 @@
     <t>setBtnMode</t>
   </si>
   <si>
-    <t>Swell CC</t>
+    <t>Swell Ena/CC</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D1" s="54" t="s">
         <v>19</v>
@@ -1454,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>144</v>
-      </c>
       <c r="M1" s="75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>16</v>
@@ -1486,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="20">
         <v>1</v>
@@ -1502,7 +1496,7 @@
         <v>MenuValues[0]</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" s="43" t="str">
         <f>CONCATENATE("""",B2,""", ")</f>
@@ -1531,14 +1525,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A55" si="1">A2+1</f>
+        <f t="shared" ref="A3:A54" si="1">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="20">
         <v>1</v>
@@ -1554,30 +1548,30 @@
         <v>MenuValues[1]</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="43" t="str">
-        <f t="shared" ref="I3:I55" si="2">CONCATENATE("""",B3,""", ")</f>
+        <f t="shared" ref="I3:I54" si="2">CONCATENATE("""",B3,""", ")</f>
         <v xml:space="preserve">"Lower Channel", </v>
       </c>
       <c r="J3" s="44" t="str">
-        <f t="shared" ref="J3:J55" si="3">IF(G3="NULL",CONCATENATE(G3,", "),CONCATENATE("&amp;",G3,", "))</f>
+        <f t="shared" ref="J3:J54" si="3">IF(G3="NULL",CONCATENATE(G3,", "),CONCATENATE("&amp;",G3,", "))</f>
         <v xml:space="preserve">&amp;MenuValues[1], </v>
       </c>
       <c r="K3" s="44" t="str">
-        <f t="shared" ref="K3:K55" si="4">IF(H3="NULL",CONCATENATE(H3,", "),CONCATENATE("&amp;",H3,", "))</f>
+        <f t="shared" ref="K3:K54" si="4">IF(H3="NULL",CONCATENATE(H3,", "),CONCATENATE("&amp;",H3,", "))</f>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L3" s="40" t="str">
-        <f t="shared" ref="L3:L35" si="5">CONCATENATE("  {",I3,C3,", ",J3,K3,D3,", ",E3,"},")</f>
+        <f t="shared" ref="L3:L34" si="5">CONCATENATE("  {",I3,C3,", ",J3,K3,D3,", ",E3,"},")</f>
         <v xml:space="preserve">  {"Lower Channel", m_lower_ch, &amp;MenuValues[1], NULL, 1, 16},</v>
       </c>
       <c r="M3" s="76" t="str">
-        <f t="shared" ref="M3:M55" si="6" xml:space="preserve"> CONCATENATE("  ",F3,",  // ",B3)</f>
+        <f t="shared" ref="M3:M54" si="6" xml:space="preserve"> CONCATENATE("  ",F3,",  // ",B3)</f>
         <v xml:space="preserve">  2,  // Lower Channel</v>
       </c>
       <c r="N3" s="53" t="str">
-        <f t="shared" ref="N3:N12" si="7">CONCATENATE("  ",C3,",")</f>
+        <f t="shared" ref="N3:N5" si="7">CONCATENATE("  ",C3,",")</f>
         <v xml:space="preserve">  m_lower_ch,</v>
       </c>
     </row>
@@ -1590,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
@@ -1606,7 +1600,7 @@
         <v>MenuValues[2]</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="43" t="str">
         <f t="shared" si="2"/>
@@ -1639,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="20">
         <v>-1</v>
@@ -1658,11 +1652,11 @@
         <v>MenuValues[3]</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" s="43" t="str">
         <f t="shared" ref="I5" si="8">CONCATENATE("""",B5,""", ")</f>
-        <v xml:space="preserve">"Swell CC", </v>
+        <v xml:space="preserve">"Swell Ena/CC", </v>
       </c>
       <c r="J5" s="44" t="str">
         <f t="shared" ref="J5" si="9">IF(G5="NULL",CONCATENATE(G5,", "),CONCATENATE("&amp;",G5,", "))</f>
@@ -1674,11 +1668,11 @@
       </c>
       <c r="L5" s="40" t="str">
         <f t="shared" ref="L5" si="11">CONCATENATE("  {",I5,C5,", ",J5,K5,D5,", ",E5,"},")</f>
-        <v xml:space="preserve">  {"Swell CC", m_swell, &amp;MenuValues[3], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Swell Ena/CC", m_swell, &amp;MenuValues[3], NULL, -1, 127},</v>
       </c>
       <c r="M5" s="76" t="str">
         <f t="shared" ref="M5" si="12" xml:space="preserve"> CONCATENATE("  ",F5,",  // ",B5)</f>
-        <v xml:space="preserve">  -1,  // Swell CC</v>
+        <v xml:space="preserve">  -1,  // Swell Ena/CC</v>
       </c>
       <c r="N5" s="53" t="str">
         <f t="shared" si="7"/>
@@ -1691,16 +1685,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="20">
         <v>-1</v>
       </c>
       <c r="E6" s="1">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="F6" s="20">
         <v>-1</v>
@@ -1710,7 +1704,7 @@
         <v>MenuValues[4]</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="43" t="str">
         <f t="shared" si="2"/>
@@ -1726,7 +1720,7 @@
       </c>
       <c r="L6" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pitchwheel Pot", m_pitchwheel, &amp;MenuValues[4], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Pitchwheel Pot", m_pitchwheel, &amp;MenuValues[4], NULL, -1, 15},</v>
       </c>
       <c r="M6" s="76" t="str">
         <f t="shared" si="6"/>
@@ -1743,34 +1737,33 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="D7" s="20">
         <v>-1</v>
       </c>
-      <c r="E7" s="1">
-        <v>127</v>
+      <c r="E7" s="20">
+        <v>-1</v>
       </c>
       <c r="F7" s="20">
         <v>-1</v>
       </c>
-      <c r="G7" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A7,"]")</f>
-        <v>MenuValues[5]</v>
+      <c r="G7" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Modulation Pot", </v>
+        <v xml:space="preserve">"Keyboard", </v>
       </c>
       <c r="J7" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[5], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K7" s="44" t="str">
         <f t="shared" si="4"/>
@@ -1778,15 +1771,15 @@
       </c>
       <c r="L7" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Modulation Pot", m_mod_pot, &amp;MenuValues[5], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M7" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Modulation Pot</v>
+        <v xml:space="preserve">  -1,  // Keyboard</v>
       </c>
       <c r="N7" s="53" t="str">
         <f>CONCATENATE("  ",C7,",")</f>
-        <v xml:space="preserve">  m_mod_pot,</v>
+        <v xml:space="preserve">  m_kbd_driver,</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1795,10 +1788,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="D8" s="20">
         <v>-1</v>
@@ -1810,14 +1803,14 @@
         <v>-1</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Keyboard", </v>
+        <v xml:space="preserve">"Pot Assign", </v>
       </c>
       <c r="J8" s="44" t="str">
         <f t="shared" si="3"/>
@@ -1829,15 +1822,15 @@
       </c>
       <c r="L8" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Pot Assign", m_pot_assign, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M8" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Keyboard</v>
+        <v xml:space="preserve">  -1,  // Pot Assign</v>
       </c>
       <c r="N8" s="53" t="str">
         <f>CONCATENATE("  ",C8,",")</f>
-        <v xml:space="preserve">  m_kbd_driver,</v>
+        <v xml:space="preserve">  m_pot_assign,</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1846,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="20">
         <v>-1</v>
@@ -1861,14 +1854,14 @@
         <v>-1</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot Assign", </v>
+        <v xml:space="preserve">"Button Assign", </v>
       </c>
       <c r="J9" s="44" t="str">
         <f t="shared" si="3"/>
@@ -1880,15 +1873,15 @@
       </c>
       <c r="L9" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pot Assign", m_pot_assign, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Button Assign", m_btn_assign, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M9" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Pot Assign</v>
+        <v xml:space="preserve">  -1,  // Button Assign</v>
       </c>
       <c r="N9" s="53" t="str">
         <f>CONCATENATE("  ",C9,",")</f>
-        <v xml:space="preserve">  m_pot_assign,</v>
+        <v xml:space="preserve">  m_btn_assign,</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1897,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="20">
         <v>-1</v>
@@ -1912,14 +1905,14 @@
         <v>-1</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Button Assign", </v>
+        <v xml:space="preserve">"Button Mode", </v>
       </c>
       <c r="J10" s="44" t="str">
         <f t="shared" si="3"/>
@@ -1931,15 +1924,15 @@
       </c>
       <c r="L10" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Button Assign", m_btn_assign, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Button Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M10" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Button Assign</v>
+        <v xml:space="preserve">  -1,  // Button Mode</v>
       </c>
       <c r="N10" s="53" t="str">
         <f>CONCATENATE("  ",C10,",")</f>
-        <v xml:space="preserve">  m_btn_assign,</v>
+        <v xml:space="preserve">  m_btn_mode,</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1948,29 +1941,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20">
         <v>-1</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="1">
         <v>-1</v>
       </c>
       <c r="F11" s="20">
         <v>-1</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Button Mode", </v>
+        <v xml:space="preserve">"End", </v>
       </c>
       <c r="J11" s="44" t="str">
         <f t="shared" si="3"/>
@@ -1982,15 +1975,15 @@
       </c>
       <c r="L11" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Button Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"End", m_main_end, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M11" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Button Mode</v>
+        <v xml:space="preserve">  -1,  // End</v>
       </c>
       <c r="N11" s="53" t="str">
         <f>CONCATENATE("  ",C11,",")</f>
-        <v xml:space="preserve">  m_btn_mode,</v>
+        <v xml:space="preserve">  m_main_end,</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1998,34 +1991,35 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>86</v>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20">
         <v>-1</v>
       </c>
-      <c r="E12" s="1">
-        <v>-1</v>
+      <c r="E12" s="20">
+        <v>127</v>
       </c>
       <c r="F12" s="20">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>97</v>
+      <c r="G12" s="29" t="str">
+        <f>CONCATENATE("MenuValues[",A12,"]")</f>
+        <v>MenuValues[10]</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"End", </v>
+        <v xml:space="preserve">"Pot 1 CC", </v>
       </c>
       <c r="J12" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;MenuValues[10], </v>
       </c>
       <c r="K12" s="44" t="str">
         <f t="shared" si="4"/>
@@ -2033,15 +2027,14 @@
       </c>
       <c r="L12" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"End", m_main_end, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Pot 1 CC", m_pot_assign, &amp;MenuValues[10], NULL, -1, 127},</v>
       </c>
       <c r="M12" s="76" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // End</v>
-      </c>
-      <c r="N12" s="53" t="str">
-        <f>CONCATENATE("  ",C12,",")</f>
-        <v xml:space="preserve">  m_main_end,</v>
+        <f xml:space="preserve"> CONCATENATE("  ",F12,",  // ",B12)</f>
+        <v xml:space="preserve">  -1,  // Pot 1 CC</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2049,11 +2042,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20">
         <v>-1</v>
@@ -2069,11 +2062,11 @@
         <v>MenuValues[11]</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 1 CC", </v>
+        <v xml:space="preserve">"Pot 2 CC", </v>
       </c>
       <c r="J13" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2085,14 +2078,11 @@
       </c>
       <c r="L13" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pot 1 CC", m_pot_assign, &amp;MenuValues[11], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Pot 2 CC", m_pot_assign, &amp;MenuValues[11], NULL, -1, 127},</v>
       </c>
       <c r="M13" s="76" t="str">
-        <f xml:space="preserve"> CONCATENATE("  ",F13,",  // ",B13)</f>
-        <v xml:space="preserve">  -1,  // Pot 1 CC</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>159</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  -1,  // Pot 2 CC</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2101,10 +2091,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20">
         <v>-1</v>
@@ -2120,11 +2110,11 @@
         <v>MenuValues[12]</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 2 CC", </v>
+        <v xml:space="preserve">"Pot 3 CC", </v>
       </c>
       <c r="J14" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2136,11 +2126,11 @@
       </c>
       <c r="L14" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pot 2 CC", m_pot_assign, &amp;MenuValues[12], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Pot 3 CC", m_pot_assign, &amp;MenuValues[12], NULL, -1, 127},</v>
       </c>
       <c r="M14" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Pot 2 CC</v>
+        <v xml:space="preserve">  -1,  // Pot 3 CC</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2149,10 +2139,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="20">
         <v>-1</v>
@@ -2168,11 +2158,11 @@
         <v>MenuValues[13]</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 3 CC", </v>
+        <v xml:space="preserve">"Pot 4 CC", </v>
       </c>
       <c r="J15" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2184,11 +2174,11 @@
       </c>
       <c r="L15" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pot 3 CC", m_pot_assign, &amp;MenuValues[13], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Pot 4 CC", m_pot_assign, &amp;MenuValues[13], NULL, -1, 127},</v>
       </c>
       <c r="M15" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Pot 3 CC</v>
+        <v xml:space="preserve">  -1,  // Pot 4 CC</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2196,35 +2186,34 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
+      <c r="B16" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>127</v>
-      </c>
-      <c r="F16" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A16,"]")</f>
-        <v>MenuValues[14]</v>
+        <v>170</v>
+      </c>
+      <c r="D16" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot 4 CC", </v>
+        <v xml:space="preserve">"Pot CC", </v>
       </c>
       <c r="J16" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[14], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K16" s="44" t="str">
         <f t="shared" si="4"/>
@@ -2232,11 +2221,11 @@
       </c>
       <c r="L16" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pot 4 CC", m_pot_assign, &amp;MenuValues[14], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Pot CC", m_pot_assign, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M16" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Pot 4 CC</v>
+        <v xml:space="preserve">  -1,  // Pot CC</v>
       </c>
       <c r="N16" s="7"/>
     </row>
@@ -2245,34 +2234,35 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>175</v>
+      <c r="B17" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>97</v>
+        <v>171</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="20">
+        <v>127</v>
+      </c>
+      <c r="F17" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="29" t="str">
+        <f t="shared" ref="G17:G32" si="13">CONCATENATE("MenuValues[",A17,"]")</f>
+        <v>MenuValues[15]</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Pot CC", </v>
+        <v xml:space="preserve">"Btn 1 CC/Prg", </v>
       </c>
       <c r="J17" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;MenuValues[15], </v>
       </c>
       <c r="K17" s="44" t="str">
         <f t="shared" si="4"/>
@@ -2280,11 +2270,11 @@
       </c>
       <c r="L17" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Pot CC", m_pot_assign, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Btn 1 CC/Prg", m_btn_assign, &amp;MenuValues[15], NULL, -1, 127},</v>
       </c>
       <c r="M17" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Pot CC</v>
+        <v xml:space="preserve">  -1,  // Btn 1 CC/Prg</v>
       </c>
       <c r="N17" s="7"/>
     </row>
@@ -2293,11 +2283,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>43</v>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="20">
         <v>-1</v>
@@ -2309,15 +2299,15 @@
         <v>-1</v>
       </c>
       <c r="G18" s="29" t="str">
-        <f t="shared" ref="G18:G33" si="13">CONCATENATE("MenuValues[",A18,"]")</f>
+        <f t="shared" si="13"/>
         <v>MenuValues[16]</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 1 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 2 CC/Prg", </v>
       </c>
       <c r="J18" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2329,11 +2319,11 @@
       </c>
       <c r="L18" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 1 CC/Prg", m_btn_assign, &amp;MenuValues[16], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 2 CC/Prg", m_btn_assign, &amp;MenuValues[16], NULL, -1, 127},</v>
       </c>
       <c r="M18" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 1 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 2 CC/Prg</v>
       </c>
       <c r="N18" s="7"/>
     </row>
@@ -2343,10 +2333,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D19" s="20">
         <v>-1</v>
@@ -2362,11 +2352,11 @@
         <v>MenuValues[17]</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 2 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 3 CC/Prg", </v>
       </c>
       <c r="J19" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2378,11 +2368,11 @@
       </c>
       <c r="L19" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 2 CC/Prg", m_btn_assign, &amp;MenuValues[17], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 3 CC/Prg", m_btn_assign, &amp;MenuValues[17], NULL, -1, 127},</v>
       </c>
       <c r="M19" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 2 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 3 CC/Prg</v>
       </c>
       <c r="N19" s="7"/>
     </row>
@@ -2392,10 +2382,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D20" s="20">
         <v>-1</v>
@@ -2411,11 +2401,11 @@
         <v>MenuValues[18]</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 3 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 4 CC/Prg", </v>
       </c>
       <c r="J20" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2427,11 +2417,11 @@
       </c>
       <c r="L20" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 3 CC/Prg", m_btn_assign, &amp;MenuValues[18], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 4 CC/Prg", m_btn_assign, &amp;MenuValues[18], NULL, -1, 127},</v>
       </c>
       <c r="M20" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 3 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 4 CC/Prg</v>
       </c>
       <c r="N20" s="7"/>
     </row>
@@ -2441,10 +2431,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D21" s="20">
         <v>-1</v>
@@ -2460,11 +2450,11 @@
         <v>MenuValues[19]</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 4 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 5 CC/Prg", </v>
       </c>
       <c r="J21" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2476,11 +2466,11 @@
       </c>
       <c r="L21" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 4 CC/Prg", m_btn_assign, &amp;MenuValues[19], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 5 CC/Prg", m_btn_assign, &amp;MenuValues[19], NULL, -1, 127},</v>
       </c>
       <c r="M21" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 4 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 5 CC/Prg</v>
       </c>
       <c r="N21" s="7"/>
     </row>
@@ -2490,10 +2480,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="20">
         <v>-1</v>
@@ -2509,11 +2499,11 @@
         <v>MenuValues[20]</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 5 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 6 CC/Prg", </v>
       </c>
       <c r="J22" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2525,11 +2515,11 @@
       </c>
       <c r="L22" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 5 CC/Prg", m_btn_assign, &amp;MenuValues[20], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 6 CC/Prg", m_btn_assign, &amp;MenuValues[20], NULL, -1, 127},</v>
       </c>
       <c r="M22" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 5 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 6 CC/Prg</v>
       </c>
       <c r="N22" s="7"/>
     </row>
@@ -2539,10 +2529,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="20">
         <v>-1</v>
@@ -2558,11 +2548,11 @@
         <v>MenuValues[21]</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 6 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 7 CC/Prg", </v>
       </c>
       <c r="J23" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2574,11 +2564,11 @@
       </c>
       <c r="L23" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 6 CC/Prg", m_btn_assign, &amp;MenuValues[21], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 7 CC/Prg", m_btn_assign, &amp;MenuValues[21], NULL, -1, 127},</v>
       </c>
       <c r="M23" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 6 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 7 CC/Prg</v>
       </c>
       <c r="N23" s="7"/>
     </row>
@@ -2588,10 +2578,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24" s="20">
         <v>-1</v>
@@ -2607,11 +2597,11 @@
         <v>MenuValues[22]</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 7 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 8 CC/Prg", </v>
       </c>
       <c r="J24" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2623,11 +2613,11 @@
       </c>
       <c r="L24" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 7 CC/Prg", m_btn_assign, &amp;MenuValues[22], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 8 CC/Prg", m_btn_assign, &amp;MenuValues[22], NULL, -1, 127},</v>
       </c>
       <c r="M24" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 7 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 8 CC/Prg</v>
       </c>
       <c r="N24" s="7"/>
     </row>
@@ -2637,10 +2627,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D25" s="20">
         <v>-1</v>
@@ -2656,11 +2646,11 @@
         <v>MenuValues[23]</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 8 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 9 CC/Prg", </v>
       </c>
       <c r="J25" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2672,11 +2662,11 @@
       </c>
       <c r="L25" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 8 CC/Prg", m_btn_assign, &amp;MenuValues[23], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 9 CC/Prg", m_btn_assign, &amp;MenuValues[23], NULL, -1, 127},</v>
       </c>
       <c r="M25" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 8 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 9 CC/Prg</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -2686,10 +2676,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D26" s="20">
         <v>-1</v>
@@ -2705,11 +2695,11 @@
         <v>MenuValues[24]</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 9 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 10 CC/Prg", </v>
       </c>
       <c r="J26" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2721,11 +2711,11 @@
       </c>
       <c r="L26" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 9 CC/Prg", m_btn_assign, &amp;MenuValues[24], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 10 CC/Prg", m_btn_assign, &amp;MenuValues[24], NULL, -1, 127},</v>
       </c>
       <c r="M26" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 9 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 10 CC/Prg</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -2735,10 +2725,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="20">
         <v>-1</v>
@@ -2754,11 +2744,11 @@
         <v>MenuValues[25]</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I27" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 10 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 11 CC/Prg", </v>
       </c>
       <c r="J27" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2770,11 +2760,11 @@
       </c>
       <c r="L27" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 10 CC/Prg", m_btn_assign, &amp;MenuValues[25], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 11 CC/Prg", m_btn_assign, &amp;MenuValues[25], NULL, -1, 127},</v>
       </c>
       <c r="M27" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 10 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 11 CC/Prg</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -2784,10 +2774,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20">
         <v>-1</v>
@@ -2803,11 +2793,11 @@
         <v>MenuValues[26]</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I28" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 11 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 12 CC/Prg", </v>
       </c>
       <c r="J28" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2819,11 +2809,11 @@
       </c>
       <c r="L28" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 11 CC/Prg", m_btn_assign, &amp;MenuValues[26], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 12 CC/Prg", m_btn_assign, &amp;MenuValues[26], NULL, -1, 127},</v>
       </c>
       <c r="M28" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 11 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 12 CC/Prg</v>
       </c>
       <c r="N28" s="11"/>
     </row>
@@ -2833,10 +2823,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="20">
         <v>-1</v>
@@ -2852,11 +2842,11 @@
         <v>MenuValues[27]</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 12 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 13 CC/Prg", </v>
       </c>
       <c r="J29" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2868,11 +2858,11 @@
       </c>
       <c r="L29" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 12 CC/Prg", m_btn_assign, &amp;MenuValues[27], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 13 CC/Prg", m_btn_assign, &amp;MenuValues[27], NULL, -1, 127},</v>
       </c>
       <c r="M29" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 12 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 13 CC/Prg</v>
       </c>
       <c r="N29" s="11"/>
     </row>
@@ -2882,10 +2872,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D30" s="20">
         <v>-1</v>
@@ -2901,11 +2891,11 @@
         <v>MenuValues[28]</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 13 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 14 CC/Prg", </v>
       </c>
       <c r="J30" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2917,11 +2907,11 @@
       </c>
       <c r="L30" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 13 CC/Prg", m_btn_assign, &amp;MenuValues[28], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 14 CC/Prg", m_btn_assign, &amp;MenuValues[28], NULL, -1, 127},</v>
       </c>
       <c r="M30" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 13 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 14 CC/Prg</v>
       </c>
       <c r="N30" s="11"/>
     </row>
@@ -2931,10 +2921,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D31" s="20">
         <v>-1</v>
@@ -2950,11 +2940,11 @@
         <v>MenuValues[29]</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 14 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 15 CC/Prg", </v>
       </c>
       <c r="J31" s="44" t="str">
         <f t="shared" si="3"/>
@@ -2966,11 +2956,11 @@
       </c>
       <c r="L31" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 14 CC/Prg", m_btn_assign, &amp;MenuValues[29], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 15 CC/Prg", m_btn_assign, &amp;MenuValues[29], NULL, -1, 127},</v>
       </c>
       <c r="M31" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 14 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 15 CC/Prg</v>
       </c>
       <c r="N31" s="11"/>
     </row>
@@ -2980,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D32" s="20">
         <v>-1</v>
@@ -2999,11 +2989,11 @@
         <v>MenuValues[30]</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 15 CC/Prg", </v>
+        <v xml:space="preserve">"Btn 16 CC/Prg", </v>
       </c>
       <c r="J32" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3015,11 +3005,11 @@
       </c>
       <c r="L32" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 15 CC/Prg", m_btn_assign, &amp;MenuValues[30], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn 16 CC/Prg", m_btn_assign, &amp;MenuValues[30], NULL, -1, 127},</v>
       </c>
       <c r="M32" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 15 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn 16 CC/Prg</v>
       </c>
       <c r="N32" s="11"/>
     </row>
@@ -3028,35 +3018,34 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
+      <c r="B33" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="20">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="20">
-        <v>127</v>
-      </c>
-      <c r="F33" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v>MenuValues[31]</v>
+        <v>171</v>
+      </c>
+      <c r="D33" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I33" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 16 CC/Prg", </v>
+        <v xml:space="preserve">"Btn CC", </v>
       </c>
       <c r="J33" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[31], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K33" s="44" t="str">
         <f t="shared" si="4"/>
@@ -3064,11 +3053,11 @@
       </c>
       <c r="L33" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 16 CC/Prg", m_btn_assign, &amp;MenuValues[31], NULL, -1, 127},</v>
+        <v xml:space="preserve">  {"Btn CC", m_btn_assign, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M33" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn 16 CC/Prg</v>
+        <v xml:space="preserve">  -1,  // Btn CC</v>
       </c>
       <c r="N33" s="11"/>
     </row>
@@ -3077,46 +3066,47 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>176</v>
+      <c r="B34" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>97</v>
+        <v>172</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>3</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29" t="str">
+        <f t="shared" ref="G34:G49" si="14">CONCATENATE("MenuValues[",A34,"]")</f>
+        <v>MenuValues[32]</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I34" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn CC", </v>
+        <v xml:space="preserve">"Btn 1 Mode", </v>
       </c>
       <c r="J34" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;MenuValues[32], </v>
       </c>
       <c r="K34" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L34" s="40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn CC", m_btn_assign, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Btn 1 Mode", m_btn_mode, &amp;MenuValues[32], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M34" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn CC</v>
+        <v xml:space="preserve">  0,  // Btn 1 Mode</v>
       </c>
       <c r="N34" s="11"/>
     </row>
@@ -3125,11 +3115,11 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>26</v>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="20">
         <v>0</v>
@@ -3141,15 +3131,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="29" t="str">
-        <f t="shared" ref="G35:G50" si="14">CONCATENATE("MenuValues[",A35,"]")</f>
+        <f t="shared" si="14"/>
         <v>MenuValues[33]</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I35" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 1 Mode", </v>
+        <v xml:space="preserve">"Btn 2 Mode", </v>
       </c>
       <c r="J35" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3160,12 +3150,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L35" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  {"Btn 1 Mode", m_btn_mode, &amp;MenuValues[33], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" ref="L35:L66" si="15">CONCATENATE("  {",I35,C35,", ",J35,K35,D35,", ",E35,"},")</f>
+        <v xml:space="preserve">  {"Btn 2 Mode", m_btn_mode, &amp;MenuValues[33], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M35" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 1 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 2 Mode</v>
       </c>
       <c r="N35" s="11"/>
     </row>
@@ -3175,10 +3165,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="20">
         <v>0</v>
@@ -3194,11 +3184,11 @@
         <v>MenuValues[34]</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I36" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 2 Mode", </v>
+        <v xml:space="preserve">"Btn 3 Mode", </v>
       </c>
       <c r="J36" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3209,12 +3199,12 @@
         <v xml:space="preserve">&amp;setBtnMode, </v>
       </c>
       <c r="L36" s="40" t="str">
-        <f t="shared" ref="L36:L67" si="15">CONCATENATE("  {",I36,C36,", ",J36,K36,D36,", ",E36,"},")</f>
-        <v xml:space="preserve">  {"Btn 2 Mode", m_btn_mode, &amp;MenuValues[34], &amp;setBtnMode, 0, 3},</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  {"Btn 3 Mode", m_btn_mode, &amp;MenuValues[34], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M36" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 2 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 3 Mode</v>
       </c>
       <c r="N36" s="11"/>
     </row>
@@ -3224,10 +3214,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="20">
         <v>0</v>
@@ -3243,11 +3233,11 @@
         <v>MenuValues[35]</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I37" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 3 Mode", </v>
+        <v xml:space="preserve">"Btn 4 Mode", </v>
       </c>
       <c r="J37" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3259,11 +3249,11 @@
       </c>
       <c r="L37" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 3 Mode", m_btn_mode, &amp;MenuValues[35], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 4 Mode", m_btn_mode, &amp;MenuValues[35], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M37" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 3 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 4 Mode</v>
       </c>
       <c r="N37" s="11"/>
     </row>
@@ -3273,10 +3263,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" s="20">
         <v>0</v>
@@ -3292,11 +3282,11 @@
         <v>MenuValues[36]</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I38" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 4 Mode", </v>
+        <v xml:space="preserve">"Btn 5 Mode", </v>
       </c>
       <c r="J38" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3308,11 +3298,11 @@
       </c>
       <c r="L38" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 4 Mode", m_btn_mode, &amp;MenuValues[36], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 5 Mode", m_btn_mode, &amp;MenuValues[36], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M38" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 4 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 5 Mode</v>
       </c>
       <c r="N38" s="11"/>
     </row>
@@ -3322,10 +3312,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D39" s="20">
         <v>0</v>
@@ -3341,11 +3331,11 @@
         <v>MenuValues[37]</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I39" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 5 Mode", </v>
+        <v xml:space="preserve">"Btn 6 Mode", </v>
       </c>
       <c r="J39" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3357,11 +3347,11 @@
       </c>
       <c r="L39" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 5 Mode", m_btn_mode, &amp;MenuValues[37], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 6 Mode", m_btn_mode, &amp;MenuValues[37], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M39" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 5 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 6 Mode</v>
       </c>
       <c r="N39" s="11"/>
     </row>
@@ -3371,10 +3361,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" s="20">
         <v>0</v>
@@ -3390,11 +3380,11 @@
         <v>MenuValues[38]</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I40" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 6 Mode", </v>
+        <v xml:space="preserve">"Btn 7 Mode", </v>
       </c>
       <c r="J40" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3406,11 +3396,11 @@
       </c>
       <c r="L40" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 6 Mode", m_btn_mode, &amp;MenuValues[38], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 7 Mode", m_btn_mode, &amp;MenuValues[38], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M40" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 6 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 7 Mode</v>
       </c>
       <c r="N40" s="11"/>
     </row>
@@ -3420,10 +3410,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" s="20">
         <v>0</v>
@@ -3439,11 +3429,11 @@
         <v>MenuValues[39]</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I41" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 7 Mode", </v>
+        <v xml:space="preserve">"Btn 8 Mode", </v>
       </c>
       <c r="J41" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3455,11 +3445,11 @@
       </c>
       <c r="L41" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 7 Mode", m_btn_mode, &amp;MenuValues[39], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 8 Mode", m_btn_mode, &amp;MenuValues[39], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M41" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 7 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 8 Mode</v>
       </c>
       <c r="N41" s="11"/>
     </row>
@@ -3469,10 +3459,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" s="20">
         <v>0</v>
@@ -3488,11 +3478,11 @@
         <v>MenuValues[40]</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I42" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 8 Mode", </v>
+        <v xml:space="preserve">"Btn 9 Mode", </v>
       </c>
       <c r="J42" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3504,11 +3494,11 @@
       </c>
       <c r="L42" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 8 Mode", m_btn_mode, &amp;MenuValues[40], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 9 Mode", m_btn_mode, &amp;MenuValues[40], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M42" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 8 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 9 Mode</v>
       </c>
       <c r="N42" s="11"/>
     </row>
@@ -3518,10 +3508,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" s="20">
         <v>0</v>
@@ -3537,11 +3527,11 @@
         <v>MenuValues[41]</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I43" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 9 Mode", </v>
+        <v xml:space="preserve">"Btn 10 Mode", </v>
       </c>
       <c r="J43" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3553,11 +3543,11 @@
       </c>
       <c r="L43" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 9 Mode", m_btn_mode, &amp;MenuValues[41], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 10 Mode", m_btn_mode, &amp;MenuValues[41], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M43" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 9 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 10 Mode</v>
       </c>
       <c r="N43" s="11"/>
     </row>
@@ -3567,10 +3557,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" s="20">
         <v>0</v>
@@ -3586,11 +3576,11 @@
         <v>MenuValues[42]</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I44" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 10 Mode", </v>
+        <v xml:space="preserve">"Btn 11 Mode", </v>
       </c>
       <c r="J44" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3602,11 +3592,11 @@
       </c>
       <c r="L44" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 10 Mode", m_btn_mode, &amp;MenuValues[42], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 11 Mode", m_btn_mode, &amp;MenuValues[42], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M44" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 10 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 11 Mode</v>
       </c>
       <c r="N44" s="11"/>
     </row>
@@ -3616,10 +3606,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" s="20">
         <v>0</v>
@@ -3635,11 +3625,11 @@
         <v>MenuValues[43]</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I45" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 11 Mode", </v>
+        <v xml:space="preserve">"Btn 12 Mode", </v>
       </c>
       <c r="J45" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3651,11 +3641,11 @@
       </c>
       <c r="L45" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 11 Mode", m_btn_mode, &amp;MenuValues[43], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 12 Mode", m_btn_mode, &amp;MenuValues[43], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M45" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 11 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 12 Mode</v>
       </c>
       <c r="N45" s="11"/>
     </row>
@@ -3665,10 +3655,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D46" s="20">
         <v>0</v>
@@ -3684,11 +3674,11 @@
         <v>MenuValues[44]</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I46" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 12 Mode", </v>
+        <v xml:space="preserve">"Btn 13 Mode", </v>
       </c>
       <c r="J46" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3700,11 +3690,11 @@
       </c>
       <c r="L46" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 12 Mode", m_btn_mode, &amp;MenuValues[44], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 13 Mode", m_btn_mode, &amp;MenuValues[44], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M46" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 12 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 13 Mode</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -3714,10 +3704,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D47" s="20">
         <v>0</v>
@@ -3733,11 +3723,11 @@
         <v>MenuValues[45]</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I47" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 13 Mode", </v>
+        <v xml:space="preserve">"Btn 14 Mode", </v>
       </c>
       <c r="J47" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3749,11 +3739,11 @@
       </c>
       <c r="L47" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 13 Mode", m_btn_mode, &amp;MenuValues[45], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 14 Mode", m_btn_mode, &amp;MenuValues[45], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M47" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 13 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 14 Mode</v>
       </c>
       <c r="N47" s="11"/>
     </row>
@@ -3763,10 +3753,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D48" s="20">
         <v>0</v>
@@ -3782,11 +3772,11 @@
         <v>MenuValues[46]</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I48" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 14 Mode", </v>
+        <v xml:space="preserve">"Btn 15 Mode", </v>
       </c>
       <c r="J48" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3798,11 +3788,11 @@
       </c>
       <c r="L48" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 14 Mode", m_btn_mode, &amp;MenuValues[46], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 15 Mode", m_btn_mode, &amp;MenuValues[46], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M48" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 14 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 15 Mode</v>
       </c>
       <c r="N48" s="11"/>
     </row>
@@ -3812,10 +3802,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D49" s="20">
         <v>0</v>
@@ -3831,11 +3821,11 @@
         <v>MenuValues[47]</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I49" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 15 Mode", </v>
+        <v xml:space="preserve">"Btn 16 Mode", </v>
       </c>
       <c r="J49" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3847,11 +3837,11 @@
       </c>
       <c r="L49" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 15 Mode", m_btn_mode, &amp;MenuValues[47], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn 16 Mode", m_btn_mode, &amp;MenuValues[47], &amp;setBtnMode, 0, 3},</v>
       </c>
       <c r="M49" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 15 Mode</v>
+        <v xml:space="preserve">  0,  // Btn 16 Mode</v>
       </c>
       <c r="N49" s="11"/>
     </row>
@@ -3860,47 +3850,46 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>41</v>
+      <c r="B50" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="20">
-        <v>0</v>
-      </c>
-      <c r="E50" s="20">
-        <v>3</v>
-      </c>
-      <c r="F50" s="20">
-        <v>0</v>
-      </c>
-      <c r="G50" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>MenuValues[48]</v>
+        <v>172</v>
+      </c>
+      <c r="D50" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="61">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="I50" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn 16 Mode", </v>
+        <v xml:space="preserve">"Btn Mode", </v>
       </c>
       <c r="J50" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">&amp;MenuValues[48], </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="K50" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setBtnMode, </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L50" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn 16 Mode", m_btn_mode, &amp;MenuValues[48], &amp;setBtnMode, 0, 3},</v>
+        <v xml:space="preserve">  {"Btn Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
       </c>
       <c r="M50" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,  // Btn 16 Mode</v>
+        <v xml:space="preserve">  -1,  // Btn Mode</v>
       </c>
       <c r="N50" s="11"/>
     </row>
@@ -3909,46 +3898,47 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>177</v>
+      <c r="B51" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E51" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F51" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>97</v>
+        <v>111</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>4</v>
+      </c>
+      <c r="F51" s="30">
+        <v>1</v>
+      </c>
+      <c r="G51" s="29" t="str">
+        <f>CONCATENATE("MenuValues[",A51,"]")</f>
+        <v>MenuValues[49]</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="I51" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Btn Mode", </v>
+        <v xml:space="preserve">"Kbd Driver", </v>
       </c>
       <c r="J51" s="44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;MenuValues[49], </v>
       </c>
       <c r="K51" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;setKbdDriver, </v>
       </c>
       <c r="L51" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Btn Mode", m_btn_mode, NULL, NULL, -1, -1},</v>
+        <v xml:space="preserve">  {"Kbd Driver", m_kbd_driver, &amp;MenuValues[49], &amp;setKbdDriver, 0, 4},</v>
       </c>
       <c r="M51" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  -1,  // Btn Mode</v>
+        <v xml:space="preserve">  1,  // Kbd Driver</v>
       </c>
       <c r="N51" s="11"/>
     </row>
@@ -3957,31 +3947,31 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>4</v>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="30">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12">
-        <v>4</v>
-      </c>
-      <c r="F52" s="30">
+        <v>111</v>
+      </c>
+      <c r="D52" s="20">
         <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>30</v>
+      </c>
+      <c r="F52" s="20">
+        <v>10</v>
       </c>
       <c r="G52" s="29" t="str">
         <f>CONCATENATE("MenuValues[",A52,"]")</f>
         <v>MenuValues[50]</v>
       </c>
-      <c r="H52" s="29" t="s">
-        <v>178</v>
+      <c r="H52" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="I52" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Kbd Driver", </v>
+        <v xml:space="preserve">"Velocity Min", </v>
       </c>
       <c r="J52" s="44" t="str">
         <f t="shared" si="3"/>
@@ -3989,15 +3979,15 @@
       </c>
       <c r="K52" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setKbdDriver, </v>
+        <v xml:space="preserve">&amp;setDynSlope, </v>
       </c>
       <c r="L52" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Kbd Driver", m_kbd_driver, &amp;MenuValues[50], &amp;setKbdDriver, 0, 4},</v>
+        <v xml:space="preserve">  {"Velocity Min", m_kbd_driver, &amp;MenuValues[50], &amp;setDynSlope, 1, 30},</v>
       </c>
       <c r="M52" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  1,  // Kbd Driver</v>
+        <v xml:space="preserve">  10,  // Velocity Min</v>
       </c>
       <c r="N52" s="11"/>
     </row>
@@ -4007,16 +3997,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F53" s="20">
         <v>10</v>
@@ -4025,12 +4015,12 @@
         <f>CONCATENATE("MenuValues[",A53,"]")</f>
         <v>MenuValues[51]</v>
       </c>
-      <c r="H53" s="36" t="s">
-        <v>182</v>
+      <c r="H53" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="I53" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Velocity Min", </v>
+        <v xml:space="preserve">"Velocity MaxAdj", </v>
       </c>
       <c r="J53" s="44" t="str">
         <f t="shared" si="3"/>
@@ -4038,15 +4028,15 @@
       </c>
       <c r="K53" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setDynSlope, </v>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L53" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Velocity Min", m_kbd_driver, &amp;MenuValues[51], &amp;setDynSlope, 1, 30},</v>
+        <v xml:space="preserve">  {"Velocity MaxAdj", m_kbd_driver, &amp;MenuValues[51], NULL, 0, 20},</v>
       </c>
       <c r="M53" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  10,  // Velocity Min</v>
+        <v xml:space="preserve">  10,  // Velocity MaxAdj</v>
       </c>
       <c r="N53" s="11"/>
     </row>
@@ -4056,30 +4046,30 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
+        <v>40</v>
+      </c>
+      <c r="F54" s="20">
         <v>20</v>
-      </c>
-      <c r="F54" s="20">
-        <v>10</v>
       </c>
       <c r="G54" s="29" t="str">
         <f>CONCATENATE("MenuValues[",A54,"]")</f>
         <v>MenuValues[52]</v>
       </c>
-      <c r="H54" s="29" t="s">
-        <v>97</v>
+      <c r="H54" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="I54" s="43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">"Velocity MaxAdj", </v>
+        <v xml:space="preserve">"Velocity Slope", </v>
       </c>
       <c r="J54" s="44" t="str">
         <f t="shared" si="3"/>
@@ -4087,77 +4077,77 @@
       </c>
       <c r="K54" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NULL, </v>
+        <v xml:space="preserve">&amp;setDynSlope, </v>
       </c>
       <c r="L54" s="40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Velocity MaxAdj", m_kbd_driver, &amp;MenuValues[52], NULL, 0, 20},</v>
+        <v xml:space="preserve">  {"Velocity Slope", m_kbd_driver, &amp;MenuValues[52], &amp;setDynSlope, 1, 40},</v>
       </c>
       <c r="M54" s="76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  10,  // Velocity MaxAdj</v>
+        <v xml:space="preserve">  20,  // Velocity Slope</v>
       </c>
       <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A55:A58" si="16">A54+1</f>
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F55" s="20">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G55" s="29" t="str">
-        <f>CONCATENATE("MenuValues[",A55,"]")</f>
+        <f t="shared" ref="G55:G58" si="17">CONCATENATE("MenuValues[",A55,"]")</f>
         <v>MenuValues[53]</v>
       </c>
-      <c r="H55" s="36" t="s">
-        <v>182</v>
+      <c r="H55" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="I55" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">"Velocity Slope", </v>
+        <f t="shared" ref="I55:I58" si="18">CONCATENATE("""",B55,""", ")</f>
+        <v xml:space="preserve">"Upper Base", </v>
       </c>
       <c r="J55" s="44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J55:J58" si="19">IF(G55="NULL",CONCATENATE(G55,", "),CONCATENATE("&amp;",G55,", "))</f>
         <v xml:space="preserve">&amp;MenuValues[53], </v>
       </c>
       <c r="K55" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&amp;setDynSlope, </v>
+        <f t="shared" ref="K55:K58" si="20">IF(H55="NULL",CONCATENATE(H55,", "),CONCATENATE("&amp;",H55,", "))</f>
+        <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L55" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  {"Velocity Slope", m_kbd_driver, &amp;MenuValues[53], &amp;setDynSlope, 1, 40},</v>
+        <f t="shared" ref="L55:L58" si="21">CONCATENATE("  {",I55,C55,", ",J55,K55,D55,", ",E55,"},")</f>
+        <v xml:space="preserve">  {"Upper Base", m_kbd_driver, &amp;MenuValues[53], NULL, 12, 60},</v>
       </c>
       <c r="M55" s="76" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  20,  // Velocity Slope</v>
+        <f t="shared" ref="M55:M58" si="22" xml:space="preserve"> CONCATENATE("  ",F55,",  // ",B55)</f>
+        <v xml:space="preserve">  36,  // Upper Base</v>
       </c>
       <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
-        <f t="shared" ref="A56:A59" si="16">A55+1</f>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" s="20">
         <v>12</v>
@@ -4169,31 +4159,31 @@
         <v>36</v>
       </c>
       <c r="G56" s="29" t="str">
-        <f t="shared" ref="G56:G59" si="17">CONCATENATE("MenuValues[",A56,"]")</f>
+        <f t="shared" si="17"/>
         <v>MenuValues[54]</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I56" s="43" t="str">
-        <f t="shared" ref="I56:I59" si="18">CONCATENATE("""",B56,""", ")</f>
-        <v xml:space="preserve">"Upper Base", </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">"Lower Base", </v>
       </c>
       <c r="J56" s="44" t="str">
-        <f t="shared" ref="J56:J59" si="19">IF(G56="NULL",CONCATENATE(G56,", "),CONCATENATE("&amp;",G56,", "))</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">&amp;MenuValues[54], </v>
       </c>
       <c r="K56" s="44" t="str">
-        <f t="shared" ref="K56:K59" si="20">IF(H56="NULL",CONCATENATE(H56,", "),CONCATENATE("&amp;",H56,", "))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">NULL, </v>
       </c>
       <c r="L56" s="40" t="str">
-        <f t="shared" ref="L56:L59" si="21">CONCATENATE("  {",I56,C56,", ",J56,K56,D56,", ",E56,"},")</f>
-        <v xml:space="preserve">  {"Upper Base", m_kbd_driver, &amp;MenuValues[54], NULL, 12, 60},</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  {"Lower Base", m_kbd_driver, &amp;MenuValues[54], NULL, 12, 60},</v>
       </c>
       <c r="M56" s="76" t="str">
-        <f t="shared" ref="M56:M59" si="22" xml:space="preserve"> CONCATENATE("  ",F56,",  // ",B56)</f>
-        <v xml:space="preserve">  36,  // Upper Base</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  36,  // Lower Base</v>
       </c>
       <c r="N56" s="11"/>
     </row>
@@ -4203,10 +4193,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="20">
         <v>12</v>
@@ -4222,11 +4212,11 @@
         <v>MenuValues[55]</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I57" s="43" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">"Lower Base", </v>
+        <v xml:space="preserve">"Pedal Base", </v>
       </c>
       <c r="J57" s="44" t="str">
         <f t="shared" si="19"/>
@@ -4238,11 +4228,11 @@
       </c>
       <c r="L57" s="40" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  {"Lower Base", m_kbd_driver, &amp;MenuValues[55], NULL, 12, 60},</v>
+        <v xml:space="preserve">  {"Pedal Base", m_kbd_driver, &amp;MenuValues[55], NULL, 12, 60},</v>
       </c>
       <c r="M57" s="76" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">  36,  // Lower Base</v>
+        <v xml:space="preserve">  36,  // Pedal Base</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4250,31 +4240,31 @@
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>15</v>
+      <c r="B58" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="20">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1">
-        <v>60</v>
-      </c>
-      <c r="F58" s="20">
-        <v>36</v>
+        <v>111</v>
+      </c>
+      <c r="D58" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="61">
+        <v>-1</v>
       </c>
       <c r="G58" s="29" t="str">
         <f t="shared" si="17"/>
         <v>MenuValues[56]</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I58" s="43" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">"Pedal Base", </v>
+        <v xml:space="preserve">"Keyboard", </v>
       </c>
       <c r="J58" s="44" t="str">
         <f t="shared" si="19"/>
@@ -4286,204 +4276,156 @@
       </c>
       <c r="L58" s="40" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  {"Pedal Base", m_kbd_driver, &amp;MenuValues[56], NULL, 12, 60},</v>
+        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, &amp;MenuValues[56], NULL, -1, -1},</v>
       </c>
       <c r="M58" s="76" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">  36,  // Pedal Base</v>
+        <v xml:space="preserve">  -1,  // Keyboard</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
-        <f t="shared" si="16"/>
+      <c r="A59" s="77">
+        <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E59" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F59" s="61">
-        <v>-1</v>
-      </c>
-      <c r="G59" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MenuValues[57]</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I59" s="43" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">"Keyboard", </v>
-      </c>
-      <c r="J59" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">&amp;MenuValues[57], </v>
-      </c>
-      <c r="K59" s="44" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">NULL, </v>
-      </c>
-      <c r="L59" s="40" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  {"Keyboard", m_kbd_driver, &amp;MenuValues[57], NULL, -1, -1},</v>
-      </c>
-      <c r="M59" s="76" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">  -1,  // Keyboard</v>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="77">
-        <f>A59+1</f>
-        <v>58</v>
-      </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A60" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="61">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="61">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="61"/>
+      <c r="G60" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J60" s="10"/>
       <c r="L60" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>17</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M60" s="76"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="61">
-        <v>-1</v>
-      </c>
-      <c r="E61" s="61">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="61"/>
+        <v>161</v>
+      </c>
+      <c r="D61" s="70">
+        <v>0</v>
+      </c>
+      <c r="E61" s="70">
+        <v>0</v>
+      </c>
+      <c r="F61" s="70"/>
       <c r="G61" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J61" s="10"/>
-      <c r="L61" s="40" t="s">
-        <v>180</v>
+        <v>159</v>
+      </c>
+      <c r="L61" s="74" t="str">
+        <f>CONCATENATE("#define MENU_POT_CC ",A12)</f>
+        <v>#define MENU_POT_CC 10</v>
       </c>
       <c r="M61" s="76"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="70">
-        <v>0</v>
-      </c>
-      <c r="E62" s="70">
-        <v>0</v>
-      </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="19" t="s">
-        <v>160</v>
+      <c r="G62" s="39" t="str">
+        <f>CONCATENATE("#define MENU_ITEMCOUNT ",A59)</f>
+        <v>#define MENU_ITEMCOUNT 57</v>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="L62" s="74" t="str">
-        <f>CONCATENATE("#define MENU_POT_CC ",A13)</f>
-        <v>#define MENU_POT_CC 11</v>
+        <f>CONCATENATE("#define MENU_BTN_CC ",A17)</f>
+        <v>#define MENU_BTN_CC 15</v>
       </c>
       <c r="M62" s="76"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G63" s="39" t="str">
-        <f>CONCATENATE("#define MENU_ITEMCOUNT ",A60)</f>
-        <v>#define MENU_ITEMCOUNT 58</v>
-      </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="L63" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BTN_CC ",A18)</f>
-        <v>#define MENU_BTN_CC 16</v>
+        <f>CONCATENATE("#define MENU_BTN_MODE ",A34)</f>
+        <v>#define MENU_BTN_MODE 32</v>
       </c>
       <c r="M63" s="76"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L64" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BTN_MODE ",A35)</f>
-        <v>#define MENU_BTN_MODE 33</v>
+        <f>CONCATENATE("#define MENU_KBD_DRIVER ",A51)</f>
+        <v>#define MENU_KBD_DRIVER 49</v>
       </c>
       <c r="M64" s="76"/>
     </row>
     <row r="65" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L65" s="74" t="str">
-        <f>CONCATENATE("#define MENU_KBD_DRIVER ",A52)</f>
-        <v>#define MENU_KBD_DRIVER 50</v>
+        <f>CONCATENATE("#define MENU_MIN_DYN ",A52)</f>
+        <v>#define MENU_MIN_DYN 50</v>
       </c>
       <c r="M65" s="76"/>
     </row>
     <row r="66" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L66" s="74" t="str">
-        <f>CONCATENATE("#define MENU_MIN_DYN ",A53)</f>
-        <v>#define MENU_MIN_DYN 51</v>
+        <f>CONCATENATE("#define MENU_MAX_DYNADJ ",A53)</f>
+        <v>#define MENU_MAX_DYNADJ 51</v>
       </c>
       <c r="M66" s="76"/>
     </row>
     <row r="67" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L67" s="74" t="str">
-        <f>CONCATENATE("#define MENU_MAX_DYNADJ ",A54)</f>
-        <v>#define MENU_MAX_DYNADJ 52</v>
+        <f>CONCATENATE("#define MENU_DYNSLOPE ",A54)</f>
+        <v>#define MENU_DYNSLOPE 52</v>
       </c>
       <c r="M67" s="76"/>
     </row>
     <row r="68" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L68" s="74" t="str">
-        <f>CONCATENATE("#define MENU_DYNSLOPE ",A55)</f>
-        <v>#define MENU_DYNSLOPE 53</v>
+        <f>CONCATENATE("#define MENU_BASE_UPR ",A55)</f>
+        <v>#define MENU_BASE_UPR 53</v>
       </c>
       <c r="M68" s="76"/>
     </row>
     <row r="69" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L69" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BASE_UPR ",A56)</f>
-        <v>#define MENU_BASE_UPR 54</v>
+        <f>CONCATENATE("#define MENU_BASE_LWR ",A56)</f>
+        <v>#define MENU_BASE_LWR 54</v>
       </c>
       <c r="M69" s="76"/>
     </row>
     <row r="70" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L70" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BASE_LWR ",A57)</f>
-        <v>#define MENU_BASE_LWR 55</v>
+        <f>CONCATENATE("#define MENU_BASE_PED ",A57)</f>
+        <v>#define MENU_BASE_PED 55</v>
       </c>
       <c r="M70" s="76"/>
-    </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L71" s="74" t="str">
-        <f>CONCATENATE("#define MENU_BASE_PED ",A58)</f>
-        <v>#define MENU_BASE_PED 56</v>
-      </c>
-      <c r="M71" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4533,22 +4475,22 @@
         <v>20</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="L1" s="52" t="s">
         <v>16</v>
@@ -4559,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="17">
         <v>-1</v>
@@ -4571,10 +4513,10 @@
         <v>-1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="43" t="str">
         <f>CONCATENATE("""",B2,""", ")</f>
@@ -4603,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="17">
         <v>-1</v>
@@ -4615,10 +4557,10 @@
         <v>-1</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="43" t="str">
         <f t="shared" ref="H3:H52" si="2">CONCATENATE("""",B3,""", ")</f>
@@ -4647,10 +4589,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="17">
         <v>-1</v>
@@ -4659,10 +4601,10 @@
         <v>-1</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4691,10 +4633,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="17">
         <v>0</v>
@@ -4703,10 +4645,10 @@
         <v>127</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>167</v>
       </c>
       <c r="H5" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4735,10 +4677,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
@@ -4747,10 +4689,10 @@
         <v>127</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4779,10 +4721,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
@@ -4791,10 +4733,10 @@
         <v>127</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4823,10 +4765,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="16">
         <v>-1</v>
@@ -4835,10 +4777,10 @@
         <v>-1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4870,7 +4812,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="17">
         <v>-1</v>
@@ -4879,10 +4821,10 @@
         <v>-1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4911,10 +4853,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="17">
         <v>0</v>
@@ -4923,10 +4865,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4955,10 +4897,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="17">
         <v>0</v>
@@ -4967,10 +4909,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="43" t="str">
         <f t="shared" si="2"/>
@@ -4999,10 +4941,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="17">
         <v>-1</v>
@@ -5011,10 +4953,10 @@
         <v>31</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5043,10 +4985,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="56">
         <v>-1</v>
@@ -5055,10 +4997,10 @@
         <v>-1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5087,10 +5029,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="16">
         <v>0</v>
@@ -5099,10 +5041,10 @@
         <v>127</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5121,7 +5063,7 @@
         <v xml:space="preserve">  {"Upper DB 16", m_upper_db, &amp;drawbars.upper[0], &amp;fpga_send_upper_db, 0, 127},</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5130,10 +5072,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="16">
         <v>0</v>
@@ -5142,10 +5084,10 @@
         <v>127</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5170,10 +5112,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="16">
         <v>0</v>
@@ -5182,10 +5124,10 @@
         <v>127</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5210,10 +5152,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="16">
         <v>0</v>
@@ -5222,10 +5164,10 @@
         <v>127</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5250,10 +5192,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="16">
         <v>0</v>
@@ -5262,10 +5204,10 @@
         <v>127</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5290,10 +5232,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
@@ -5302,10 +5244,10 @@
         <v>127</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5330,10 +5272,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="16">
         <v>0</v>
@@ -5342,10 +5284,10 @@
         <v>127</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5370,10 +5312,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -5382,10 +5324,10 @@
         <v>127</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5410,10 +5352,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="16">
         <v>0</v>
@@ -5422,10 +5364,10 @@
         <v>127</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5450,10 +5392,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="27">
         <v>-1</v>
@@ -5462,10 +5404,10 @@
         <v>-1</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="43" t="str">
         <f t="shared" ref="H23" si="7">CONCATENATE("""",B23,""", ")</f>
@@ -5490,10 +5432,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="16">
         <v>0</v>
@@ -5502,10 +5444,10 @@
         <v>127</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5530,10 +5472,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="16">
         <v>0</v>
@@ -5542,10 +5484,10 @@
         <v>127</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5570,10 +5512,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="16">
         <v>0</v>
@@ -5582,10 +5524,10 @@
         <v>127</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5610,10 +5552,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="16">
         <v>0</v>
@@ -5622,10 +5564,10 @@
         <v>127</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5650,10 +5592,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="16">
         <v>0</v>
@@ -5662,10 +5604,10 @@
         <v>127</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5690,10 +5632,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
@@ -5702,10 +5644,10 @@
         <v>127</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H29" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5730,10 +5672,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="16">
         <v>0</v>
@@ -5742,10 +5684,10 @@
         <v>127</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5770,10 +5712,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="16">
         <v>0</v>
@@ -5782,10 +5724,10 @@
         <v>127</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5810,10 +5752,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="16">
         <v>0</v>
@@ -5822,10 +5764,10 @@
         <v>127</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H32" s="43" t="str">
         <f>CONCATENATE("""",B32,""", ")</f>
@@ -5850,10 +5792,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="27">
         <v>-1</v>
@@ -5862,10 +5804,10 @@
         <v>-1</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="43" t="str">
         <f>CONCATENATE("""",B33,""", ")</f>
@@ -5890,10 +5832,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="16">
         <v>0</v>
@@ -5902,10 +5844,10 @@
         <v>127</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5930,10 +5872,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="16">
         <v>0</v>
@@ -5942,10 +5884,10 @@
         <v>127</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="43" t="str">
         <f t="shared" si="2"/>
@@ -5970,10 +5912,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="27">
         <v>-1</v>
@@ -5982,10 +5924,10 @@
         <v>-1</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="43" t="str">
         <f t="shared" ref="H36" si="11">CONCATENATE("""",B36,""", ")</f>
@@ -6010,22 +5952,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="69">
+        <v>0</v>
+      </c>
+      <c r="E37" s="69">
+        <v>0</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="69">
-        <v>0</v>
-      </c>
-      <c r="E37" s="69">
-        <v>0</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="H37" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6050,10 +5992,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="69">
         <v>0</v>
@@ -6062,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H38" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6090,10 +6032,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="69">
         <v>0</v>
@@ -6102,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6130,10 +6072,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="69">
         <v>0</v>
@@ -6142,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6170,10 +6112,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="69">
         <v>0</v>
@@ -6182,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6210,10 +6152,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="69">
         <v>0</v>
@@ -6222,10 +6164,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H42" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6250,10 +6192,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="69">
         <v>0</v>
@@ -6262,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6290,10 +6232,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" s="27">
         <v>-1</v>
@@ -6302,10 +6244,10 @@
         <v>-1</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" s="43" t="str">
         <f t="shared" ref="H44" si="15">CONCATENATE("""",B44,""", ")</f>
@@ -6333,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -6342,10 +6284,10 @@
         <v>22</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H45" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6373,7 +6315,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
@@ -6382,10 +6324,10 @@
         <v>40</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H46" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6413,7 +6355,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="17">
         <v>1</v>
@@ -6422,10 +6364,10 @@
         <v>40</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H47" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6453,7 +6395,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
@@ -6462,10 +6404,10 @@
         <v>30</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6490,10 +6432,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="17">
         <v>1</v>
@@ -6502,10 +6444,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H49" s="43" t="str">
         <f t="shared" ref="H49" si="19">CONCATENATE("""",B49,""", ")</f>
@@ -6533,7 +6475,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="17">
         <v>12</v>
@@ -6542,10 +6484,10 @@
         <v>60</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6573,7 +6515,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="17">
         <v>12</v>
@@ -6582,10 +6524,10 @@
         <v>60</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6613,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="17">
         <v>12</v>
@@ -6622,10 +6564,10 @@
         <v>60</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H52" s="43" t="str">
         <f t="shared" si="2"/>
@@ -6653,7 +6595,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="56">
         <v>-1</v>
@@ -6662,10 +6604,10 @@
         <v>-1</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53" s="43" t="str">
         <f t="shared" ref="H53" si="23">CONCATENATE("""",B53,""", ")</f>
@@ -6701,13 +6643,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="61">
         <v>-1</v>
@@ -6716,18 +6658,18 @@
         <v>-1</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="70">
         <v>0</v>
@@ -6736,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
